--- a/Documentacion/Mediciones Motores.xlsx
+++ b/Documentacion/Mediciones Motores.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arimex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arimex\Repo\Arimex\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D561EF-0C3D-45FF-A6D5-F6D36B7AF99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3308D5FD-129E-472E-8F81-5F82AF6557E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{3C149484-8A63-4D47-9889-9B55E210EF14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="659" activeTab="2" xr2:uid="{3C149484-8A63-4D47-9889-9B55E210EF14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Mediciones 25-10" sheetId="2" r:id="rId2"/>
     <sheet name="Mediciones 2-11" sheetId="3" r:id="rId3"/>
+    <sheet name="Mediciones UI" sheetId="4" r:id="rId4"/>
+    <sheet name="Materiales Nucleo" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
   <si>
     <t>Mediciones motores ITA</t>
   </si>
@@ -176,9 +178,6 @@
     <t>2 min</t>
   </si>
   <si>
-    <t>N3 - 180/0.1</t>
-  </si>
-  <si>
     <t>N1 - 165/0.1</t>
   </si>
   <si>
@@ -188,38 +187,218 @@
     <t>L</t>
   </si>
   <si>
-    <t>3P</t>
-  </si>
-  <si>
-    <t>N4 - 170/0.1</t>
-  </si>
-  <si>
-    <t>diametro</t>
-  </si>
-  <si>
-    <t>superficie</t>
-  </si>
-  <si>
-    <t>A/mm²</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>mm²</t>
+    <t>Duty</t>
+  </si>
+  <si>
+    <t>Adelanto</t>
+  </si>
+  <si>
+    <t>Velocidad</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>Pot</t>
+  </si>
+  <si>
+    <t>Corriente</t>
+  </si>
+  <si>
+    <t>Tension</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Irms OSC</t>
+  </si>
+  <si>
+    <t>Blanco</t>
+  </si>
+  <si>
+    <t>Rojo</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>L[mH]</t>
+  </si>
+  <si>
+    <t>R[ohms]</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Time [min]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sentido Directo</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>3P2</t>
+  </si>
+  <si>
+    <t>T max [°C]</t>
+  </si>
+  <si>
+    <t>Adel [%]</t>
+  </si>
+  <si>
+    <t>N3 - 180/0.1 - Nucleo C</t>
+  </si>
+  <si>
+    <t>N4 - 170/0.1 - Nucleo I</t>
+  </si>
+  <si>
+    <t>N5 - 180/0.1 - Nucleo I</t>
+  </si>
+  <si>
+    <t>N6 - 180/0.1 - Nucleo I</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>XIAOMI</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>R [ohms]</t>
+  </si>
+  <si>
+    <t>L [mH]</t>
+  </si>
+  <si>
+    <t>Espiras</t>
+  </si>
+  <si>
+    <t>Nucleo</t>
+  </si>
+  <si>
+    <t>Origen</t>
+  </si>
+  <si>
+    <t>Best Works</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <r>
+      <t>Ø</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.2"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [mm]</t>
+    </r>
+  </si>
+  <si>
+    <t>Datos Motores</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10JNEX900</t>
+  </si>
+  <si>
+    <t>10JNEX600</t>
+  </si>
+  <si>
+    <t>20JHNF1300</t>
+  </si>
+  <si>
+    <t>L [w/kg]
+@ 1kHz, 1T</t>
+  </si>
+  <si>
+    <t>NO20-13</t>
+  </si>
+  <si>
+    <t>NO20-15</t>
+  </si>
+  <si>
+    <t>Core loss</t>
+  </si>
+  <si>
+    <t>Magnetizing Force</t>
+  </si>
+  <si>
+    <t>[T]
+@ 1kHz, 2.5A/m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +420,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.2"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +454,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -442,11 +647,495 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,16 +1169,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,6 +1228,140 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94F48FB-EC76-47CB-8DA4-A5EAA2B00624}">
-  <dimension ref="A2:J12"/>
+  <dimension ref="A2:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,16 +1701,16 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,6 +1884,208 @@
       <c r="I12" s="3"/>
       <c r="J12" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>POWER(2,B19)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="79">
+        <f>1/C19</f>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>IF(E19=1,D19,IF(E19=-1,-D19,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C29" si="0">POWER(2,B20)</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="79">
+        <f t="shared" ref="D20:D29" si="1">1/C20</f>
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F29" si="2">IF(E20=1,D20,IF(E20=-1,-D20,0))</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D21" s="79">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D22" s="79">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D23" s="79">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D24" s="79">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D25" s="79">
+        <f t="shared" si="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="D26" s="79">
+        <f t="shared" si="1"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="D27" s="79">
+        <f t="shared" si="1"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="D28" s="79">
+        <f t="shared" si="1"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="D29" s="79">
+        <f t="shared" si="1"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32">
+        <f>SUM(F19:F29)</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1079,14 +2130,14 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1114,21 +2165,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="37" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -1287,14 +2338,14 @@
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="14">
         <v>38</v>
       </c>
@@ -1321,14 +2372,14 @@
       <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
       <c r="I10" s="14">
         <v>62</v>
       </c>
@@ -1355,14 +2406,14 @@
       <c r="B11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
       <c r="I11" s="11">
         <v>32</v>
       </c>
@@ -1721,578 +2772,2033 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:T24"/>
+  <dimension ref="A1:AC53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J12" sqref="J11:M12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="16" width="10.109375" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R2" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="92"/>
+    </row>
+    <row r="3" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39" t="s">
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="106"/>
+      <c r="R3" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="T3" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="W3" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="X3" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="5" t="s">
+      <c r="L4" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="N4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="O4" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="P4" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="R4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R4" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="51">
+        <v>44502</v>
+      </c>
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="8">
+      <c r="C5" s="109"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81">
         <v>38</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8">
+      <c r="L5" s="81">
         <v>46</v>
       </c>
-      <c r="N5" s="8">
+      <c r="M5" s="81">
         <v>76</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="8">
+      <c r="N5" s="81"/>
+      <c r="O5" s="81">
         <v>1750</v>
       </c>
-      <c r="Q5" s="10">
-        <f>P5*60</f>
+      <c r="P5" s="110">
+        <f t="shared" ref="P5:P10" si="0">O5*60</f>
         <v>105000</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="R5" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="9">
+      <c r="S5" s="99">
+        <f>(61.2+61.1+61.1)/3</f>
+        <v>61.133333333333333</v>
+      </c>
+      <c r="T5" s="99">
+        <f>(5.1+5+5.1)/3</f>
+        <v>5.0666666666666664</v>
+      </c>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="51">
+        <v>44502</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="111">
         <v>42</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="82">
         <v>50</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="82">
         <v>84</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="82">
         <v>0.73</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="82">
         <v>68</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="82">
+        <v>33</v>
+      </c>
+      <c r="I6" s="82">
         <v>1750</v>
       </c>
-      <c r="I6" s="13">
-        <f>H6*60</f>
+      <c r="J6" s="83">
+        <f>I6*60</f>
         <v>105000</v>
       </c>
-      <c r="J6" s="11">
+      <c r="K6" s="83">
         <v>40</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11">
+      <c r="L6" s="83">
         <v>46</v>
       </c>
-      <c r="N6" s="11">
+      <c r="M6" s="83">
         <v>73</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="11">
+      <c r="N6" s="83"/>
+      <c r="O6" s="83">
         <v>1750</v>
       </c>
-      <c r="Q6" s="13">
-        <f>P6*60</f>
+      <c r="P6" s="112">
+        <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="R6" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11">
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="51">
+        <v>44511</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="111">
+        <v>41</v>
+      </c>
+      <c r="D7" s="82">
+        <v>52</v>
+      </c>
+      <c r="E7" s="82">
+        <v>92</v>
+      </c>
+      <c r="F7" s="82">
+        <v>0.74</v>
+      </c>
+      <c r="G7" s="82">
+        <v>76</v>
+      </c>
+      <c r="H7" s="82">
+        <v>40</v>
+      </c>
+      <c r="I7" s="82">
+        <v>1811</v>
+      </c>
+      <c r="J7" s="83">
+        <f>I7*60</f>
+        <v>108660</v>
+      </c>
+      <c r="K7" s="83">
+        <v>36</v>
+      </c>
+      <c r="L7" s="83">
+        <v>44</v>
+      </c>
+      <c r="M7" s="83">
+        <v>79</v>
+      </c>
+      <c r="N7" s="83">
+        <v>0.66</v>
+      </c>
+      <c r="O7" s="83">
+        <v>1750</v>
+      </c>
+      <c r="P7" s="112">
+        <f t="shared" si="0"/>
+        <v>105000</v>
+      </c>
+      <c r="R7" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" s="39">
+        <v>63.5</v>
+      </c>
+      <c r="T7" s="39">
+        <v>3.6</v>
+      </c>
+      <c r="U7" s="39">
+        <v>165</v>
+      </c>
+      <c r="V7" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="W7" s="39"/>
+      <c r="X7" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="51">
+        <v>44511</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="111">
+        <v>40</v>
+      </c>
+      <c r="D8" s="82">
+        <v>51</v>
+      </c>
+      <c r="E8" s="82">
+        <v>92</v>
+      </c>
+      <c r="F8" s="82">
+        <v>0.74</v>
+      </c>
+      <c r="G8" s="82">
+        <v>76</v>
+      </c>
+      <c r="H8" s="82">
+        <v>40</v>
+      </c>
+      <c r="I8" s="82">
+        <v>1825</v>
+      </c>
+      <c r="J8" s="83">
+        <f>I8*60</f>
+        <v>109500</v>
+      </c>
+      <c r="K8" s="83">
+        <v>36</v>
+      </c>
+      <c r="L8" s="83">
+        <v>45</v>
+      </c>
+      <c r="M8" s="83">
+        <v>78</v>
+      </c>
+      <c r="N8" s="83">
+        <v>0.66</v>
+      </c>
+      <c r="O8" s="83">
+        <v>1750</v>
+      </c>
+      <c r="P8" s="112">
+        <f t="shared" si="0"/>
+        <v>105000</v>
+      </c>
+      <c r="R8" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="S8" s="99">
+        <f>(63.3+62.9+62.7)/3</f>
+        <v>62.966666666666661</v>
+      </c>
+      <c r="T8" s="99">
+        <f>(3.5+3.6+3.3)/3</f>
+        <v>3.4666666666666663</v>
+      </c>
+      <c r="U8" s="39">
+        <v>165</v>
+      </c>
+      <c r="V8" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="W8" s="39"/>
+      <c r="X8" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="51">
+        <v>44502</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="113"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84">
         <v>42</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11">
+      <c r="L9" s="84">
         <v>49</v>
       </c>
-      <c r="N7" s="11">
+      <c r="M9" s="84">
         <v>78</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="11">
+      <c r="N9" s="84"/>
+      <c r="O9" s="84">
         <v>1750</v>
       </c>
-      <c r="Q7" s="13">
-        <f>P7*60</f>
+      <c r="P9" s="114">
+        <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="11">
+      <c r="R9" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="S9" s="39">
+        <v>64.8</v>
+      </c>
+      <c r="T9" s="39">
+        <v>4.7</v>
+      </c>
+      <c r="U9" s="39">
+        <v>180</v>
+      </c>
+      <c r="V9" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="W9" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="51">
+        <v>44502</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85">
         <v>63</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11">
+      <c r="L10" s="85">
         <v>96</v>
       </c>
-      <c r="N8" s="11">
+      <c r="M10" s="85">
         <v>108</v>
       </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="13"/>
-      <c r="R8">
-        <v>63.5</v>
-      </c>
-      <c r="S8">
-        <v>3.6</v>
-      </c>
-      <c r="T8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="12">
-        <v>44</v>
-      </c>
-      <c r="D10" s="11">
-        <v>56</v>
-      </c>
-      <c r="E10" s="11">
-        <v>85</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.73</v>
-      </c>
-      <c r="G10" s="11">
-        <v>68</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="N10" s="85"/>
+      <c r="O10" s="85">
         <v>1750</v>
       </c>
-      <c r="I10" s="13">
-        <f>H10*60</f>
+      <c r="P10" s="116">
+        <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-      <c r="J10" s="11">
-        <v>40</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11">
-        <v>50</v>
-      </c>
-      <c r="N10" s="11">
-        <v>82</v>
-      </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="11">
-        <v>1750</v>
-      </c>
-      <c r="Q10" s="13">
-        <f>P10*60</f>
-        <v>105000</v>
-      </c>
-      <c r="R10">
-        <v>64.8</v>
-      </c>
-      <c r="S10">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="12">
-        <v>44</v>
-      </c>
-      <c r="D11" s="11">
-        <v>55</v>
-      </c>
-      <c r="E11" s="11">
-        <v>82</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.73</v>
-      </c>
-      <c r="G11" s="11">
-        <v>68</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1724</v>
-      </c>
-      <c r="I11" s="13">
-        <f>H11*60</f>
-        <v>103440</v>
-      </c>
-      <c r="J11" s="11">
-        <v>43</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11">
-        <v>51</v>
-      </c>
-      <c r="N11" s="11">
-        <v>82</v>
-      </c>
-      <c r="O11" s="29">
-        <v>0.72</v>
-      </c>
-      <c r="P11" s="11">
-        <v>1750</v>
-      </c>
-      <c r="Q11" s="13">
-        <f>P11*60</f>
-        <v>105000</v>
-      </c>
-      <c r="R11">
-        <v>64.8</v>
-      </c>
-      <c r="S11">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="26">
-        <v>52</v>
-      </c>
-      <c r="D12" s="27">
-        <v>72</v>
-      </c>
-      <c r="E12" s="27">
-        <v>95</v>
-      </c>
-      <c r="F12" s="27">
-        <v>0.82</v>
-      </c>
-      <c r="G12" s="27">
-        <v>68</v>
-      </c>
-      <c r="H12" s="27">
-        <v>1742</v>
-      </c>
-      <c r="I12" s="28">
-        <f>60*H12</f>
-        <v>104520</v>
-      </c>
-      <c r="J12" s="11">
-        <v>49</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11">
-        <v>63.7</v>
-      </c>
-      <c r="N12" s="11">
-        <v>88</v>
-      </c>
-      <c r="O12" s="29">
-        <v>0.76</v>
-      </c>
-      <c r="P12" s="11">
-        <v>1750</v>
-      </c>
-      <c r="Q12" s="13">
-        <f>P12*60</f>
-        <v>105000</v>
-      </c>
-      <c r="R12">
+      <c r="R10" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="S10" s="39">
         <v>62</v>
       </c>
-      <c r="S12" s="32">
+      <c r="T10" s="99">
         <f>(4.5+4.5+4.1)/3</f>
         <v>4.3666666666666663</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="U10" s="39">
+        <v>170</v>
+      </c>
+      <c r="V10" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="W10" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="X10" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA10">
+        <v>63.5</v>
+      </c>
+      <c r="AB10">
+        <v>3.6</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="114"/>
+      <c r="R11" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" s="99">
+        <f>(66+66.4+66.3)/3</f>
+        <v>66.233333333333334</v>
+      </c>
+      <c r="T11" s="99">
+        <f>(4.7+4.5+4.7)/3</f>
+        <v>4.6333333333333329</v>
+      </c>
+      <c r="U11" s="39">
+        <v>180</v>
+      </c>
+      <c r="V11" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="W11" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51">
+        <v>44503</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="113">
+        <v>44</v>
+      </c>
+      <c r="D12" s="84">
+        <v>56</v>
+      </c>
+      <c r="E12" s="84">
+        <v>85</v>
+      </c>
+      <c r="F12" s="84">
+        <v>0.73</v>
+      </c>
+      <c r="G12" s="84">
+        <v>68</v>
+      </c>
+      <c r="H12" s="84">
+        <v>33</v>
+      </c>
+      <c r="I12" s="84">
+        <v>1750</v>
+      </c>
+      <c r="J12" s="84">
+        <f>I12*60</f>
+        <v>105000</v>
+      </c>
+      <c r="K12" s="84">
+        <v>40</v>
+      </c>
+      <c r="L12" s="84">
+        <v>50</v>
+      </c>
+      <c r="M12" s="84">
+        <v>82</v>
+      </c>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84">
+        <v>1750</v>
+      </c>
+      <c r="P12" s="114">
+        <f>O12*60</f>
+        <v>105000</v>
+      </c>
+      <c r="R12" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="S12" s="99">
+        <f>(66.1+66.4+66.4)/3</f>
+        <v>66.3</v>
+      </c>
+      <c r="T12" s="99">
+        <f>(4.4+4.2+4.3)/3</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="U12" s="39">
+        <v>180</v>
+      </c>
+      <c r="V12" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="W12" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA12">
+        <v>64.8</v>
+      </c>
+      <c r="AB12">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="51">
+        <v>44503</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="113">
+        <v>44</v>
+      </c>
+      <c r="D13" s="84">
+        <v>55</v>
+      </c>
+      <c r="E13" s="84">
+        <v>82</v>
+      </c>
+      <c r="F13" s="84">
+        <v>0.73</v>
+      </c>
+      <c r="G13" s="84">
+        <v>68</v>
+      </c>
+      <c r="H13" s="84">
+        <v>33</v>
+      </c>
+      <c r="I13" s="84">
+        <v>1724</v>
+      </c>
+      <c r="J13" s="84">
+        <f>I13*60</f>
+        <v>103440</v>
+      </c>
+      <c r="K13" s="84">
+        <v>43</v>
+      </c>
+      <c r="L13" s="84">
         <v>51</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="13"/>
-      <c r="R13">
+      <c r="M13" s="84">
+        <v>82</v>
+      </c>
+      <c r="N13" s="84">
+        <v>0.72</v>
+      </c>
+      <c r="O13" s="84">
+        <v>1750</v>
+      </c>
+      <c r="P13" s="114">
+        <f>O13*60</f>
+        <v>105000</v>
+      </c>
+      <c r="R13" s="100"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="40"/>
+      <c r="AA13">
+        <v>64.8</v>
+      </c>
+      <c r="AB13">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="51">
+        <v>44503</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="117">
+        <v>52</v>
+      </c>
+      <c r="D14" s="86">
+        <v>72</v>
+      </c>
+      <c r="E14" s="86">
+        <v>95</v>
+      </c>
+      <c r="F14" s="86">
+        <v>0.82</v>
+      </c>
+      <c r="G14" s="86">
+        <v>68</v>
+      </c>
+      <c r="H14" s="86">
+        <v>33</v>
+      </c>
+      <c r="I14" s="86">
+        <v>1742</v>
+      </c>
+      <c r="J14" s="86">
+        <f>60*I14</f>
+        <v>104520</v>
+      </c>
+      <c r="K14" s="85">
+        <v>49</v>
+      </c>
+      <c r="L14" s="85">
+        <v>64</v>
+      </c>
+      <c r="M14" s="85">
+        <v>88</v>
+      </c>
+      <c r="N14" s="85">
+        <v>0.76</v>
+      </c>
+      <c r="O14" s="85">
+        <v>1750</v>
+      </c>
+      <c r="P14" s="116">
+        <f>O14*60</f>
+        <v>105000</v>
+      </c>
+      <c r="R14" s="101"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="46"/>
+      <c r="AA14">
         <v>62</v>
       </c>
-      <c r="S13" s="32">
+      <c r="AB14" s="25">
         <f>(4.5+4.5+4.1)/3</f>
         <v>4.3666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="51">
+        <v>44509</v>
+      </c>
       <c r="B15" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="13"/>
-      <c r="R15">
+        <v>81</v>
+      </c>
+      <c r="C15" s="118">
+        <v>42</v>
+      </c>
+      <c r="D15" s="87">
+        <v>71</v>
+      </c>
+      <c r="E15" s="87">
+        <v>86</v>
+      </c>
+      <c r="F15" s="87">
+        <v>0.72</v>
+      </c>
+      <c r="G15" s="87">
+        <v>68</v>
+      </c>
+      <c r="H15" s="87">
+        <v>33</v>
+      </c>
+      <c r="I15" s="87">
+        <v>1712</v>
+      </c>
+      <c r="J15" s="87">
+        <f t="shared" ref="J15:J20" si="1">I15*60</f>
+        <v>102720</v>
+      </c>
+      <c r="K15" s="84">
+        <v>38</v>
+      </c>
+      <c r="L15" s="84">
+        <v>67</v>
+      </c>
+      <c r="M15" s="84">
+        <v>94</v>
+      </c>
+      <c r="N15" s="84">
+        <v>0.77</v>
+      </c>
+      <c r="O15" s="84">
+        <v>1750</v>
+      </c>
+      <c r="P15" s="114">
+        <f>O15*60</f>
+        <v>105000</v>
+      </c>
+      <c r="AA15" s="25">
+        <f>(66+66.4+66.3)/3</f>
+        <v>66.233333333333334</v>
+      </c>
+      <c r="AB15" s="25">
+        <f>(4.7+4.5+4.7)/3</f>
+        <v>4.6333333333333329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="51">
+        <v>44509</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="118">
+        <v>42</v>
+      </c>
+      <c r="D16" s="87">
+        <v>71</v>
+      </c>
+      <c r="E16" s="87">
+        <v>85</v>
+      </c>
+      <c r="F16" s="87">
+        <v>0.72</v>
+      </c>
+      <c r="G16" s="87">
+        <v>68</v>
+      </c>
+      <c r="H16" s="87">
+        <v>33</v>
+      </c>
+      <c r="I16" s="87">
+        <v>1712</v>
+      </c>
+      <c r="J16" s="87">
+        <f t="shared" si="1"/>
+        <v>102720</v>
+      </c>
+      <c r="K16" s="84">
+        <v>40</v>
+      </c>
+      <c r="L16" s="84">
+        <v>68</v>
+      </c>
+      <c r="M16" s="84">
+        <v>95</v>
+      </c>
+      <c r="N16" s="84">
+        <v>0.79</v>
+      </c>
+      <c r="O16" s="84">
+        <v>1750</v>
+      </c>
+      <c r="P16" s="114">
+        <f>O16*60</f>
+        <v>105000</v>
+      </c>
+      <c r="AA16" s="25">
+        <f>(66+66.4+66.3)/3</f>
+        <v>66.233333333333334</v>
+      </c>
+      <c r="AB16" s="25">
+        <f>(4.7+4.5+4.7)/3</f>
+        <v>4.6333333333333329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" s="51">
+        <v>44509</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="118">
+        <v>42</v>
+      </c>
+      <c r="D17" s="87">
+        <v>72</v>
+      </c>
+      <c r="E17" s="87">
+        <v>89</v>
+      </c>
+      <c r="F17" s="87">
+        <v>0.74</v>
+      </c>
+      <c r="G17" s="87">
+        <v>70</v>
+      </c>
+      <c r="H17" s="87">
+        <v>33</v>
+      </c>
+      <c r="I17" s="87">
+        <v>1724</v>
+      </c>
+      <c r="J17" s="87">
+        <f t="shared" si="1"/>
+        <v>103440</v>
+      </c>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="114"/>
+      <c r="AA17" s="25">
+        <f>(66+66.4+66.3)/3</f>
+        <v>66.233333333333334</v>
+      </c>
+      <c r="AB17" s="25">
+        <f>(4.7+4.5+4.7)/3</f>
+        <v>4.6333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="51">
+        <v>44511</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="119">
+        <v>53</v>
+      </c>
+      <c r="D18" s="88">
+        <v>71</v>
+      </c>
+      <c r="E18" s="88">
+        <v>83</v>
+      </c>
+      <c r="F18" s="88">
+        <v>0.71</v>
+      </c>
+      <c r="G18" s="88">
+        <v>68</v>
+      </c>
+      <c r="H18" s="88">
+        <v>33</v>
+      </c>
+      <c r="I18" s="88">
+        <v>1678</v>
+      </c>
+      <c r="J18" s="88">
+        <f t="shared" si="1"/>
+        <v>100680</v>
+      </c>
+      <c r="K18" s="83">
+        <v>52</v>
+      </c>
+      <c r="L18" s="83">
+        <v>70</v>
+      </c>
+      <c r="M18" s="83">
+        <v>84</v>
+      </c>
+      <c r="N18" s="83">
+        <v>0.74</v>
+      </c>
+      <c r="O18" s="83">
+        <v>1750</v>
+      </c>
+      <c r="P18" s="112">
+        <f>O18*60</f>
+        <v>105000</v>
+      </c>
+      <c r="AA18" s="25">
+        <f>(66.1+66.4+66.4)/3</f>
+        <v>66.3</v>
+      </c>
+      <c r="AB18" s="25">
+        <f>(4.4+4.2+4.3)/3</f>
+        <v>4.3000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="51">
+        <v>44511</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="119">
+        <v>54</v>
+      </c>
+      <c r="D19" s="88">
+        <v>73</v>
+      </c>
+      <c r="E19" s="88">
+        <v>82</v>
+      </c>
+      <c r="F19" s="88">
+        <v>0.72</v>
+      </c>
+      <c r="G19" s="88">
+        <v>68</v>
+      </c>
+      <c r="H19" s="88">
+        <v>33</v>
+      </c>
+      <c r="I19" s="88">
+        <v>1678</v>
+      </c>
+      <c r="J19" s="88">
+        <f t="shared" si="1"/>
+        <v>100680</v>
+      </c>
+      <c r="K19" s="83">
+        <v>53</v>
+      </c>
+      <c r="L19" s="83">
+        <v>69</v>
+      </c>
+      <c r="M19" s="83">
+        <v>84</v>
+      </c>
+      <c r="N19" s="83">
+        <v>0.73</v>
+      </c>
+      <c r="O19" s="83">
+        <v>1750</v>
+      </c>
+      <c r="P19" s="112">
+        <f>O19*60</f>
+        <v>105000</v>
+      </c>
+      <c r="AA19" s="25">
+        <f>(66.1+66.4+66.4)/3</f>
+        <v>66.3</v>
+      </c>
+      <c r="AB19" s="25">
+        <f>(4.4+4.2+4.3)/3</f>
+        <v>4.3000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="51">
+        <v>44511</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="119">
+        <v>52</v>
+      </c>
+      <c r="D20" s="88">
+        <v>70</v>
+      </c>
+      <c r="E20" s="88">
+        <v>88</v>
+      </c>
+      <c r="F20" s="88">
+        <v>0.73</v>
+      </c>
+      <c r="G20" s="88">
+        <v>76</v>
+      </c>
+      <c r="H20" s="88">
+        <v>40</v>
+      </c>
+      <c r="I20" s="88">
+        <v>1748</v>
+      </c>
+      <c r="J20" s="88">
+        <f t="shared" si="1"/>
+        <v>104880</v>
+      </c>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="112"/>
+      <c r="AA20" s="25">
+        <f>(66.1+66.4+66.4)/3</f>
+        <v>66.3</v>
+      </c>
+      <c r="AB20" s="25">
+        <f>(4.4+4.2+4.3)/3</f>
+        <v>4.3000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B21" s="19"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="114"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B22" s="19"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="114"/>
+      <c r="AA22" s="25">
+        <f>(60+59+60)/3</f>
+        <v>59.666666666666664</v>
+      </c>
+      <c r="AB22" s="25">
+        <f>(12.5+11.6+12.5)/3</f>
+        <v>12.200000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B23" s="19"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="121"/>
+      <c r="AA23" s="25">
+        <f>(66.2+66+66)/3</f>
+        <v>66.066666666666663</v>
+      </c>
+      <c r="AB23" s="25">
+        <f>(14.2+15.3+16)/3</f>
+        <v>15.166666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="19"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="121"/>
+    </row>
+    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="19"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="125"/>
+    </row>
+    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+      <c r="M28" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C29" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" s="27"/>
+      <c r="N29" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="64">
+        <v>62</v>
+      </c>
+      <c r="E30" s="64">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="37">
+        <v>1</v>
+      </c>
+      <c r="I30" s="37">
+        <v>87</v>
+      </c>
+      <c r="J30" s="37">
+        <v>37</v>
+      </c>
+      <c r="K30" s="38">
+        <v>0.64</v>
+      </c>
+      <c r="M30" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="O30" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="S15">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="18"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20">
-        <v>0.45</v>
-      </c>
-      <c r="F20" t="s">
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C31" s="68"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="39">
+        <v>2</v>
+      </c>
+      <c r="I31" s="39">
+        <v>88</v>
+      </c>
+      <c r="J31" s="39">
+        <v>38</v>
+      </c>
+      <c r="K31" s="40">
+        <v>0.65</v>
+      </c>
+      <c r="M31" s="73"/>
+      <c r="N31" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="O31" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="68"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="39">
+        <v>3</v>
+      </c>
+      <c r="I32" s="39">
+        <v>88</v>
+      </c>
+      <c r="J32" s="39">
+        <v>39</v>
+      </c>
+      <c r="K32" s="40">
+        <v>0.65</v>
+      </c>
+      <c r="M32" s="74"/>
+      <c r="N32" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" s="68"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="39">
+        <v>5</v>
+      </c>
+      <c r="I33" s="39">
+        <v>89</v>
+      </c>
+      <c r="J33" s="39">
+        <v>39</v>
+      </c>
+      <c r="K33" s="40">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" s="68"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="39">
+        <v>10</v>
+      </c>
+      <c r="I34" s="39">
+        <v>89</v>
+      </c>
+      <c r="J34" s="39">
+        <v>39</v>
+      </c>
+      <c r="K34" s="40">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35" s="69"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42">
         <v>56</v>
       </c>
-      <c r="M20">
-        <v>180</v>
-      </c>
-      <c r="N20">
-        <v>64.8</v>
-      </c>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="31">
-        <f>PI()*E20*E20/4</f>
-        <v>0.15904312808798329</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21">
-        <v>170</v>
-      </c>
-      <c r="N21">
-        <f>M21*N20/M20</f>
-        <v>61.2</v>
-      </c>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="E23">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="E24" s="31">
-        <f>E23*E21</f>
-        <v>1.113301896615883</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
+      <c r="K35" s="43"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="64">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E36" s="64">
+        <v>15.2</v>
+      </c>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="37">
+        <v>1</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="38"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="68"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="39">
+        <v>2</v>
+      </c>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="40"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="68"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="39">
+        <v>3</v>
+      </c>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="40"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="68"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="39">
+        <v>5</v>
+      </c>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="40"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C40" s="68"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="39">
+        <v>10</v>
+      </c>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="40"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C41" s="69"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="43"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C42" s="67"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="37">
+        <v>1</v>
+      </c>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="38"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C43" s="68"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="39">
+        <v>2</v>
+      </c>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="40"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C44" s="68"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="39">
+        <v>3</v>
+      </c>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="40"/>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C45" s="68"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="39">
+        <v>5</v>
+      </c>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="40"/>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C46" s="68"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="39">
+        <v>10</v>
+      </c>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="40"/>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C47" s="69"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="43"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C48" s="67"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="37">
+        <v>1</v>
+      </c>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="38"/>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C49" s="68"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="39">
+        <v>2</v>
+      </c>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="40"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C50" s="68"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="39">
+        <v>3</v>
+      </c>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="40"/>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C51" s="68"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="39">
+        <v>5</v>
+      </c>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="40"/>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C52" s="68"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="39">
+        <v>10</v>
+      </c>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="40"/>
+    </row>
+    <row r="53" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="71"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="J3:Q3"/>
+  <mergeCells count="26">
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="E36:E41"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F36:F41"/>
+    <mergeCell ref="G36:G41"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="F42:F47"/>
+    <mergeCell ref="G42:G47"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="E42:E47"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="E48:E53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3FED4C-B561-48FA-967F-3A8805541661}">
+  <dimension ref="A2:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11:P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O2" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P3" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="78"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D4" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="78"/>
+      <c r="O4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="26">
+        <v>1</v>
+      </c>
+      <c r="P5" s="26">
+        <v>1150</v>
+      </c>
+      <c r="Q5" s="26">
+        <f>P5*60</f>
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>230</v>
+      </c>
+      <c r="B6">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>1760</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E14" si="0">D6*60</f>
+        <v>105600</v>
+      </c>
+      <c r="F6">
+        <v>79</v>
+      </c>
+      <c r="G6">
+        <v>0.67</v>
+      </c>
+      <c r="H6">
+        <v>0.52</v>
+      </c>
+      <c r="J6">
+        <f>A6*G6</f>
+        <v>154.10000000000002</v>
+      </c>
+      <c r="K6" s="24">
+        <f>J6/F6</f>
+        <v>1.9506329113924052</v>
+      </c>
+      <c r="O6" s="26">
+        <v>2</v>
+      </c>
+      <c r="P6" s="26">
+        <v>1400</v>
+      </c>
+      <c r="Q6" s="26">
+        <f>P6*60</f>
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>230</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>1600</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>96000</v>
+      </c>
+      <c r="F7">
+        <v>61</v>
+      </c>
+      <c r="G7">
+        <v>0.52</v>
+      </c>
+      <c r="H7">
+        <v>0.49</v>
+      </c>
+      <c r="J7">
+        <f>A7*G7</f>
+        <v>119.60000000000001</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" ref="K7:K9" si="1">J7/F7</f>
+        <v>1.9606557377049181</v>
+      </c>
+      <c r="O7" s="26">
+        <v>3</v>
+      </c>
+      <c r="P7" s="26">
+        <v>1750</v>
+      </c>
+      <c r="Q7" s="26">
+        <f>P7*60</f>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>230</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>1351</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>81060</v>
+      </c>
+      <c r="F8">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
+      </c>
+      <c r="H8">
+        <v>0.37</v>
+      </c>
+      <c r="J8">
+        <f>A8*G8</f>
+        <v>69</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="1"/>
+        <v>1.8648648648648649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>230</v>
+      </c>
+      <c r="B9">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>1798</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>107880</v>
+      </c>
+      <c r="F9">
+        <v>95</v>
+      </c>
+      <c r="G9">
+        <v>0.8</v>
+      </c>
+      <c r="J9">
+        <f>A9*G9</f>
+        <v>184</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="1"/>
+        <v>1.9368421052631579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>230</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>230</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>230</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>230</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>230</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="O2:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F0D995-9E91-404C-BBB7-C4FB3B0E82AA}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="126" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentacion/Mediciones Motores.xlsx
+++ b/Documentacion/Mediciones Motores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arimex\Repo\Arimex\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3308D5FD-129E-472E-8F81-5F82AF6557E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC64333-2D77-4AF8-A3FD-261AB2963AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="659" activeTab="2" xr2:uid="{3C149484-8A63-4D47-9889-9B55E210EF14}"/>
   </bookViews>
@@ -16,8 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Mediciones 25-10" sheetId="2" r:id="rId2"/>
     <sheet name="Mediciones 2-11" sheetId="3" r:id="rId3"/>
-    <sheet name="Mediciones UI" sheetId="4" r:id="rId4"/>
-    <sheet name="Materiales Nucleo" sheetId="5" r:id="rId5"/>
+    <sheet name="Optimizacion Param" sheetId="6" r:id="rId4"/>
+    <sheet name="Mediciones UI" sheetId="4" r:id="rId5"/>
+    <sheet name="Materiales Nucleo" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="119">
   <si>
     <t>Mediciones motores ITA</t>
   </si>
@@ -175,16 +176,10 @@
     <t>B3</t>
   </si>
   <si>
-    <t>2 min</t>
-  </si>
-  <si>
     <t>N1 - 165/0.1</t>
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
   <si>
     <t>Duty</t>
@@ -388,6 +383,33 @@
   <si>
     <t>[T]
 @ 1kHz, 2.5A/m</t>
+  </si>
+  <si>
+    <t>Core Loss</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Pcable</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>N7 - 170/0.1</t>
+  </si>
+  <si>
+    <t>En tubo</t>
+  </si>
+  <si>
+    <t>Calificacion</t>
   </si>
 </sst>
 </file>
@@ -435,7 +457,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +488,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="55">
     <border>
@@ -1058,11 +1086,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1072,44 +1128,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="hair">
@@ -1122,20 +1141,31 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1204,6 +1234,66 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1280,22 +1370,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1305,64 +1379,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,6 +1420,1030 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Materiales Nucleo'!$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pcable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Materiales Nucleo'!$J$10:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Materiales Nucleo'!$M$10:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2115.3609679999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2073.8833019607837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2034.0009307692303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1995.6235547169808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1958.6675629629628</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1923.055425454545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1888.7151499999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1855.5797964912281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1823.58704137931</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1792.6787864406776</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1762.8008066666662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1733.9024327868847</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1705.9362645161289</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1678.8579111111108</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1652.6257562499998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1627.2007446153843</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1602.5461878787876</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1578.6275880597011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1555.412476470588</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1532.8702666666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1510.9721199999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B261-4C62-AD2C-79E17F86572A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="681498448"/>
+        <c:axId val="681498864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="681498448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681498864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="681498864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681498448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34B90C6-2C68-4C35-9EF4-C9B5C47E59F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1701,16 +2767,16 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
       <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1894,7 +2960,7 @@
         <f>POWER(2,B19)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="53">
         <f>1/C19</f>
         <v>1</v>
       </c>
@@ -1914,7 +2980,7 @@
         <f t="shared" ref="C20:C29" si="0">POWER(2,B20)</f>
         <v>2</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="53">
         <f t="shared" ref="D20:D29" si="1">1/C20</f>
         <v>0.5</v>
       </c>
@@ -1934,7 +3000,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="53">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
@@ -1951,7 +3017,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="53">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -1968,7 +3034,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="53">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
@@ -1985,7 +3051,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="53">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
@@ -2002,7 +3068,7 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="53">
         <f t="shared" si="1"/>
         <v>1.5625E-2</v>
       </c>
@@ -2019,7 +3085,7 @@
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="53">
         <f t="shared" si="1"/>
         <v>7.8125E-3</v>
       </c>
@@ -2036,7 +3102,7 @@
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="53">
         <f t="shared" si="1"/>
         <v>3.90625E-3</v>
       </c>
@@ -2053,7 +3119,7 @@
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="53">
         <f t="shared" si="1"/>
         <v>1.953125E-3</v>
       </c>
@@ -2070,7 +3136,7 @@
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="D29" s="79">
+      <c r="D29" s="53">
         <f t="shared" si="1"/>
         <v>9.765625E-4</v>
       </c>
@@ -2081,7 +3147,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32">
         <f>SUM(F19:F29)</f>
@@ -2130,14 +3196,14 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2165,21 +3231,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="57" t="s">
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -2338,14 +3404,14 @@
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="98"/>
       <c r="I9" s="14">
         <v>38</v>
       </c>
@@ -2372,14 +3438,14 @@
       <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98"/>
       <c r="I10" s="14">
         <v>62</v>
       </c>
@@ -2406,14 +3472,14 @@
       <c r="B11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="98"/>
       <c r="I11" s="11">
         <v>32</v>
       </c>
@@ -2772,1664 +3838,2798 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC53"/>
+  <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="16" width="10.109375" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R2" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="92"/>
-    </row>
-    <row r="3" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U2" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="122"/>
+    </row>
+    <row r="3" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="124"/>
+      <c r="U3" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="W3" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="106"/>
-      <c r="R3" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="S3" s="94" t="s">
+      <c r="X3" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="T3" s="94" t="s">
+      <c r="Y3" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="U3" s="94" t="s">
+      <c r="AA3" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="V3" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="W3" s="94" t="s">
-        <v>89</v>
-      </c>
-      <c r="X3" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="80" t="s">
+      <c r="D4" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="80" t="s">
+      <c r="H4" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="80" t="s">
+      <c r="J4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="P4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="U4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
       <c r="V4" s="37"/>
       <c r="W4" s="37"/>
-      <c r="X4" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="51">
         <v>44502</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81">
+      <c r="C5" s="73"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="73">
         <v>38</v>
       </c>
-      <c r="L5" s="81">
+      <c r="L5" s="55">
         <v>46</v>
       </c>
-      <c r="M5" s="81">
+      <c r="M5" s="55">
         <v>76</v>
       </c>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81">
+      <c r="N5" s="55"/>
+      <c r="O5" s="55">
         <v>1750</v>
       </c>
-      <c r="P5" s="110">
-        <f t="shared" ref="P5:P10" si="0">O5*60</f>
+      <c r="P5" s="74">
+        <f t="shared" ref="P5:P9" si="0">O5*60</f>
         <v>105000</v>
       </c>
-      <c r="R5" s="98" t="s">
+      <c r="U5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="99">
+      <c r="V5" s="70">
         <f>(61.2+61.1+61.1)/3</f>
         <v>61.133333333333333</v>
       </c>
-      <c r="T5" s="99">
+      <c r="W5" s="70">
         <f>(5.1+5+5.1)/3</f>
         <v>5.0666666666666664</v>
       </c>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="51">
         <v>44502</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="75">
         <v>42</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="56">
         <v>50</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="56">
         <v>84</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="56">
         <v>0.73</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="56">
         <v>68</v>
       </c>
-      <c r="H6" s="82">
+      <c r="H6" s="56">
         <v>33</v>
       </c>
-      <c r="I6" s="82">
+      <c r="I6" s="56">
         <v>1750</v>
       </c>
-      <c r="J6" s="83">
+      <c r="J6" s="128">
         <f>I6*60</f>
         <v>105000</v>
       </c>
-      <c r="K6" s="83">
+      <c r="K6" s="136">
         <v>40</v>
       </c>
-      <c r="L6" s="83">
+      <c r="L6" s="57">
         <v>46</v>
       </c>
-      <c r="M6" s="83">
+      <c r="M6" s="57">
         <v>73</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83">
+      <c r="N6" s="57"/>
+      <c r="O6" s="57">
         <v>1750</v>
       </c>
-      <c r="P6" s="112">
+      <c r="P6" s="76">
         <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-      <c r="R6" s="98" t="s">
+      <c r="R6">
+        <f>C6-K6</f>
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <f>D6-L6</f>
+        <v>4</v>
+      </c>
+      <c r="U6" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
       <c r="V6" s="39"/>
       <c r="W6" s="39"/>
-      <c r="X6" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="51">
         <v>44511</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="75">
         <v>41</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="56">
         <v>52</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="56">
         <v>92</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="56">
         <v>0.74</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="56">
         <v>76</v>
       </c>
-      <c r="H7" s="82">
+      <c r="H7" s="56">
         <v>40</v>
       </c>
-      <c r="I7" s="82">
+      <c r="I7" s="56">
         <v>1811</v>
       </c>
-      <c r="J7" s="83">
+      <c r="J7" s="128">
         <f>I7*60</f>
         <v>108660</v>
       </c>
-      <c r="K7" s="83">
+      <c r="K7" s="136">
         <v>36</v>
       </c>
-      <c r="L7" s="83">
+      <c r="L7" s="57">
         <v>44</v>
       </c>
-      <c r="M7" s="83">
+      <c r="M7" s="57">
         <v>79</v>
       </c>
-      <c r="N7" s="83">
+      <c r="N7" s="57">
         <v>0.66</v>
       </c>
-      <c r="O7" s="83">
+      <c r="O7" s="57">
         <v>1750</v>
       </c>
-      <c r="P7" s="112">
+      <c r="P7" s="76">
         <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-      <c r="R7" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="S7" s="39">
+      <c r="R7">
+        <f t="shared" ref="R7:R33" si="1">C7-K7</f>
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S33" si="2">D7-L7</f>
+        <v>8</v>
+      </c>
+      <c r="U7" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="V7" s="39">
         <v>63.5</v>
       </c>
-      <c r="T7" s="39">
+      <c r="W7" s="39">
         <v>3.6</v>
       </c>
-      <c r="U7" s="39">
+      <c r="X7" s="39">
         <v>165</v>
       </c>
-      <c r="V7" s="39">
+      <c r="Y7" s="39">
         <v>0.1</v>
       </c>
-      <c r="W7" s="39"/>
-      <c r="X7" s="40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="51">
         <v>44511</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="111">
+      <c r="C8" s="75">
         <v>40</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="56">
         <v>51</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="56">
         <v>92</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="56">
         <v>0.74</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="56">
         <v>76</v>
       </c>
-      <c r="H8" s="82">
+      <c r="H8" s="56">
         <v>40</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="56">
         <v>1825</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="128">
         <f>I8*60</f>
         <v>109500</v>
       </c>
-      <c r="K8" s="83">
+      <c r="K8" s="136">
         <v>36</v>
       </c>
-      <c r="L8" s="83">
+      <c r="L8" s="57">
         <v>45</v>
       </c>
-      <c r="M8" s="83">
+      <c r="M8" s="57">
         <v>78</v>
       </c>
-      <c r="N8" s="83">
+      <c r="N8" s="57">
         <v>0.66</v>
       </c>
-      <c r="O8" s="83">
+      <c r="O8" s="57">
         <v>1750</v>
       </c>
-      <c r="P8" s="112">
+      <c r="P8" s="76">
         <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-      <c r="R8" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="S8" s="99">
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U8" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="V8" s="70">
         <f>(63.3+62.9+62.7)/3</f>
         <v>62.966666666666661</v>
       </c>
-      <c r="T8" s="99">
+      <c r="W8" s="70">
         <f>(3.5+3.6+3.3)/3</f>
         <v>3.4666666666666663</v>
       </c>
-      <c r="U8" s="39">
+      <c r="X8" s="39">
         <v>165</v>
       </c>
-      <c r="V8" s="39">
+      <c r="Y8" s="39">
         <v>0.1</v>
       </c>
-      <c r="W8" s="39"/>
-      <c r="X8" s="40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="51">
         <v>44502</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84">
+      <c r="C9" s="77"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="77">
         <v>42</v>
       </c>
-      <c r="L9" s="84">
+      <c r="L9" s="58">
         <v>49</v>
       </c>
-      <c r="M9" s="84">
+      <c r="M9" s="58">
         <v>78</v>
       </c>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84">
+      <c r="N9" s="58"/>
+      <c r="O9" s="58">
         <v>1750</v>
       </c>
-      <c r="P9" s="114">
+      <c r="P9" s="78">
         <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-      <c r="R9" s="98" t="s">
-        <v>94</v>
-      </c>
-      <c r="S9" s="39">
+      <c r="U9" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="V9" s="39">
         <v>64.8</v>
       </c>
-      <c r="T9" s="39">
+      <c r="W9" s="39">
         <v>4.7</v>
       </c>
-      <c r="U9" s="39">
+      <c r="X9" s="39">
         <v>180</v>
       </c>
-      <c r="V9" s="39">
+      <c r="Y9" s="39">
         <v>0.1</v>
       </c>
-      <c r="W9" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="X9" s="40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z9" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA9" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="51">
         <v>44502</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="115" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85">
-        <v>63</v>
-      </c>
-      <c r="L10" s="85">
-        <v>96</v>
-      </c>
-      <c r="M10" s="85">
-        <v>108</v>
-      </c>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85">
-        <v>1750</v>
-      </c>
-      <c r="P10" s="116">
-        <f t="shared" si="0"/>
-        <v>105000</v>
-      </c>
-      <c r="R10" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="S10" s="39">
+      <c r="B10" s="8"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="78"/>
+      <c r="U10" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="V10" s="39">
         <v>62</v>
       </c>
-      <c r="T10" s="99">
+      <c r="W10" s="70">
         <f>(4.5+4.5+4.1)/3</f>
         <v>4.3666666666666663</v>
       </c>
-      <c r="U10" s="39">
+      <c r="X10" s="39">
         <v>170</v>
       </c>
-      <c r="V10" s="39">
+      <c r="Y10" s="39">
         <v>0.1</v>
       </c>
-      <c r="W10" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="X10" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA10">
-        <v>63.5</v>
-      </c>
-      <c r="AB10">
-        <v>3.6</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="Z10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA10" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B11" s="47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="114"/>
-      <c r="R11" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="S11" s="99">
+      <c r="C11" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="137">
+        <v>63</v>
+      </c>
+      <c r="L11" s="59">
+        <v>96</v>
+      </c>
+      <c r="M11" s="59">
+        <v>108</v>
+      </c>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59">
+        <v>1750</v>
+      </c>
+      <c r="P11" s="80">
+        <f t="shared" ref="P11" si="3">O11*60</f>
+        <v>105000</v>
+      </c>
+      <c r="U11" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="V11" s="70">
         <f>(66+66.4+66.3)/3</f>
         <v>66.233333333333334</v>
       </c>
-      <c r="T11" s="99">
+      <c r="W11" s="70">
         <f>(4.7+4.5+4.7)/3</f>
         <v>4.6333333333333329</v>
       </c>
-      <c r="U11" s="39">
+      <c r="X11" s="39">
         <v>180</v>
       </c>
-      <c r="V11" s="39">
+      <c r="Y11" s="39">
         <v>0.1</v>
       </c>
-      <c r="W11" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="X11" s="40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z11" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA11" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="51">
         <v>44503</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="113">
+        <v>77</v>
+      </c>
+      <c r="C12" s="77">
         <v>44</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="58">
         <v>56</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="58">
         <v>85</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="58">
         <v>0.73</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="58">
         <v>68</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="58">
         <v>33</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="58">
         <v>1750</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="12">
         <f>I12*60</f>
         <v>105000</v>
       </c>
-      <c r="K12" s="84">
+      <c r="K12" s="77">
         <v>40</v>
       </c>
-      <c r="L12" s="84">
+      <c r="L12" s="58">
         <v>50</v>
       </c>
-      <c r="M12" s="84">
+      <c r="M12" s="58">
         <v>82</v>
       </c>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84">
+      <c r="N12" s="58"/>
+      <c r="O12" s="58">
         <v>1750</v>
       </c>
-      <c r="P12" s="114">
+      <c r="P12" s="78">
         <f>O12*60</f>
         <v>105000</v>
       </c>
-      <c r="R12" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="S12" s="99">
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U12" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="V12" s="70">
         <f>(66.1+66.4+66.4)/3</f>
         <v>66.3</v>
       </c>
-      <c r="T12" s="99">
+      <c r="W12" s="70">
         <f>(4.4+4.2+4.3)/3</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="U12" s="39">
+      <c r="X12" s="39">
         <v>180</v>
       </c>
-      <c r="V12" s="39">
+      <c r="Y12" s="39">
         <v>0.1</v>
       </c>
-      <c r="W12" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="X12" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA12">
-        <v>64.8</v>
-      </c>
-      <c r="AB12">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z12" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA12" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="51">
         <v>44503</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="113">
+        <v>77</v>
+      </c>
+      <c r="C13" s="77">
         <v>44</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="58">
         <v>55</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="58">
         <v>82</v>
       </c>
-      <c r="F13" s="84">
+      <c r="F13" s="58">
         <v>0.73</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="58">
         <v>68</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="58">
         <v>33</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="58">
         <v>1724</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="12">
         <f>I13*60</f>
         <v>103440</v>
       </c>
-      <c r="K13" s="84">
+      <c r="K13" s="77">
         <v>43</v>
       </c>
-      <c r="L13" s="84">
+      <c r="L13" s="58">
         <v>51</v>
       </c>
-      <c r="M13" s="84">
+      <c r="M13" s="58">
         <v>82</v>
       </c>
-      <c r="N13" s="84">
+      <c r="N13" s="58">
         <v>0.72</v>
       </c>
-      <c r="O13" s="84">
+      <c r="O13" s="58">
         <v>1750</v>
       </c>
-      <c r="P13" s="114">
+      <c r="P13" s="78">
         <f>O13*60</f>
         <v>105000</v>
       </c>
-      <c r="R13" s="100"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="40"/>
-      <c r="AA13">
-        <v>64.8</v>
-      </c>
-      <c r="AB13">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U13" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="V13" s="70">
+        <f>(66.3+66+65.4)/3</f>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="W13" s="70">
+        <f>(4.2+4.2+4.2)/3</f>
+        <v>4.2</v>
+      </c>
+      <c r="X13" s="39">
+        <v>170</v>
+      </c>
+      <c r="Y13" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="Z13" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA13" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="51">
         <v>44503</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="117">
+        <v>78</v>
+      </c>
+      <c r="C14" s="81">
         <v>52</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="60">
         <v>72</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="60">
         <v>95</v>
       </c>
-      <c r="F14" s="86">
+      <c r="F14" s="60">
         <v>0.82</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="60">
         <v>68</v>
       </c>
-      <c r="H14" s="86">
+      <c r="H14" s="60">
         <v>33</v>
       </c>
-      <c r="I14" s="86">
+      <c r="I14" s="60">
         <v>1742</v>
       </c>
-      <c r="J14" s="86">
+      <c r="J14" s="130">
         <f>60*I14</f>
         <v>104520</v>
       </c>
-      <c r="K14" s="85">
+      <c r="K14" s="137">
         <v>49</v>
       </c>
-      <c r="L14" s="85">
+      <c r="L14" s="59">
         <v>64</v>
       </c>
-      <c r="M14" s="85">
+      <c r="M14" s="59">
         <v>88</v>
       </c>
-      <c r="N14" s="85">
+      <c r="N14" s="59">
         <v>0.76</v>
       </c>
-      <c r="O14" s="85">
+      <c r="O14" s="59">
         <v>1750</v>
       </c>
-      <c r="P14" s="116">
+      <c r="P14" s="80">
         <f>O14*60</f>
         <v>105000</v>
       </c>
-      <c r="R14" s="101"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="46"/>
-      <c r="AA14">
-        <v>62</v>
-      </c>
-      <c r="AB14" s="25">
-        <f>(4.5+4.5+4.1)/3</f>
-        <v>4.3666666666666663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="U14" s="69"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="25"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="51">
         <v>44509</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="118">
+        <v>79</v>
+      </c>
+      <c r="C15" s="82">
         <v>42</v>
       </c>
-      <c r="D15" s="87">
+      <c r="D15" s="61">
         <v>71</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="61">
         <v>86</v>
       </c>
-      <c r="F15" s="87">
+      <c r="F15" s="61">
         <v>0.72</v>
       </c>
-      <c r="G15" s="87">
+      <c r="G15" s="61">
         <v>68</v>
       </c>
-      <c r="H15" s="87">
+      <c r="H15" s="61">
         <v>33</v>
       </c>
-      <c r="I15" s="87">
+      <c r="I15" s="61">
         <v>1712</v>
       </c>
-      <c r="J15" s="87">
-        <f t="shared" ref="J15:J20" si="1">I15*60</f>
+      <c r="J15" s="131">
+        <f t="shared" ref="J15:J28" si="4">I15*60</f>
         <v>102720</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="77">
         <v>38</v>
       </c>
-      <c r="L15" s="84">
+      <c r="L15" s="58">
         <v>67</v>
       </c>
-      <c r="M15" s="84">
+      <c r="M15" s="58">
         <v>94</v>
       </c>
-      <c r="N15" s="84">
+      <c r="N15" s="58">
         <v>0.77</v>
       </c>
-      <c r="O15" s="84">
+      <c r="O15" s="58">
         <v>1750</v>
       </c>
-      <c r="P15" s="114">
+      <c r="P15" s="78">
         <f>O15*60</f>
         <v>105000</v>
       </c>
-      <c r="AA15" s="25">
-        <f>(66+66.4+66.3)/3</f>
-        <v>66.233333333333334</v>
-      </c>
-      <c r="AB15" s="25">
-        <f>(4.7+4.5+4.7)/3</f>
-        <v>4.6333333333333329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U15" s="69"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="25"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="51">
         <v>44509</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="118">
+        <v>79</v>
+      </c>
+      <c r="C16" s="82">
         <v>42</v>
       </c>
-      <c r="D16" s="87">
+      <c r="D16" s="61">
         <v>71</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E16" s="61">
         <v>85</v>
       </c>
-      <c r="F16" s="87">
+      <c r="F16" s="61">
         <v>0.72</v>
       </c>
-      <c r="G16" s="87">
+      <c r="G16" s="61">
         <v>68</v>
       </c>
-      <c r="H16" s="87">
+      <c r="H16" s="61">
         <v>33</v>
       </c>
-      <c r="I16" s="87">
+      <c r="I16" s="61">
         <v>1712</v>
       </c>
-      <c r="J16" s="87">
-        <f t="shared" si="1"/>
+      <c r="J16" s="131">
+        <f t="shared" si="4"/>
         <v>102720</v>
       </c>
-      <c r="K16" s="84">
+      <c r="K16" s="77">
         <v>40</v>
       </c>
-      <c r="L16" s="84">
+      <c r="L16" s="58">
         <v>68</v>
       </c>
-      <c r="M16" s="84">
+      <c r="M16" s="58">
         <v>95</v>
       </c>
-      <c r="N16" s="84">
+      <c r="N16" s="58">
         <v>0.79</v>
       </c>
-      <c r="O16" s="84">
+      <c r="O16" s="58">
         <v>1750</v>
       </c>
-      <c r="P16" s="114">
+      <c r="P16" s="78">
         <f>O16*60</f>
         <v>105000</v>
       </c>
-      <c r="AA16" s="25">
-        <f>(66+66.4+66.3)/3</f>
-        <v>66.233333333333334</v>
-      </c>
-      <c r="AB16" s="25">
-        <f>(4.7+4.5+4.7)/3</f>
-        <v>4.6333333333333329</v>
-      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U16" s="69"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="25"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="51">
         <v>44509</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="118">
+        <v>79</v>
+      </c>
+      <c r="C17" s="82">
         <v>42</v>
       </c>
-      <c r="D17" s="87">
+      <c r="D17" s="61">
         <v>72</v>
       </c>
-      <c r="E17" s="87">
+      <c r="E17" s="61">
         <v>89</v>
       </c>
-      <c r="F17" s="87">
+      <c r="F17" s="61">
         <v>0.74</v>
       </c>
-      <c r="G17" s="87">
+      <c r="G17" s="61">
         <v>70</v>
       </c>
-      <c r="H17" s="87">
+      <c r="H17" s="61">
         <v>33</v>
       </c>
-      <c r="I17" s="87">
+      <c r="I17" s="61">
         <v>1724</v>
       </c>
-      <c r="J17" s="87">
-        <f t="shared" si="1"/>
+      <c r="J17" s="131">
+        <f t="shared" si="4"/>
         <v>103440</v>
       </c>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="114"/>
-      <c r="AA17" s="25">
-        <f>(66+66.4+66.3)/3</f>
-        <v>66.233333333333334</v>
-      </c>
-      <c r="AB17" s="25">
-        <f>(4.7+4.5+4.7)/3</f>
-        <v>4.6333333333333329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="K17" s="77"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="78"/>
+      <c r="U17" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="V17" s="70">
+        <v>55</v>
+      </c>
+      <c r="W17" s="70">
+        <v>4.55</v>
+      </c>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA17" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB17" s="25"/>
+    </row>
+    <row r="18" spans="1:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="51">
         <v>44511</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="119">
+        <v>80</v>
+      </c>
+      <c r="C18" s="83">
         <v>53</v>
       </c>
-      <c r="D18" s="88">
+      <c r="D18" s="62">
         <v>71</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="62">
         <v>83</v>
       </c>
-      <c r="F18" s="88">
+      <c r="F18" s="62">
         <v>0.71</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G18" s="62">
         <v>68</v>
       </c>
-      <c r="H18" s="88">
+      <c r="H18" s="62">
         <v>33</v>
       </c>
-      <c r="I18" s="88">
+      <c r="I18" s="62">
         <v>1678</v>
       </c>
-      <c r="J18" s="88">
-        <f t="shared" si="1"/>
+      <c r="J18" s="132">
+        <f t="shared" si="4"/>
         <v>100680</v>
       </c>
-      <c r="K18" s="83">
+      <c r="K18" s="136">
         <v>52</v>
       </c>
-      <c r="L18" s="83">
+      <c r="L18" s="57">
         <v>70</v>
       </c>
-      <c r="M18" s="83">
+      <c r="M18" s="57">
         <v>84</v>
       </c>
-      <c r="N18" s="83">
+      <c r="N18" s="57">
         <v>0.74</v>
       </c>
-      <c r="O18" s="83">
+      <c r="O18" s="57">
         <v>1750</v>
       </c>
-      <c r="P18" s="112">
+      <c r="P18" s="76">
         <f>O18*60</f>
         <v>105000</v>
       </c>
-      <c r="AA18" s="25">
-        <f>(66.1+66.4+66.4)/3</f>
-        <v>66.3</v>
-      </c>
-      <c r="AB18" s="25">
-        <f>(4.4+4.2+4.3)/3</f>
-        <v>4.3000000000000007</v>
-      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U18" s="93"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="25"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="51">
         <v>44511</v>
       </c>
       <c r="B19" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="83">
+        <v>54</v>
+      </c>
+      <c r="D19" s="62">
+        <v>73</v>
+      </c>
+      <c r="E19" s="62">
         <v>82</v>
       </c>
-      <c r="C19" s="119">
-        <v>54</v>
-      </c>
-      <c r="D19" s="88">
-        <v>73</v>
-      </c>
-      <c r="E19" s="88">
-        <v>82</v>
-      </c>
-      <c r="F19" s="88">
+      <c r="F19" s="62">
         <v>0.72</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G19" s="62">
         <v>68</v>
       </c>
-      <c r="H19" s="88">
+      <c r="H19" s="62">
         <v>33</v>
       </c>
-      <c r="I19" s="88">
+      <c r="I19" s="62">
         <v>1678</v>
       </c>
-      <c r="J19" s="88">
-        <f t="shared" si="1"/>
+      <c r="J19" s="132">
+        <f t="shared" si="4"/>
         <v>100680</v>
       </c>
-      <c r="K19" s="83">
+      <c r="K19" s="136">
         <v>53</v>
       </c>
-      <c r="L19" s="83">
+      <c r="L19" s="57">
         <v>69</v>
       </c>
-      <c r="M19" s="83">
+      <c r="M19" s="57">
         <v>84</v>
       </c>
-      <c r="N19" s="83">
+      <c r="N19" s="57">
         <v>0.73</v>
       </c>
-      <c r="O19" s="83">
+      <c r="O19" s="57">
         <v>1750</v>
       </c>
-      <c r="P19" s="112">
+      <c r="P19" s="76">
         <f>O19*60</f>
         <v>105000</v>
       </c>
-      <c r="AA19" s="25">
-        <f>(66.1+66.4+66.4)/3</f>
-        <v>66.3</v>
-      </c>
-      <c r="AB19" s="25">
-        <f>(4.4+4.2+4.3)/3</f>
-        <v>4.3000000000000007</v>
-      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="51">
         <v>44511</v>
       </c>
       <c r="B20" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="83">
+        <v>52</v>
+      </c>
+      <c r="D20" s="62">
+        <v>70</v>
+      </c>
+      <c r="E20" s="62">
+        <v>88</v>
+      </c>
+      <c r="F20" s="62">
+        <v>0.73</v>
+      </c>
+      <c r="G20" s="62">
+        <v>76</v>
+      </c>
+      <c r="H20" s="62">
+        <v>40</v>
+      </c>
+      <c r="I20" s="62">
+        <v>1748</v>
+      </c>
+      <c r="J20" s="132">
+        <f t="shared" si="4"/>
+        <v>104880</v>
+      </c>
+      <c r="K20" s="136"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="76"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="51">
+        <v>44515</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="77">
+        <v>39</v>
+      </c>
+      <c r="L21" s="58">
+        <v>64</v>
+      </c>
+      <c r="M21" s="58">
+        <v>94</v>
+      </c>
+      <c r="N21" s="58">
+        <v>0.82</v>
+      </c>
+      <c r="O21" s="58">
+        <v>1750</v>
+      </c>
+      <c r="P21" s="78">
+        <f t="shared" ref="P21:P27" si="5">O21*60</f>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="51">
+        <v>44515</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="77"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="77">
+        <v>39</v>
+      </c>
+      <c r="L22" s="58">
+        <v>62</v>
+      </c>
+      <c r="M22" s="58">
+        <v>92</v>
+      </c>
+      <c r="N22" s="58">
+        <v>0.81</v>
+      </c>
+      <c r="O22" s="58">
+        <v>1750</v>
+      </c>
+      <c r="P22" s="78">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" s="51">
+        <v>44515</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="84">
+        <v>38</v>
+      </c>
+      <c r="L23" s="63">
+        <v>61</v>
+      </c>
+      <c r="M23" s="63">
+        <v>91</v>
+      </c>
+      <c r="N23" s="63">
+        <v>0.8</v>
+      </c>
+      <c r="O23" s="63">
+        <v>1750</v>
+      </c>
+      <c r="P23" s="78">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+    </row>
+    <row r="24" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="84">
+        <v>60</v>
+      </c>
+      <c r="D24" s="63">
+        <v>93</v>
+      </c>
+      <c r="E24" s="63">
+        <v>94</v>
+      </c>
+      <c r="F24" s="63">
+        <v>0.83</v>
+      </c>
+      <c r="G24" s="63">
+        <v>60</v>
+      </c>
+      <c r="H24" s="63">
+        <v>40</v>
+      </c>
+      <c r="I24" s="63">
+        <v>1656</v>
+      </c>
+      <c r="J24" s="131">
+        <f t="shared" si="4"/>
+        <v>99360</v>
+      </c>
+      <c r="K24" s="84">
+        <v>43</v>
+      </c>
+      <c r="L24" s="63">
+        <v>68</v>
+      </c>
+      <c r="M24" s="63">
+        <v>93</v>
+      </c>
+      <c r="N24" s="63">
+        <v>0.82</v>
+      </c>
+      <c r="O24" s="63">
+        <v>1748</v>
+      </c>
+      <c r="P24" s="78">
+        <f t="shared" si="5"/>
+        <v>104880</v>
+      </c>
+      <c r="Q24" s="126" t="s">
+        <v>117</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="84">
+        <v>60</v>
+      </c>
+      <c r="D25" s="63">
+        <v>93</v>
+      </c>
+      <c r="E25" s="63">
+        <v>94</v>
+      </c>
+      <c r="F25" s="63">
+        <v>0.83</v>
+      </c>
+      <c r="G25" s="63">
+        <v>60</v>
+      </c>
+      <c r="H25" s="63">
+        <v>40</v>
+      </c>
+      <c r="I25" s="63">
+        <v>1656</v>
+      </c>
+      <c r="J25" s="131">
+        <f>I25*60</f>
+        <v>99360</v>
+      </c>
+      <c r="K25" s="84">
+        <v>43</v>
+      </c>
+      <c r="L25" s="63">
+        <v>68</v>
+      </c>
+      <c r="M25" s="63">
+        <v>93</v>
+      </c>
+      <c r="N25" s="63">
+        <v>0.86</v>
+      </c>
+      <c r="O25" s="63">
+        <v>1736</v>
+      </c>
+      <c r="P25" s="78">
+        <f t="shared" si="5"/>
+        <v>104160</v>
+      </c>
+      <c r="Q25" s="126"/>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="84">
+        <v>51</v>
+      </c>
+      <c r="D26" s="63">
+        <v>88</v>
+      </c>
+      <c r="E26" s="63">
+        <v>96</v>
+      </c>
+      <c r="F26" s="63">
+        <v>0.85</v>
+      </c>
+      <c r="G26" s="63">
+        <v>68</v>
+      </c>
+      <c r="H26" s="63">
+        <v>38</v>
+      </c>
+      <c r="I26" s="63">
+        <v>1724</v>
+      </c>
+      <c r="J26" s="131">
+        <f>I26*60</f>
+        <v>103440</v>
+      </c>
+      <c r="K26" s="84">
+        <v>44</v>
+      </c>
+      <c r="L26" s="63">
+        <v>73</v>
+      </c>
+      <c r="M26" s="63">
+        <v>88</v>
+      </c>
+      <c r="N26" s="63">
+        <v>0.82</v>
+      </c>
+      <c r="O26" s="63">
+        <v>1750</v>
+      </c>
+      <c r="P26" s="85">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
+      <c r="Q26" s="126"/>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="84">
+        <v>55</v>
+      </c>
+      <c r="D27" s="63">
+        <v>85</v>
+      </c>
+      <c r="E27" s="63">
+        <v>95</v>
+      </c>
+      <c r="F27" s="63">
+        <v>0.84</v>
+      </c>
+      <c r="G27" s="63">
+        <v>69</v>
+      </c>
+      <c r="H27" s="63">
+        <v>39</v>
+      </c>
+      <c r="I27" s="63">
+        <v>1730</v>
+      </c>
+      <c r="J27" s="131">
+        <f>I27*60</f>
+        <v>103800</v>
+      </c>
+      <c r="K27" s="84">
+        <v>42</v>
+      </c>
+      <c r="L27" s="63">
+        <v>73</v>
+      </c>
+      <c r="M27" s="63">
+        <v>88</v>
+      </c>
+      <c r="N27" s="63">
+        <v>0.82</v>
+      </c>
+      <c r="O27" s="63">
+        <v>1750</v>
+      </c>
+      <c r="P27" s="85">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
+      <c r="Q27" s="126"/>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="84">
+        <v>53</v>
+      </c>
+      <c r="D28" s="63">
+        <v>88</v>
+      </c>
+      <c r="E28" s="63">
+        <v>94</v>
+      </c>
+      <c r="F28" s="63">
+        <v>0.86</v>
+      </c>
+      <c r="G28" s="63">
+        <v>70</v>
+      </c>
+      <c r="H28" s="63">
+        <v>38</v>
+      </c>
+      <c r="I28" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J28" s="131">
+        <f>I28*60</f>
+        <v>106020</v>
+      </c>
+      <c r="K28" s="84"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="126"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" s="51"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="126"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" s="51"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="126"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" s="51"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="126"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" s="51">
+        <v>44517</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="84">
+        <v>38</v>
+      </c>
+      <c r="D32" s="63">
+        <v>58</v>
+      </c>
+      <c r="E32" s="63">
+        <v>94</v>
+      </c>
+      <c r="F32" s="63">
+        <v>0.79</v>
+      </c>
+      <c r="G32" s="63">
+        <v>69</v>
+      </c>
+      <c r="H32" s="63">
+        <v>39</v>
+      </c>
+      <c r="I32" s="63">
+        <v>1760</v>
+      </c>
+      <c r="J32" s="131">
+        <f>I32*60</f>
+        <v>105600</v>
+      </c>
+      <c r="K32" s="84">
+        <v>33</v>
+      </c>
+      <c r="L32" s="63">
+        <v>46</v>
+      </c>
+      <c r="M32" s="63">
         <v>82</v>
       </c>
-      <c r="C20" s="119">
-        <v>52</v>
-      </c>
-      <c r="D20" s="88">
+      <c r="N32" s="63">
+        <v>0.74</v>
+      </c>
+      <c r="O32" s="63">
+        <v>1750</v>
+      </c>
+      <c r="P32" s="85">
+        <f t="shared" ref="P32:P33" si="6">O32*60</f>
+        <v>105000</v>
+      </c>
+      <c r="Q32" s="126"/>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33" s="51">
+        <v>44517</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="84">
+        <v>39</v>
+      </c>
+      <c r="D33" s="63">
+        <v>59</v>
+      </c>
+      <c r="E33" s="63">
+        <v>94</v>
+      </c>
+      <c r="F33" s="63">
+        <v>0.82</v>
+      </c>
+      <c r="G33" s="63">
+        <v>69</v>
+      </c>
+      <c r="H33" s="63">
+        <v>39</v>
+      </c>
+      <c r="I33" s="63">
+        <v>1760</v>
+      </c>
+      <c r="J33" s="131">
+        <f>I33*60</f>
+        <v>105600</v>
+      </c>
+      <c r="K33" s="84">
+        <v>34</v>
+      </c>
+      <c r="L33" s="63">
+        <v>47</v>
+      </c>
+      <c r="M33" s="63">
+        <v>81</v>
+      </c>
+      <c r="N33" s="63">
+        <v>0.74</v>
+      </c>
+      <c r="O33" s="63">
+        <v>1750</v>
+      </c>
+      <c r="P33" s="85">
+        <f t="shared" si="6"/>
+        <v>105000</v>
+      </c>
+      <c r="Q33" s="126"/>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+    </row>
+    <row r="34" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="19"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="85"/>
+    </row>
+    <row r="35" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="19"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="89"/>
+    </row>
+    <row r="37" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="118"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="119"/>
+      <c r="M38" s="114" t="s">
+        <v>82</v>
+      </c>
+      <c r="N38" s="114"/>
+      <c r="O38" s="114"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C39" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="M39" s="27"/>
+      <c r="N39" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="106">
+        <v>62</v>
+      </c>
+      <c r="E40" s="106">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="37">
+        <v>1</v>
+      </c>
+      <c r="I40" s="37">
+        <v>87</v>
+      </c>
+      <c r="J40" s="37">
+        <v>37</v>
+      </c>
+      <c r="K40" s="38">
+        <v>0.64</v>
+      </c>
+      <c r="M40" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="N40" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O40" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C41" s="110"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="39">
+        <v>2</v>
+      </c>
+      <c r="I41" s="39">
+        <v>88</v>
+      </c>
+      <c r="J41" s="39">
+        <v>38</v>
+      </c>
+      <c r="K41" s="40">
+        <v>0.65</v>
+      </c>
+      <c r="M41" s="115"/>
+      <c r="N41" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="O41" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="110"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="39">
+        <v>3</v>
+      </c>
+      <c r="I42" s="39">
+        <v>88</v>
+      </c>
+      <c r="J42" s="39">
+        <v>39</v>
+      </c>
+      <c r="K42" s="40">
+        <v>0.65</v>
+      </c>
+      <c r="M42" s="116"/>
+      <c r="N42" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="O42" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C43" s="110"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="39">
+        <v>5</v>
+      </c>
+      <c r="I43" s="39">
+        <v>89</v>
+      </c>
+      <c r="J43" s="39">
+        <v>39</v>
+      </c>
+      <c r="K43" s="40">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C44" s="110"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="39">
+        <v>10</v>
+      </c>
+      <c r="I44" s="39">
+        <v>89</v>
+      </c>
+      <c r="J44" s="39">
+        <v>39</v>
+      </c>
+      <c r="K44" s="40">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C45" s="111"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="88">
-        <v>88</v>
-      </c>
-      <c r="F20" s="88">
-        <v>0.73</v>
-      </c>
-      <c r="G20" s="88">
-        <v>76</v>
-      </c>
-      <c r="H20" s="88">
-        <v>40</v>
-      </c>
-      <c r="I20" s="88">
-        <v>1748</v>
-      </c>
-      <c r="J20" s="88">
-        <f t="shared" si="1"/>
-        <v>104880</v>
-      </c>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="112"/>
-      <c r="AA20" s="25">
-        <f>(66.1+66.4+66.4)/3</f>
-        <v>66.3</v>
-      </c>
-      <c r="AB20" s="25">
-        <f>(4.4+4.2+4.3)/3</f>
-        <v>4.3000000000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="114"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="114"/>
-      <c r="AA22" s="25">
-        <f>(60+59+60)/3</f>
-        <v>59.666666666666664</v>
-      </c>
-      <c r="AB22" s="25">
-        <f>(12.5+11.6+12.5)/3</f>
-        <v>12.200000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="121"/>
-      <c r="AA23" s="25">
-        <f>(66.2+66+66)/3</f>
-        <v>66.066666666666663</v>
-      </c>
-      <c r="AB23" s="25">
-        <f>(14.2+15.3+16)/3</f>
-        <v>15.166666666666666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="121"/>
-    </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="19"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="125"/>
-    </row>
-    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
-      <c r="M28" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C29" s="34" t="s">
+      <c r="I45" s="42"/>
+      <c r="J45" s="42">
+        <v>56</v>
+      </c>
+      <c r="K45" s="43"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C46" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="106">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E46" s="106">
+        <v>15.2</v>
+      </c>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="37">
         <v>1</v>
       </c>
-      <c r="D29" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="M29" s="27"/>
-      <c r="N29" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="O29" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="64">
-        <v>62</v>
-      </c>
-      <c r="E30" s="64">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="37">
-        <v>1</v>
-      </c>
-      <c r="I30" s="37">
-        <v>87</v>
-      </c>
-      <c r="J30" s="37">
-        <v>37</v>
-      </c>
-      <c r="K30" s="38">
-        <v>0.64</v>
-      </c>
-      <c r="M30" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="N30" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="O30" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C31" s="68"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="39">
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="38"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C47" s="110"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="39">
         <v>2</v>
       </c>
-      <c r="I31" s="39">
-        <v>88</v>
-      </c>
-      <c r="J31" s="39">
-        <v>38</v>
-      </c>
-      <c r="K31" s="40">
-        <v>0.65</v>
-      </c>
-      <c r="M31" s="73"/>
-      <c r="N31" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="O31" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="68"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="39">
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="40"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C48" s="110"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="39">
         <v>3</v>
       </c>
-      <c r="I32" s="39">
-        <v>88</v>
-      </c>
-      <c r="J32" s="39">
-        <v>39</v>
-      </c>
-      <c r="K32" s="40">
-        <v>0.65</v>
-      </c>
-      <c r="M32" s="74"/>
-      <c r="N32" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="O32" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C33" s="68"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="39">
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="40"/>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C49" s="110"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="39">
         <v>5</v>
-      </c>
-      <c r="I33" s="39">
-        <v>89</v>
-      </c>
-      <c r="J33" s="39">
-        <v>39</v>
-      </c>
-      <c r="K33" s="40">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="68"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="39">
-        <v>10</v>
-      </c>
-      <c r="I34" s="39">
-        <v>89</v>
-      </c>
-      <c r="J34" s="39">
-        <v>39</v>
-      </c>
-      <c r="K34" s="40">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C35" s="69"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42">
-        <v>56</v>
-      </c>
-      <c r="K35" s="43"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C36" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="64">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="E36" s="64">
-        <v>15.2</v>
-      </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="37">
-        <v>1</v>
-      </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="38"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C37" s="68"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="39">
-        <v>2</v>
-      </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="40"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C38" s="68"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="39">
-        <v>3</v>
-      </c>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="40"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C39" s="68"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="39">
-        <v>5</v>
-      </c>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="40"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C40" s="68"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="39">
-        <v>10</v>
-      </c>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="40"/>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C41" s="69"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="43"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C42" s="67"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="37">
-        <v>1</v>
-      </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="38"/>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C43" s="68"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="39">
-        <v>2</v>
-      </c>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="40"/>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C44" s="68"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="39">
-        <v>3</v>
-      </c>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="40"/>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C45" s="68"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="39">
-        <v>5</v>
-      </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="40"/>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C46" s="68"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="39">
-        <v>10</v>
-      </c>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="40"/>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C47" s="69"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="43"/>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C48" s="67"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="37">
-        <v>1</v>
-      </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="38"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C49" s="68"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="39">
-        <v>2</v>
       </c>
       <c r="I49" s="39"/>
       <c r="J49" s="39"/>
       <c r="K49" s="40"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C50" s="68"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
       <c r="H50" s="39">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I50" s="39"/>
       <c r="J50" s="39"/>
       <c r="K50" s="40"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C51" s="68"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="39">
+      <c r="C51" s="111"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="43"/>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C52" s="109"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="37">
+        <v>1</v>
+      </c>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="38"/>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C53" s="110"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="39">
+        <v>2</v>
+      </c>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="40"/>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C54" s="110"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="39">
+        <v>3</v>
+      </c>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="40"/>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C55" s="110"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="39">
         <v>5</v>
       </c>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="40"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C52" s="68"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="39">
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="40"/>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C56" s="110"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="39">
         <v>10</v>
       </c>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="40"/>
-    </row>
-    <row r="53" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="71"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="46"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="40"/>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C57" s="111"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="43"/>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C58" s="109"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="37">
+        <v>1</v>
+      </c>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="38"/>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C59" s="110"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="39">
+        <v>2</v>
+      </c>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="40"/>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C60" s="110"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="39">
+        <v>3</v>
+      </c>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="40"/>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C61" s="110"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="39">
+        <v>5</v>
+      </c>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="40"/>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C62" s="110"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="39">
+        <v>10</v>
+      </c>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="40"/>
+    </row>
+    <row r="63" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="113"/>
+      <c r="D63" s="108"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="46"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="84">
+        <v>51</v>
+      </c>
+      <c r="D70" s="63">
+        <v>88</v>
+      </c>
+      <c r="E70" s="63">
+        <v>96</v>
+      </c>
+      <c r="F70" s="63">
+        <v>0.85</v>
+      </c>
+      <c r="G70" s="63">
+        <v>68</v>
+      </c>
+      <c r="H70" s="63">
+        <v>38</v>
+      </c>
+      <c r="I70" s="63">
+        <v>1724</v>
+      </c>
+      <c r="J70" s="61">
+        <f t="shared" ref="J70:J86" si="7">I70*60</f>
+        <v>103440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="84">
+        <v>52</v>
+      </c>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63">
+        <v>98</v>
+      </c>
+      <c r="F71" s="63">
+        <v>0.86</v>
+      </c>
+      <c r="G71" s="63">
+        <v>68</v>
+      </c>
+      <c r="H71" s="63">
+        <v>36</v>
+      </c>
+      <c r="I71" s="63">
+        <v>1742</v>
+      </c>
+      <c r="J71" s="61">
+        <f t="shared" si="7"/>
+        <v>104520</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="84">
+        <v>53</v>
+      </c>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63">
+        <v>103</v>
+      </c>
+      <c r="F72" s="63">
+        <v>0.9</v>
+      </c>
+      <c r="G72" s="63">
+        <v>68</v>
+      </c>
+      <c r="H72" s="63">
+        <v>34</v>
+      </c>
+      <c r="I72" s="63">
+        <v>1742</v>
+      </c>
+      <c r="J72" s="61">
+        <f t="shared" si="7"/>
+        <v>104520</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="84">
+        <v>53</v>
+      </c>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63">
+        <v>105</v>
+      </c>
+      <c r="F73" s="63">
+        <v>0.92</v>
+      </c>
+      <c r="G73" s="63">
+        <v>68</v>
+      </c>
+      <c r="H73" s="63">
+        <v>32</v>
+      </c>
+      <c r="I73" s="63">
+        <v>1742</v>
+      </c>
+      <c r="J73" s="61">
+        <f t="shared" si="7"/>
+        <v>104520</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="84">
+        <v>60</v>
+      </c>
+      <c r="D74" s="63">
+        <v>93</v>
+      </c>
+      <c r="E74" s="63">
+        <v>94</v>
+      </c>
+      <c r="F74" s="63">
+        <v>0.83</v>
+      </c>
+      <c r="G74" s="63">
+        <v>60</v>
+      </c>
+      <c r="H74" s="63">
+        <v>40</v>
+      </c>
+      <c r="I74" s="63">
+        <v>1656</v>
+      </c>
+      <c r="J74" s="61">
+        <f t="shared" si="7"/>
+        <v>99360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="84">
+        <v>58</v>
+      </c>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63">
+        <v>100</v>
+      </c>
+      <c r="F75" s="63">
+        <v>0.92</v>
+      </c>
+      <c r="G75" s="63">
+        <v>70</v>
+      </c>
+      <c r="H75" s="63">
+        <v>40</v>
+      </c>
+      <c r="I75" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J75" s="61">
+        <f t="shared" si="7"/>
+        <v>106020</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="84">
+        <v>53</v>
+      </c>
+      <c r="D76" s="63">
+        <v>88</v>
+      </c>
+      <c r="E76" s="63">
+        <v>94</v>
+      </c>
+      <c r="F76" s="63">
+        <v>0.86</v>
+      </c>
+      <c r="G76" s="63">
+        <v>70</v>
+      </c>
+      <c r="H76" s="63">
+        <v>38</v>
+      </c>
+      <c r="I76" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J76" s="61">
+        <f t="shared" si="7"/>
+        <v>106020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="84">
+        <v>54</v>
+      </c>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63">
+        <v>95</v>
+      </c>
+      <c r="F77" s="63">
+        <v>0.88</v>
+      </c>
+      <c r="G77" s="63">
+        <v>70</v>
+      </c>
+      <c r="H77" s="63">
+        <v>36</v>
+      </c>
+      <c r="I77" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J77" s="61">
+        <f t="shared" si="7"/>
+        <v>106020</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="84">
+        <v>55</v>
+      </c>
+      <c r="D78" s="63">
+        <v>92</v>
+      </c>
+      <c r="E78" s="63">
+        <v>96</v>
+      </c>
+      <c r="F78" s="63">
+        <v>0.89</v>
+      </c>
+      <c r="G78" s="63">
+        <v>70</v>
+      </c>
+      <c r="H78" s="63">
+        <v>34</v>
+      </c>
+      <c r="I78" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J78" s="61">
+        <f t="shared" si="7"/>
+        <v>106020</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="84">
+        <v>54</v>
+      </c>
+      <c r="D79" s="63">
+        <v>92</v>
+      </c>
+      <c r="E79" s="63">
+        <v>96</v>
+      </c>
+      <c r="F79" s="63">
+        <v>0.83</v>
+      </c>
+      <c r="G79" s="63">
+        <v>74</v>
+      </c>
+      <c r="H79" s="63">
+        <v>40</v>
+      </c>
+      <c r="I79" s="63">
+        <v>1736</v>
+      </c>
+      <c r="J79" s="61">
+        <f t="shared" si="7"/>
+        <v>104160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="84">
+        <v>53</v>
+      </c>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63">
+        <v>97</v>
+      </c>
+      <c r="F80" s="63">
+        <v>0.85</v>
+      </c>
+      <c r="G80" s="63">
+        <v>74</v>
+      </c>
+      <c r="H80" s="63">
+        <v>36</v>
+      </c>
+      <c r="I80" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J80" s="61">
+        <f t="shared" si="7"/>
+        <v>106020</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="84">
+        <v>56</v>
+      </c>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63">
+        <v>107</v>
+      </c>
+      <c r="F81" s="63">
+        <v>0.94</v>
+      </c>
+      <c r="G81" s="63">
+        <v>74</v>
+      </c>
+      <c r="H81" s="63">
+        <v>32</v>
+      </c>
+      <c r="I81" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J81" s="61">
+        <f t="shared" si="7"/>
+        <v>106020</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="84">
+        <v>60</v>
+      </c>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63">
+        <v>115</v>
+      </c>
+      <c r="F82" s="63">
+        <v>0.99</v>
+      </c>
+      <c r="G82" s="63">
+        <v>74</v>
+      </c>
+      <c r="H82" s="63">
+        <v>28</v>
+      </c>
+      <c r="I82" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J82" s="61">
+        <f t="shared" si="7"/>
+        <v>106020</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="84">
+        <v>55</v>
+      </c>
+      <c r="D83" s="63">
+        <v>85</v>
+      </c>
+      <c r="E83" s="63">
+        <v>95</v>
+      </c>
+      <c r="F83" s="63">
+        <v>0.84</v>
+      </c>
+      <c r="G83" s="63">
+        <v>69</v>
+      </c>
+      <c r="H83" s="63">
+        <v>39</v>
+      </c>
+      <c r="I83" s="63">
+        <v>1730</v>
+      </c>
+      <c r="J83" s="61">
+        <f t="shared" si="7"/>
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="84">
+        <v>55</v>
+      </c>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63">
+        <v>96</v>
+      </c>
+      <c r="F84" s="63">
+        <v>0.84</v>
+      </c>
+      <c r="G84" s="63">
+        <v>69</v>
+      </c>
+      <c r="H84" s="63">
+        <v>38</v>
+      </c>
+      <c r="I84" s="63">
+        <v>1730</v>
+      </c>
+      <c r="J84" s="61">
+        <f t="shared" si="7"/>
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="84">
+        <v>56</v>
+      </c>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63">
+        <v>98</v>
+      </c>
+      <c r="F85" s="63">
+        <v>0.85</v>
+      </c>
+      <c r="G85" s="63">
+        <v>69</v>
+      </c>
+      <c r="H85" s="63">
+        <v>37</v>
+      </c>
+      <c r="I85" s="63">
+        <v>1730</v>
+      </c>
+      <c r="J85" s="61">
+        <f t="shared" si="7"/>
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="51">
+        <v>44516</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="84">
+        <v>57</v>
+      </c>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63">
+        <v>98</v>
+      </c>
+      <c r="F86" s="63">
+        <v>0.87</v>
+      </c>
+      <c r="G86" s="63">
+        <v>69</v>
+      </c>
+      <c r="H86" s="63">
+        <v>36</v>
+      </c>
+      <c r="I86" s="63">
+        <v>1730</v>
+      </c>
+      <c r="J86" s="61">
+        <f t="shared" si="7"/>
+        <v>103800</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="R2:X2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C25:J28">
+    <sortCondition ref="G25:G28"/>
+  </sortState>
+  <mergeCells count="27">
+    <mergeCell ref="U2:AA2"/>
     <mergeCell ref="K3:P3"/>
     <mergeCell ref="C3:J3"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="E36:E41"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F36:F41"/>
-    <mergeCell ref="G36:G41"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="F42:F47"/>
-    <mergeCell ref="G42:G47"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="D42:D47"/>
-    <mergeCell ref="E42:E47"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="Q24:Q33"/>
+    <mergeCell ref="F46:F51"/>
+    <mergeCell ref="G46:G51"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="G52:G57"/>
+    <mergeCell ref="F58:F63"/>
+    <mergeCell ref="G58:G63"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="E58:E63"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4438,6 +6638,715 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F66AB4-3231-40B8-A8B2-CD8CDF055B91}">
+  <dimension ref="C4:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C4" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="84">
+        <v>60</v>
+      </c>
+      <c r="D5" s="63">
+        <v>93</v>
+      </c>
+      <c r="E5" s="63">
+        <v>94</v>
+      </c>
+      <c r="F5" s="63">
+        <v>0.83</v>
+      </c>
+      <c r="G5" s="63">
+        <v>60</v>
+      </c>
+      <c r="H5" s="63">
+        <v>40</v>
+      </c>
+      <c r="I5" s="63">
+        <v>1656</v>
+      </c>
+      <c r="J5" s="61">
+        <f t="shared" ref="J5:J20" si="0">I5*60</f>
+        <v>99360</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K20" si="1">(1-(ABS(1750-I5)/1750))*5000/(E5*C5)</f>
+        <v>0.83890577507598785</v>
+      </c>
+      <c r="L5">
+        <f>(1-(ABS(1750-I5)/1750))</f>
+        <v>0.94628571428571429</v>
+      </c>
+      <c r="O5">
+        <f>(1750-ABS(1750-I5))/(E5*C5)</f>
+        <v>0.29361702127659572</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C6" s="84">
+        <v>58</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63">
+        <v>100</v>
+      </c>
+      <c r="F6" s="63">
+        <v>0.92</v>
+      </c>
+      <c r="G6" s="63">
+        <v>70</v>
+      </c>
+      <c r="H6" s="63">
+        <v>40</v>
+      </c>
+      <c r="I6" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J6" s="61">
+        <f t="shared" si="0"/>
+        <v>106020</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.85369458128078823</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L20" si="2">(1-(ABS(1750-I6)/1750))</f>
+        <v>0.99028571428571432</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="84">
+        <v>53</v>
+      </c>
+      <c r="D7" s="63">
+        <v>88</v>
+      </c>
+      <c r="E7" s="63">
+        <v>94</v>
+      </c>
+      <c r="F7" s="63">
+        <v>0.86</v>
+      </c>
+      <c r="G7" s="63">
+        <v>70</v>
+      </c>
+      <c r="H7" s="63">
+        <v>38</v>
+      </c>
+      <c r="I7" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J7" s="61">
+        <f t="shared" si="0"/>
+        <v>106020</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.99386362332970124</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.99028571428571432</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="84">
+        <v>54</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63">
+        <v>95</v>
+      </c>
+      <c r="F8" s="63">
+        <v>0.88</v>
+      </c>
+      <c r="G8" s="63">
+        <v>70</v>
+      </c>
+      <c r="H8" s="63">
+        <v>36</v>
+      </c>
+      <c r="I8" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J8" s="61">
+        <f t="shared" si="0"/>
+        <v>106020</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.96519075466443893</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.99028571428571432</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="84">
+        <v>55</v>
+      </c>
+      <c r="D9" s="63">
+        <v>92</v>
+      </c>
+      <c r="E9" s="63">
+        <v>96</v>
+      </c>
+      <c r="F9" s="63">
+        <v>0.89</v>
+      </c>
+      <c r="G9" s="63">
+        <v>70</v>
+      </c>
+      <c r="H9" s="63">
+        <v>34</v>
+      </c>
+      <c r="I9" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J9" s="61">
+        <f t="shared" si="0"/>
+        <v>106020</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.93777056277056281</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.99028571428571432</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="84">
+        <v>51</v>
+      </c>
+      <c r="D10" s="63">
+        <v>88</v>
+      </c>
+      <c r="E10" s="63">
+        <v>96</v>
+      </c>
+      <c r="F10" s="63">
+        <v>0.85</v>
+      </c>
+      <c r="G10" s="63">
+        <v>68</v>
+      </c>
+      <c r="H10" s="63">
+        <v>38</v>
+      </c>
+      <c r="I10" s="63">
+        <v>1724</v>
+      </c>
+      <c r="J10" s="61">
+        <f t="shared" si="0"/>
+        <v>103440</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>1.0060690943043884</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.9851428571428571</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="84">
+        <v>52</v>
+      </c>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63">
+        <v>98</v>
+      </c>
+      <c r="F11" s="63">
+        <v>0.86</v>
+      </c>
+      <c r="G11" s="63">
+        <v>68</v>
+      </c>
+      <c r="H11" s="63">
+        <v>36</v>
+      </c>
+      <c r="I11" s="63">
+        <v>1742</v>
+      </c>
+      <c r="J11" s="61">
+        <f t="shared" si="0"/>
+        <v>104520</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.97667638483965014</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.99542857142857144</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="84">
+        <v>53</v>
+      </c>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63">
+        <v>103</v>
+      </c>
+      <c r="F12" s="63">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="63">
+        <v>68</v>
+      </c>
+      <c r="H12" s="63">
+        <v>34</v>
+      </c>
+      <c r="I12" s="63">
+        <v>1742</v>
+      </c>
+      <c r="J12" s="61">
+        <f t="shared" si="0"/>
+        <v>104520</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.91173160966163347</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.99542857142857144</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C13" s="84">
+        <v>53</v>
+      </c>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63">
+        <v>105</v>
+      </c>
+      <c r="F13" s="63">
+        <v>0.92</v>
+      </c>
+      <c r="G13" s="63">
+        <v>68</v>
+      </c>
+      <c r="H13" s="63">
+        <v>32</v>
+      </c>
+      <c r="I13" s="63">
+        <v>1742</v>
+      </c>
+      <c r="J13" s="61">
+        <f t="shared" si="0"/>
+        <v>104520</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.89436529328712611</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.99542857142857144</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C14" s="84">
+        <v>56</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63">
+        <v>107</v>
+      </c>
+      <c r="F14" s="63">
+        <v>0.92</v>
+      </c>
+      <c r="G14" s="63">
+        <v>76</v>
+      </c>
+      <c r="H14" s="63">
+        <v>40</v>
+      </c>
+      <c r="I14" s="63">
+        <v>1818</v>
+      </c>
+      <c r="J14" s="61">
+        <f t="shared" si="0"/>
+        <v>109080</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.80202174327675002</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.96114285714285719</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="84">
+        <v>56</v>
+      </c>
+      <c r="D15" s="63">
+        <v>94</v>
+      </c>
+      <c r="E15" s="63">
+        <v>104</v>
+      </c>
+      <c r="F15" s="63">
+        <v>0.92</v>
+      </c>
+      <c r="G15" s="63">
+        <v>76</v>
+      </c>
+      <c r="H15" s="63">
+        <v>36</v>
+      </c>
+      <c r="I15" s="63">
+        <v>1818</v>
+      </c>
+      <c r="J15" s="61">
+        <f t="shared" si="0"/>
+        <v>109080</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.82515698587127162</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.96114285714285719</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C16" s="84">
+        <v>59</v>
+      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63">
+        <v>112</v>
+      </c>
+      <c r="F16" s="63">
+        <v>0.94</v>
+      </c>
+      <c r="G16" s="63">
+        <v>76</v>
+      </c>
+      <c r="H16" s="63">
+        <v>32</v>
+      </c>
+      <c r="I16" s="63">
+        <v>1818</v>
+      </c>
+      <c r="J16" s="61">
+        <f t="shared" si="0"/>
+        <v>109080</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0.72725700449671404</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.96114285714285719</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="84">
+        <v>54</v>
+      </c>
+      <c r="D17" s="63">
+        <v>92</v>
+      </c>
+      <c r="E17" s="63">
+        <v>96</v>
+      </c>
+      <c r="F17" s="63">
+        <v>0.83</v>
+      </c>
+      <c r="G17" s="63">
+        <v>74</v>
+      </c>
+      <c r="H17" s="63">
+        <v>40</v>
+      </c>
+      <c r="I17" s="63">
+        <v>1736</v>
+      </c>
+      <c r="J17" s="61">
+        <f t="shared" si="0"/>
+        <v>104160</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0.95679012345679015</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="84">
+        <v>53</v>
+      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63">
+        <v>97</v>
+      </c>
+      <c r="F18" s="63">
+        <v>0.85</v>
+      </c>
+      <c r="G18" s="63">
+        <v>74</v>
+      </c>
+      <c r="H18" s="63">
+        <v>36</v>
+      </c>
+      <c r="I18" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J18" s="61">
+        <f t="shared" si="0"/>
+        <v>106020</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.96312557312362801</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.99028571428571432</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="84">
+        <v>56</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63">
+        <v>107</v>
+      </c>
+      <c r="F19" s="63">
+        <v>0.94</v>
+      </c>
+      <c r="G19" s="63">
+        <v>74</v>
+      </c>
+      <c r="H19" s="63">
+        <v>32</v>
+      </c>
+      <c r="I19" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J19" s="61">
+        <f t="shared" si="0"/>
+        <v>106020</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.82633988174709139</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0.99028571428571432</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="84">
+        <v>60</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63">
+        <v>115</v>
+      </c>
+      <c r="F20" s="63">
+        <v>0.99</v>
+      </c>
+      <c r="G20" s="63">
+        <v>74</v>
+      </c>
+      <c r="H20" s="63">
+        <v>28</v>
+      </c>
+      <c r="I20" s="63">
+        <v>1767</v>
+      </c>
+      <c r="J20" s="61">
+        <f t="shared" si="0"/>
+        <v>106020</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0.71759834368530018</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0.99028571428571432</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:C13">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E13">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I13">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C16">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C20">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I20">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3FED4C-B561-48FA-967F-3A8805541661}">
   <dimension ref="A2:Q14"/>
   <sheetViews>
@@ -4451,57 +7360,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O2" s="78" t="s">
+      <c r="O2" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P3" s="78" t="s">
+      <c r="P3" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="127"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D4" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="127"/>
+      <c r="O4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="23" t="s">
         <v>51</v>
-      </c>
-      <c r="Q3" s="78"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D4" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="78"/>
-      <c r="O4" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
         <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>58</v>
       </c>
       <c r="O5" s="26">
         <v>1</v>
@@ -4727,12 +7636,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F0D995-9E91-404C-BBB7-C4FB3B0E82AA}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4742,63 +7651,358 @@
     <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C2" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="126" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="126" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="92">
+        <f>230*1.414</f>
+        <v>325.21999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
     </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10" s="25">
+        <f>$K$6/J10</f>
+        <v>6.5043999999999995</v>
+      </c>
+      <c r="M10" s="25">
+        <f>K10*K10*J10</f>
+        <v>2115.3609679999995</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>51</v>
+      </c>
+      <c r="K11" s="25">
+        <f t="shared" ref="K11:K30" si="0">$K$6/J11</f>
+        <v>6.3768627450980384</v>
+      </c>
+      <c r="M11" s="25">
+        <f t="shared" ref="M11:M30" si="1">K11*K11*J11</f>
+        <v>2073.8833019607837</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>52</v>
+      </c>
+      <c r="K12" s="25">
+        <f t="shared" si="0"/>
+        <v>6.2542307692307686</v>
+      </c>
+      <c r="M12" s="25">
+        <f t="shared" si="1"/>
+        <v>2034.0009307692303</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>53</v>
+      </c>
+      <c r="K13" s="25">
+        <f t="shared" si="0"/>
+        <v>6.1362264150943391</v>
+      </c>
+      <c r="M13" s="25">
+        <f t="shared" si="1"/>
+        <v>1995.6235547169808</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>54</v>
+      </c>
+      <c r="K14" s="25">
+        <f t="shared" si="0"/>
+        <v>6.0225925925925923</v>
+      </c>
+      <c r="M14" s="25">
+        <f t="shared" si="1"/>
+        <v>1958.6675629629628</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>55</v>
+      </c>
+      <c r="K15" s="25">
+        <f t="shared" si="0"/>
+        <v>5.9130909090909087</v>
+      </c>
+      <c r="M15" s="25">
+        <f t="shared" si="1"/>
+        <v>1923.055425454545</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>56</v>
+      </c>
+      <c r="K16" s="25">
+        <f t="shared" si="0"/>
+        <v>5.8074999999999992</v>
+      </c>
+      <c r="M16" s="25">
+        <f t="shared" si="1"/>
+        <v>1888.7151499999995</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>57</v>
+      </c>
+      <c r="K17" s="25">
+        <f t="shared" si="0"/>
+        <v>5.7056140350877191</v>
+      </c>
+      <c r="M17" s="25">
+        <f t="shared" si="1"/>
+        <v>1855.5797964912281</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>58</v>
+      </c>
+      <c r="K18" s="25">
+        <f t="shared" si="0"/>
+        <v>5.6072413793103442</v>
+      </c>
+      <c r="M18" s="25">
+        <f t="shared" si="1"/>
+        <v>1823.58704137931</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>59</v>
+      </c>
+      <c r="K19" s="25">
+        <f t="shared" si="0"/>
+        <v>5.5122033898305078</v>
+      </c>
+      <c r="M19" s="25">
+        <f t="shared" si="1"/>
+        <v>1792.6787864406776</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>60</v>
+      </c>
+      <c r="K20" s="25">
+        <f t="shared" si="0"/>
+        <v>5.4203333333333328</v>
+      </c>
+      <c r="M20" s="25">
+        <f t="shared" si="1"/>
+        <v>1762.8008066666662</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>61</v>
+      </c>
+      <c r="K21" s="25">
+        <f t="shared" si="0"/>
+        <v>5.3314754098360648</v>
+      </c>
+      <c r="M21" s="25">
+        <f t="shared" si="1"/>
+        <v>1733.9024327868847</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>62</v>
+      </c>
+      <c r="K22" s="25">
+        <f t="shared" si="0"/>
+        <v>5.2454838709677416</v>
+      </c>
+      <c r="M22" s="25">
+        <f t="shared" si="1"/>
+        <v>1705.9362645161289</v>
+      </c>
+    </row>
+    <row r="23" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>63</v>
+      </c>
+      <c r="K23" s="25">
+        <f t="shared" si="0"/>
+        <v>5.1622222222222218</v>
+      </c>
+      <c r="M23" s="25">
+        <f t="shared" si="1"/>
+        <v>1678.8579111111108</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>64</v>
+      </c>
+      <c r="K24" s="25">
+        <f t="shared" si="0"/>
+        <v>5.0815624999999995</v>
+      </c>
+      <c r="M24" s="25">
+        <f t="shared" si="1"/>
+        <v>1652.6257562499998</v>
+      </c>
+    </row>
+    <row r="25" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>65</v>
+      </c>
+      <c r="K25" s="25">
+        <f t="shared" si="0"/>
+        <v>5.0033846153846149</v>
+      </c>
+      <c r="M25" s="25">
+        <f t="shared" si="1"/>
+        <v>1627.2007446153843</v>
+      </c>
+    </row>
+    <row r="26" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>66</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" si="0"/>
+        <v>4.9275757575757568</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" si="1"/>
+        <v>1602.5461878787876</v>
+      </c>
+    </row>
+    <row r="27" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>67</v>
+      </c>
+      <c r="K27" s="25">
+        <f t="shared" si="0"/>
+        <v>4.8540298507462678</v>
+      </c>
+      <c r="M27" s="25">
+        <f t="shared" si="1"/>
+        <v>1578.6275880597011</v>
+      </c>
+    </row>
+    <row r="28" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>68</v>
+      </c>
+      <c r="K28" s="25">
+        <f t="shared" si="0"/>
+        <v>4.782647058823529</v>
+      </c>
+      <c r="M28" s="25">
+        <f t="shared" si="1"/>
+        <v>1555.412476470588</v>
+      </c>
+    </row>
+    <row r="29" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>69</v>
+      </c>
+      <c r="K29" s="25">
+        <f t="shared" si="0"/>
+        <v>4.7133333333333329</v>
+      </c>
+      <c r="M29" s="25">
+        <f t="shared" si="1"/>
+        <v>1532.8702666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>70</v>
+      </c>
+      <c r="K30" s="25">
+        <f t="shared" si="0"/>
+        <v>4.6459999999999999</v>
+      </c>
+      <c r="M30" s="25">
+        <f t="shared" si="1"/>
+        <v>1510.9721199999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentacion/Mediciones Motores.xlsx
+++ b/Documentacion/Mediciones Motores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arimex\Repo\Arimex\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC64333-2D77-4AF8-A3FD-261AB2963AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C20DF5C-227B-47F1-A365-3EE522F1D0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="659" activeTab="2" xr2:uid="{3C149484-8A63-4D47-9889-9B55E210EF14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="694" activeTab="7" xr2:uid="{3C149484-8A63-4D47-9889-9B55E210EF14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Optimizacion Param" sheetId="6" r:id="rId4"/>
     <sheet name="Mediciones UI" sheetId="4" r:id="rId5"/>
     <sheet name="Materiales Nucleo" sheetId="5" r:id="rId6"/>
+    <sheet name="Calefactores" sheetId="7" r:id="rId7"/>
+    <sheet name="Placas Lite" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="138">
   <si>
     <t>Mediciones motores ITA</t>
   </si>
@@ -411,6 +413,63 @@
   <si>
     <t>Calificacion</t>
   </si>
+  <si>
+    <t>Nuevas Termocuplas</t>
+  </si>
+  <si>
+    <t>J0</t>
+  </si>
+  <si>
+    <t>Vel</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Puls Tot</t>
+  </si>
+  <si>
+    <t>Puls ON</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Integrada</t>
+  </si>
+  <si>
+    <t>Discreto</t>
+  </si>
+  <si>
+    <t>Comp zcd</t>
+  </si>
+  <si>
+    <t>Comp Ip</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Micro</t>
+  </si>
+  <si>
+    <t>Potencia</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
@@ -420,7 +479,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +515,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -478,12 +544,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -494,8 +554,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="55">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1161,11 +1227,221 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1227,10 +1503,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1240,13 +1513,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1266,20 +1536,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1294,6 +1557,85 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1319,6 +1661,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1328,29 +1688,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1370,44 +1712,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2767,16 +3132,16 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95" t="s">
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
       <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2960,7 +3325,7 @@
         <f>POWER(2,B19)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="50">
         <f>1/C19</f>
         <v>1</v>
       </c>
@@ -2980,7 +3345,7 @@
         <f t="shared" ref="C20:C29" si="0">POWER(2,B20)</f>
         <v>2</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="50">
         <f t="shared" ref="D20:D29" si="1">1/C20</f>
         <v>0.5</v>
       </c>
@@ -3000,7 +3365,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="50">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
@@ -3017,7 +3382,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="50">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -3034,7 +3399,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="50">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
@@ -3051,7 +3416,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="50">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
@@ -3068,7 +3433,7 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="50">
         <f t="shared" si="1"/>
         <v>1.5625E-2</v>
       </c>
@@ -3085,7 +3450,7 @@
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="50">
         <f t="shared" si="1"/>
         <v>7.8125E-3</v>
       </c>
@@ -3102,7 +3467,7 @@
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="50">
         <f t="shared" si="1"/>
         <v>3.90625E-3</v>
       </c>
@@ -3119,7 +3484,7 @@
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="50">
         <f t="shared" si="1"/>
         <v>1.953125E-3</v>
       </c>
@@ -3136,7 +3501,7 @@
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="50">
         <f t="shared" si="1"/>
         <v>9.765625E-4</v>
       </c>
@@ -3196,14 +3561,14 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -3231,21 +3596,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="99" t="s">
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="130"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -3404,14 +3769,14 @@
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="98"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="128"/>
       <c r="I9" s="14">
         <v>38</v>
       </c>
@@ -3438,14 +3803,14 @@
       <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="128"/>
       <c r="I10" s="14">
         <v>62</v>
       </c>
@@ -3472,14 +3837,14 @@
       <c r="B11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="128"/>
       <c r="I11" s="11">
         <v>32</v>
       </c>
@@ -3838,10 +4203,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB86"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3851,312 +4217,423 @@
     <col min="17" max="17" width="4.77734375" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U2" s="120" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="138"/>
+      <c r="U1" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="122"/>
-    </row>
-    <row r="3" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="135"/>
+    </row>
+    <row r="2" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B2" s="4"/>
+      <c r="C2" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="125" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="U3" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="65" t="s">
+      <c r="V2" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="65" t="s">
+      <c r="W2" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="X3" s="65" t="s">
+      <c r="X2" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="Y3" s="66" t="s">
+      <c r="Y2" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" s="65" t="s">
+      <c r="Z2" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="67" t="s">
+      <c r="AA2" s="61" t="s">
         <v>88</v>
       </c>
     </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="48">
+        <v>44502</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="66">
+        <v>38</v>
+      </c>
+      <c r="L3" s="52">
+        <v>46</v>
+      </c>
+      <c r="M3" s="52">
+        <v>76</v>
+      </c>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52">
+        <v>1750</v>
+      </c>
+      <c r="P3" s="67">
+        <f t="shared" ref="P3:P7" si="0">O3*60</f>
+        <v>105000</v>
+      </c>
+      <c r="U3" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="68" t="s">
+      <c r="A4" s="48">
+        <v>44502</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="104">
         <v>42</v>
       </c>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="51">
-        <v>44502</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="73">
-        <v>38</v>
-      </c>
-      <c r="L5" s="55">
+      <c r="D4" s="105">
+        <v>50</v>
+      </c>
+      <c r="E4" s="105">
+        <v>84</v>
+      </c>
+      <c r="F4" s="105">
+        <v>0.73</v>
+      </c>
+      <c r="G4" s="105">
+        <v>68</v>
+      </c>
+      <c r="H4" s="105">
+        <v>33</v>
+      </c>
+      <c r="I4" s="105">
+        <v>1750</v>
+      </c>
+      <c r="J4" s="106">
+        <f>I4*60</f>
+        <v>105000</v>
+      </c>
+      <c r="K4" s="107">
+        <v>40</v>
+      </c>
+      <c r="L4" s="108">
         <v>46</v>
       </c>
-      <c r="M5" s="55">
-        <v>76</v>
-      </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55">
+      <c r="M4" s="108">
+        <v>73</v>
+      </c>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108">
         <v>1750</v>
       </c>
-      <c r="P5" s="74">
-        <f t="shared" ref="P5:P9" si="0">O5*60</f>
+      <c r="P4" s="109">
+        <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-      <c r="U5" s="69" t="s">
+      <c r="R4">
+        <f>C4-K4</f>
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f>D4-L4</f>
+        <v>4</v>
+      </c>
+      <c r="U4" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="V5" s="70">
+      <c r="V4" s="64">
         <f>(61.2+61.1+61.1)/3</f>
         <v>61.133333333333333</v>
       </c>
-      <c r="W5" s="70">
+      <c r="W4" s="64">
         <f>(5.1+5+5.1)/3</f>
         <v>5.0666666666666664</v>
       </c>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="48">
+        <v>44511</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="104">
+        <v>41</v>
+      </c>
+      <c r="D5" s="105">
+        <v>52</v>
+      </c>
+      <c r="E5" s="105">
+        <v>92</v>
+      </c>
+      <c r="F5" s="105">
+        <v>0.74</v>
+      </c>
+      <c r="G5" s="105">
+        <v>76</v>
+      </c>
+      <c r="H5" s="105">
+        <v>40</v>
+      </c>
+      <c r="I5" s="105">
+        <v>1811</v>
+      </c>
+      <c r="J5" s="106">
+        <f>I5*60</f>
+        <v>108660</v>
+      </c>
+      <c r="K5" s="107">
+        <v>36</v>
+      </c>
+      <c r="L5" s="108">
+        <v>44</v>
+      </c>
+      <c r="M5" s="108">
+        <v>79</v>
+      </c>
+      <c r="N5" s="108">
+        <v>0.66</v>
+      </c>
+      <c r="O5" s="108">
+        <v>1750</v>
+      </c>
+      <c r="P5" s="109">
+        <f t="shared" si="0"/>
+        <v>105000</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R37" si="1">C5-K5</f>
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S37" si="2">D5-L5</f>
+        <v>8</v>
+      </c>
+      <c r="U5" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
       <c r="X5" s="39"/>
-      <c r="Y5" s="39">
-        <v>0.1</v>
-      </c>
+      <c r="Y5" s="39"/>
       <c r="Z5" s="39"/>
       <c r="AA5" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="51">
-        <v>44502</v>
-      </c>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="48">
+        <v>44511</v>
+      </c>
+      <c r="B6" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="75">
-        <v>42</v>
-      </c>
-      <c r="D6" s="56">
-        <v>50</v>
-      </c>
-      <c r="E6" s="56">
-        <v>84</v>
-      </c>
-      <c r="F6" s="56">
-        <v>0.73</v>
-      </c>
-      <c r="G6" s="56">
-        <v>68</v>
-      </c>
-      <c r="H6" s="56">
-        <v>33</v>
-      </c>
-      <c r="I6" s="56">
+      <c r="C6" s="104">
+        <v>40</v>
+      </c>
+      <c r="D6" s="105">
+        <v>51</v>
+      </c>
+      <c r="E6" s="105">
+        <v>92</v>
+      </c>
+      <c r="F6" s="105">
+        <v>0.74</v>
+      </c>
+      <c r="G6" s="105">
+        <v>76</v>
+      </c>
+      <c r="H6" s="105">
+        <v>40</v>
+      </c>
+      <c r="I6" s="105">
+        <v>1825</v>
+      </c>
+      <c r="J6" s="106">
+        <f>I6*60</f>
+        <v>109500</v>
+      </c>
+      <c r="K6" s="107">
+        <v>36</v>
+      </c>
+      <c r="L6" s="108">
+        <v>45</v>
+      </c>
+      <c r="M6" s="108">
+        <v>78</v>
+      </c>
+      <c r="N6" s="108">
+        <v>0.66</v>
+      </c>
+      <c r="O6" s="108">
         <v>1750</v>
       </c>
-      <c r="J6" s="128">
-        <f>I6*60</f>
-        <v>105000</v>
-      </c>
-      <c r="K6" s="136">
-        <v>40</v>
-      </c>
-      <c r="L6" s="57">
-        <v>46</v>
-      </c>
-      <c r="M6" s="57">
-        <v>73</v>
-      </c>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57">
-        <v>1750</v>
-      </c>
-      <c r="P6" s="76">
+      <c r="P6" s="109">
         <f t="shared" si="0"/>
         <v>105000</v>
       </c>
       <c r="R6">
-        <f>C6-K6</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="S6">
-        <f>D6-L6</f>
-        <v>4</v>
-      </c>
-      <c r="U6" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U6" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" s="39">
+        <v>63.5</v>
+      </c>
+      <c r="W6" s="39">
+        <v>3.6</v>
+      </c>
+      <c r="X6" s="39">
+        <v>165</v>
+      </c>
+      <c r="Y6" s="39">
+        <v>0.1</v>
+      </c>
       <c r="Z6" s="39"/>
       <c r="AA6" s="40" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="51">
-        <v>44511</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="75">
-        <v>41</v>
-      </c>
-      <c r="D7" s="56">
-        <v>52</v>
-      </c>
-      <c r="E7" s="56">
-        <v>92</v>
-      </c>
-      <c r="F7" s="56">
-        <v>0.74</v>
-      </c>
-      <c r="G7" s="56">
-        <v>76</v>
-      </c>
-      <c r="H7" s="56">
-        <v>40</v>
-      </c>
-      <c r="I7" s="56">
-        <v>1811</v>
-      </c>
-      <c r="J7" s="128">
-        <f>I7*60</f>
-        <v>108660</v>
-      </c>
-      <c r="K7" s="136">
-        <v>36</v>
-      </c>
-      <c r="L7" s="57">
+      <c r="A7" s="48">
+        <v>44502</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="57">
-        <v>79</v>
-      </c>
-      <c r="N7" s="57">
-        <v>0.66</v>
-      </c>
-      <c r="O7" s="57">
+      <c r="C7" s="69"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="69">
+        <v>42</v>
+      </c>
+      <c r="L7" s="54">
+        <v>49</v>
+      </c>
+      <c r="M7" s="54">
+        <v>78</v>
+      </c>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54">
         <v>1750</v>
       </c>
-      <c r="P7" s="76">
+      <c r="P7" s="70">
         <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-      <c r="R7">
-        <f t="shared" ref="R7:R33" si="1">C7-K7</f>
-        <v>5</v>
-      </c>
-      <c r="S7">
-        <f t="shared" ref="S7:S33" si="2">D7-L7</f>
-        <v>8</v>
-      </c>
-      <c r="U7" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="V7" s="39">
-        <v>63.5</v>
-      </c>
-      <c r="W7" s="39">
-        <v>3.6</v>
+      <c r="U7" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="V7" s="64">
+        <f>(63.3+62.9+62.7)/3</f>
+        <v>62.966666666666661</v>
+      </c>
+      <c r="W7" s="64">
+        <f>(3.5+3.6+3.3)/3</f>
+        <v>3.4666666666666663</v>
       </c>
       <c r="X7" s="39">
         <v>165</v>
@@ -4170,171 +4647,170 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="51">
-        <v>44511</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="75">
+      <c r="A8" s="48">
+        <v>44502</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="70"/>
+      <c r="U8" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="V8" s="39">
+        <v>64.8</v>
+      </c>
+      <c r="W8" s="39">
+        <v>4.7</v>
+      </c>
+      <c r="X8" s="39">
+        <v>180</v>
+      </c>
+      <c r="Y8" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="Z8" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA8" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="69">
+        <v>63</v>
+      </c>
+      <c r="L9" s="54">
+        <v>96</v>
+      </c>
+      <c r="M9" s="54">
+        <v>108</v>
+      </c>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54">
+        <v>1750</v>
+      </c>
+      <c r="P9" s="70">
+        <f t="shared" ref="P9" si="3">O9*60</f>
+        <v>105000</v>
+      </c>
+      <c r="U9" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="V9" s="39">
+        <v>62</v>
+      </c>
+      <c r="W9" s="64">
+        <f>(4.5+4.5+4.1)/3</f>
+        <v>4.3666666666666663</v>
+      </c>
+      <c r="X9" s="39">
+        <v>170</v>
+      </c>
+      <c r="Y9" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="Z9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA9" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48">
+        <v>44503</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="90">
+        <v>44</v>
+      </c>
+      <c r="D10" s="53">
+        <v>56</v>
+      </c>
+      <c r="E10" s="53">
+        <v>85</v>
+      </c>
+      <c r="F10" s="53">
+        <v>0.73</v>
+      </c>
+      <c r="G10" s="53">
+        <v>68</v>
+      </c>
+      <c r="H10" s="53">
+        <v>33</v>
+      </c>
+      <c r="I10" s="53">
+        <v>1750</v>
+      </c>
+      <c r="J10" s="84">
+        <f>I10*60</f>
+        <v>105000</v>
+      </c>
+      <c r="K10" s="90">
         <v>40</v>
       </c>
-      <c r="D8" s="56">
-        <v>51</v>
-      </c>
-      <c r="E8" s="56">
-        <v>92</v>
-      </c>
-      <c r="F8" s="56">
-        <v>0.74</v>
-      </c>
-      <c r="G8" s="56">
-        <v>76</v>
-      </c>
-      <c r="H8" s="56">
-        <v>40</v>
-      </c>
-      <c r="I8" s="56">
-        <v>1825</v>
-      </c>
-      <c r="J8" s="128">
-        <f>I8*60</f>
-        <v>109500</v>
-      </c>
-      <c r="K8" s="136">
-        <v>36</v>
-      </c>
-      <c r="L8" s="57">
-        <v>45</v>
-      </c>
-      <c r="M8" s="57">
-        <v>78</v>
-      </c>
-      <c r="N8" s="57">
-        <v>0.66</v>
-      </c>
-      <c r="O8" s="57">
+      <c r="L10" s="53">
+        <v>50</v>
+      </c>
+      <c r="M10" s="53">
+        <v>82</v>
+      </c>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53">
         <v>1750</v>
       </c>
-      <c r="P8" s="76">
-        <f t="shared" si="0"/>
+      <c r="P10" s="68">
+        <f>O10*60</f>
         <v>105000</v>
       </c>
-      <c r="R8">
+      <c r="R10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="U8" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="V8" s="70">
-        <f>(63.3+62.9+62.7)/3</f>
-        <v>62.966666666666661</v>
-      </c>
-      <c r="W8" s="70">
-        <f>(3.5+3.6+3.3)/3</f>
-        <v>3.4666666666666663</v>
-      </c>
-      <c r="X8" s="39">
-        <v>165</v>
-      </c>
-      <c r="Y8" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="51">
-        <v>44502</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="77">
-        <v>42</v>
-      </c>
-      <c r="L9" s="58">
-        <v>49</v>
-      </c>
-      <c r="M9" s="58">
-        <v>78</v>
-      </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58">
-        <v>1750</v>
-      </c>
-      <c r="P9" s="78">
-        <f t="shared" si="0"/>
-        <v>105000</v>
-      </c>
-      <c r="U9" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="V9" s="39">
-        <v>64.8</v>
-      </c>
-      <c r="W9" s="39">
-        <v>4.7</v>
-      </c>
-      <c r="X9" s="39">
+      <c r="U10" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="V10" s="64">
+        <f>(66+66.4+66.3)/3</f>
+        <v>66.233333333333334</v>
+      </c>
+      <c r="W10" s="64">
+        <f>(4.7+4.5+4.7)/3</f>
+        <v>4.6333333333333329</v>
+      </c>
+      <c r="X10" s="39">
         <v>180</v>
-      </c>
-      <c r="Y9" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="Z9" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA9" s="40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="51">
-        <v>44502</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="78"/>
-      <c r="U10" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="V10" s="39">
-        <v>62</v>
-      </c>
-      <c r="W10" s="70">
-        <f>(4.5+4.5+4.1)/3</f>
-        <v>4.3666666666666663</v>
-      </c>
-      <c r="X10" s="39">
-        <v>170</v>
       </c>
       <c r="Y10" s="39">
         <v>0.1</v>
@@ -4347,46 +4823,74 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B11" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="137">
-        <v>63</v>
-      </c>
-      <c r="L11" s="59">
-        <v>96</v>
-      </c>
-      <c r="M11" s="59">
-        <v>108</v>
-      </c>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59">
+      <c r="A11" s="48">
+        <v>44503</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="90">
+        <v>44</v>
+      </c>
+      <c r="D11" s="53">
+        <v>55</v>
+      </c>
+      <c r="E11" s="53">
+        <v>82</v>
+      </c>
+      <c r="F11" s="53">
+        <v>0.73</v>
+      </c>
+      <c r="G11" s="53">
+        <v>68</v>
+      </c>
+      <c r="H11" s="53">
+        <v>33</v>
+      </c>
+      <c r="I11" s="53">
+        <v>1724</v>
+      </c>
+      <c r="J11" s="84">
+        <f>I11*60</f>
+        <v>103440</v>
+      </c>
+      <c r="K11" s="90">
+        <v>43</v>
+      </c>
+      <c r="L11" s="53">
+        <v>51</v>
+      </c>
+      <c r="M11" s="53">
+        <v>82</v>
+      </c>
+      <c r="N11" s="53">
+        <v>0.72</v>
+      </c>
+      <c r="O11" s="53">
         <v>1750</v>
       </c>
-      <c r="P11" s="80">
-        <f t="shared" ref="P11" si="3">O11*60</f>
+      <c r="P11" s="68">
+        <f>O11*60</f>
         <v>105000</v>
       </c>
-      <c r="U11" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="V11" s="70">
-        <f>(66+66.4+66.3)/3</f>
-        <v>66.233333333333334</v>
-      </c>
-      <c r="W11" s="70">
-        <f>(4.7+4.5+4.7)/3</f>
-        <v>4.6333333333333329</v>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U11" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="V11" s="64">
+        <f>(66.1+66.4+66.4)/3</f>
+        <v>66.3</v>
+      </c>
+      <c r="W11" s="64">
+        <f>(4.4+4.2+4.3)/3</f>
+        <v>4.3000000000000007</v>
       </c>
       <c r="X11" s="39">
         <v>180</v>
@@ -4401,76 +4905,78 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="48">
         <v>44503</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="77">
-        <v>44</v>
-      </c>
-      <c r="D12" s="58">
-        <v>56</v>
-      </c>
-      <c r="E12" s="58">
-        <v>85</v>
-      </c>
-      <c r="F12" s="58">
-        <v>0.73</v>
-      </c>
-      <c r="G12" s="58">
+      <c r="B12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="71">
+        <v>52</v>
+      </c>
+      <c r="D12" s="55">
+        <v>72</v>
+      </c>
+      <c r="E12" s="55">
+        <v>95</v>
+      </c>
+      <c r="F12" s="55">
+        <v>0.82</v>
+      </c>
+      <c r="G12" s="55">
         <v>68</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="55">
         <v>33</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="55">
+        <v>1742</v>
+      </c>
+      <c r="J12" s="85">
+        <f>60*I12</f>
+        <v>104520</v>
+      </c>
+      <c r="K12" s="69">
+        <v>49</v>
+      </c>
+      <c r="L12" s="54">
+        <v>64</v>
+      </c>
+      <c r="M12" s="54">
+        <v>88</v>
+      </c>
+      <c r="N12" s="54">
+        <v>0.76</v>
+      </c>
+      <c r="O12" s="54">
         <v>1750</v>
       </c>
-      <c r="J12" s="12">
-        <f>I12*60</f>
-        <v>105000</v>
-      </c>
-      <c r="K12" s="77">
-        <v>40</v>
-      </c>
-      <c r="L12" s="58">
-        <v>50</v>
-      </c>
-      <c r="M12" s="58">
-        <v>82</v>
-      </c>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58">
-        <v>1750</v>
-      </c>
-      <c r="P12" s="78">
+      <c r="P12" s="70">
         <f>O12*60</f>
         <v>105000</v>
       </c>
       <c r="R12">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S12">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="U12" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="V12" s="70">
-        <f>(66.1+66.4+66.4)/3</f>
-        <v>66.3</v>
-      </c>
-      <c r="W12" s="70">
-        <f>(4.4+4.2+4.3)/3</f>
-        <v>4.3000000000000007</v>
+        <v>8</v>
+      </c>
+      <c r="U12" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="V12" s="64">
+        <f>(66.3+66+65.4)/3</f>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="W12" s="64">
+        <f>(4.2+4.2+4.2)/3</f>
+        <v>4.2</v>
       </c>
       <c r="X12" s="39">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="Y12" s="39">
         <v>0.1</v>
@@ -4481,152 +4987,138 @@
       <c r="AA12" s="40" t="s">
         <v>95</v>
       </c>
+      <c r="AB12" s="25"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="51">
-        <v>44503</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="77">
-        <v>44</v>
-      </c>
-      <c r="D13" s="58">
-        <v>55</v>
-      </c>
-      <c r="E13" s="58">
-        <v>82</v>
-      </c>
-      <c r="F13" s="58">
-        <v>0.73</v>
-      </c>
-      <c r="G13" s="58">
+      <c r="A13" s="48">
+        <v>44509</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="71">
+        <v>42</v>
+      </c>
+      <c r="D13" s="55">
+        <v>71</v>
+      </c>
+      <c r="E13" s="55">
+        <v>86</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0.72</v>
+      </c>
+      <c r="G13" s="55">
         <v>68</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="55">
         <v>33</v>
       </c>
-      <c r="I13" s="58">
-        <v>1724</v>
-      </c>
-      <c r="J13" s="12">
-        <f>I13*60</f>
-        <v>103440</v>
-      </c>
-      <c r="K13" s="77">
-        <v>43</v>
-      </c>
-      <c r="L13" s="58">
-        <v>51</v>
-      </c>
-      <c r="M13" s="58">
-        <v>82</v>
-      </c>
-      <c r="N13" s="58">
-        <v>0.72</v>
-      </c>
-      <c r="O13" s="58">
+      <c r="I13" s="55">
+        <v>1712</v>
+      </c>
+      <c r="J13" s="85">
+        <f t="shared" ref="J13:J22" si="4">I13*60</f>
+        <v>102720</v>
+      </c>
+      <c r="K13" s="69">
+        <v>38</v>
+      </c>
+      <c r="L13" s="54">
+        <v>67</v>
+      </c>
+      <c r="M13" s="54">
+        <v>94</v>
+      </c>
+      <c r="N13" s="54">
+        <v>0.77</v>
+      </c>
+      <c r="O13" s="54">
         <v>1750</v>
       </c>
-      <c r="P13" s="78">
+      <c r="P13" s="70">
         <f>O13*60</f>
         <v>105000</v>
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S13">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="U13" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="V13" s="70">
-        <f>(66.3+66+65.4)/3</f>
-        <v>65.900000000000006</v>
-      </c>
-      <c r="W13" s="70">
-        <f>(4.2+4.2+4.2)/3</f>
-        <v>4.2</v>
-      </c>
-      <c r="X13" s="39">
-        <v>170</v>
-      </c>
-      <c r="Y13" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="Z13" s="39" t="s">
+      <c r="U13" s="63"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="25"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="48">
+        <v>44509</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="72">
+        <v>42</v>
+      </c>
+      <c r="D14" s="56">
+        <v>71</v>
+      </c>
+      <c r="E14" s="56">
+        <v>85</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0.72</v>
+      </c>
+      <c r="G14" s="56">
+        <v>68</v>
+      </c>
+      <c r="H14" s="56">
+        <v>33</v>
+      </c>
+      <c r="I14" s="56">
+        <v>1712</v>
+      </c>
+      <c r="J14" s="86">
+        <f t="shared" si="4"/>
+        <v>102720</v>
+      </c>
+      <c r="K14" s="90">
+        <v>40</v>
+      </c>
+      <c r="L14" s="53">
+        <v>68</v>
+      </c>
+      <c r="M14" s="53">
         <v>95</v>
       </c>
-      <c r="AA13" s="40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="51">
-        <v>44503</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="81">
-        <v>52</v>
-      </c>
-      <c r="D14" s="60">
-        <v>72</v>
-      </c>
-      <c r="E14" s="60">
-        <v>95</v>
-      </c>
-      <c r="F14" s="60">
-        <v>0.82</v>
-      </c>
-      <c r="G14" s="60">
-        <v>68</v>
-      </c>
-      <c r="H14" s="60">
-        <v>33</v>
-      </c>
-      <c r="I14" s="60">
-        <v>1742</v>
-      </c>
-      <c r="J14" s="130">
-        <f>60*I14</f>
-        <v>104520</v>
-      </c>
-      <c r="K14" s="137">
-        <v>49</v>
-      </c>
-      <c r="L14" s="59">
-        <v>64</v>
-      </c>
-      <c r="M14" s="59">
-        <v>88</v>
-      </c>
-      <c r="N14" s="59">
-        <v>0.76</v>
-      </c>
-      <c r="O14" s="59">
+      <c r="N14" s="53">
+        <v>0.79</v>
+      </c>
+      <c r="O14" s="53">
         <v>1750</v>
       </c>
-      <c r="P14" s="80">
+      <c r="P14" s="68">
         <f>O14*60</f>
         <v>105000</v>
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="U14" s="69"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
+        <v>3</v>
+      </c>
+      <c r="U14" s="63"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
@@ -4634,2006 +5126,2150 @@
       <c r="AB14" s="25"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="51">
+      <c r="A15" s="48">
         <v>44509</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="82">
+      <c r="C15" s="72">
         <v>42</v>
       </c>
-      <c r="D15" s="61">
-        <v>71</v>
-      </c>
-      <c r="E15" s="61">
-        <v>86</v>
-      </c>
-      <c r="F15" s="61">
-        <v>0.72</v>
-      </c>
-      <c r="G15" s="61">
-        <v>68</v>
-      </c>
-      <c r="H15" s="61">
+      <c r="D15" s="56">
+        <v>72</v>
+      </c>
+      <c r="E15" s="56">
+        <v>89</v>
+      </c>
+      <c r="F15" s="56">
+        <v>0.74</v>
+      </c>
+      <c r="G15" s="56">
+        <v>70</v>
+      </c>
+      <c r="H15" s="56">
         <v>33</v>
       </c>
-      <c r="I15" s="61">
-        <v>1712</v>
-      </c>
-      <c r="J15" s="131">
-        <f t="shared" ref="J15:J28" si="4">I15*60</f>
-        <v>102720</v>
-      </c>
-      <c r="K15" s="77">
-        <v>38</v>
-      </c>
-      <c r="L15" s="58">
-        <v>67</v>
-      </c>
-      <c r="M15" s="58">
-        <v>94</v>
-      </c>
-      <c r="N15" s="58">
-        <v>0.77</v>
-      </c>
-      <c r="O15" s="58">
-        <v>1750</v>
-      </c>
-      <c r="P15" s="78">
-        <f>O15*60</f>
-        <v>105000</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="U15" s="69"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
+      <c r="I15" s="56">
+        <v>1724</v>
+      </c>
+      <c r="J15" s="86">
+        <f t="shared" si="4"/>
+        <v>103440</v>
+      </c>
+      <c r="K15" s="90"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="68"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
       <c r="Z15" s="39"/>
       <c r="AA15" s="40"/>
       <c r="AB15" s="25"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="51">
-        <v>44509</v>
+    <row r="16" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="48">
+        <v>44511</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="82">
-        <v>42</v>
-      </c>
-      <c r="D16" s="61">
+        <v>80</v>
+      </c>
+      <c r="C16" s="71">
+        <v>53</v>
+      </c>
+      <c r="D16" s="55">
         <v>71</v>
       </c>
-      <c r="E16" s="61">
-        <v>85</v>
-      </c>
-      <c r="F16" s="61">
-        <v>0.72</v>
-      </c>
-      <c r="G16" s="61">
+      <c r="E16" s="55">
+        <v>83</v>
+      </c>
+      <c r="F16" s="55">
+        <v>0.71</v>
+      </c>
+      <c r="G16" s="55">
         <v>68</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="55">
         <v>33</v>
       </c>
-      <c r="I16" s="61">
-        <v>1712</v>
-      </c>
-      <c r="J16" s="131">
+      <c r="I16" s="55">
+        <v>1678</v>
+      </c>
+      <c r="J16" s="85">
         <f t="shared" si="4"/>
-        <v>102720</v>
-      </c>
-      <c r="K16" s="77">
-        <v>40</v>
-      </c>
-      <c r="L16" s="58">
-        <v>68</v>
-      </c>
-      <c r="M16" s="58">
-        <v>95</v>
-      </c>
-      <c r="N16" s="58">
-        <v>0.79</v>
-      </c>
-      <c r="O16" s="58">
+        <v>100680</v>
+      </c>
+      <c r="K16" s="69">
+        <v>52</v>
+      </c>
+      <c r="L16" s="54">
+        <v>70</v>
+      </c>
+      <c r="M16" s="54">
+        <v>84</v>
+      </c>
+      <c r="N16" s="54">
+        <v>0.74</v>
+      </c>
+      <c r="O16" s="54">
         <v>1750</v>
       </c>
-      <c r="P16" s="78">
+      <c r="P16" s="70">
         <f>O16*60</f>
         <v>105000</v>
       </c>
       <c r="R16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="U16" s="69"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
+        <v>1</v>
+      </c>
+      <c r="U16" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="V16" s="64">
+        <v>55</v>
+      </c>
+      <c r="W16" s="64">
+        <v>4.55</v>
+      </c>
       <c r="X16" s="39"/>
       <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="40"/>
+      <c r="Z16" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA16" s="40" t="s">
+        <v>96</v>
+      </c>
       <c r="AB16" s="25"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="51">
-        <v>44509</v>
+    <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="48">
+        <v>44511</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="82">
-        <v>42</v>
-      </c>
-      <c r="D17" s="61">
-        <v>72</v>
-      </c>
-      <c r="E17" s="61">
-        <v>89</v>
-      </c>
-      <c r="F17" s="61">
-        <v>0.74</v>
-      </c>
-      <c r="G17" s="61">
-        <v>70</v>
-      </c>
-      <c r="H17" s="61">
+        <v>80</v>
+      </c>
+      <c r="C17" s="71">
+        <v>54</v>
+      </c>
+      <c r="D17" s="55">
+        <v>73</v>
+      </c>
+      <c r="E17" s="55">
+        <v>82</v>
+      </c>
+      <c r="F17" s="55">
+        <v>0.72</v>
+      </c>
+      <c r="G17" s="55">
+        <v>68</v>
+      </c>
+      <c r="H17" s="55">
         <v>33</v>
       </c>
-      <c r="I17" s="61">
-        <v>1724</v>
-      </c>
-      <c r="J17" s="131">
-        <f t="shared" si="4"/>
-        <v>103440</v>
-      </c>
-      <c r="K17" s="77"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="78"/>
-      <c r="U17" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="V17" s="70">
-        <v>55</v>
-      </c>
-      <c r="W17" s="70">
-        <v>4.55</v>
-      </c>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA17" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB17" s="25"/>
-    </row>
-    <row r="18" spans="1:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51">
-        <v>44511</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="83">
-        <v>53</v>
-      </c>
-      <c r="D18" s="62">
-        <v>71</v>
-      </c>
-      <c r="E18" s="62">
-        <v>83</v>
-      </c>
-      <c r="F18" s="62">
-        <v>0.71</v>
-      </c>
-      <c r="G18" s="62">
-        <v>68</v>
-      </c>
-      <c r="H18" s="62">
-        <v>33</v>
-      </c>
-      <c r="I18" s="62">
+      <c r="I17" s="55">
         <v>1678</v>
       </c>
-      <c r="J18" s="132">
+      <c r="J17" s="85">
         <f t="shared" si="4"/>
         <v>100680</v>
       </c>
-      <c r="K18" s="136">
-        <v>52</v>
-      </c>
-      <c r="L18" s="57">
-        <v>70</v>
-      </c>
-      <c r="M18" s="57">
+      <c r="K17" s="69">
+        <v>53</v>
+      </c>
+      <c r="L17" s="54">
+        <v>69</v>
+      </c>
+      <c r="M17" s="54">
         <v>84</v>
       </c>
-      <c r="N18" s="57">
-        <v>0.74</v>
-      </c>
-      <c r="O18" s="57">
+      <c r="N17" s="54">
+        <v>0.73</v>
+      </c>
+      <c r="O17" s="54">
         <v>1750</v>
       </c>
-      <c r="P18" s="76">
-        <f>O18*60</f>
+      <c r="P17" s="70">
+        <f>O17*60</f>
         <v>105000</v>
       </c>
-      <c r="R18">
+      <c r="R17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U18" s="93"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="25"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="51">
-        <v>44511</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="83">
-        <v>54</v>
-      </c>
-      <c r="D19" s="62">
-        <v>73</v>
-      </c>
-      <c r="E19" s="62">
-        <v>82</v>
-      </c>
-      <c r="F19" s="62">
-        <v>0.72</v>
-      </c>
-      <c r="G19" s="62">
-        <v>68</v>
-      </c>
-      <c r="H19" s="62">
-        <v>33</v>
-      </c>
-      <c r="I19" s="62">
-        <v>1678</v>
-      </c>
-      <c r="J19" s="132">
-        <f t="shared" si="4"/>
-        <v>100680</v>
-      </c>
-      <c r="K19" s="136">
-        <v>53</v>
-      </c>
-      <c r="L19" s="57">
-        <v>69</v>
-      </c>
-      <c r="M19" s="57">
-        <v>84</v>
-      </c>
-      <c r="N19" s="57">
-        <v>0.73</v>
-      </c>
-      <c r="O19" s="57">
-        <v>1750</v>
-      </c>
-      <c r="P19" s="76">
-        <f>O19*60</f>
-        <v>105000</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S19">
+      <c r="S17">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="51">
+      <c r="U17" s="82"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="25"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="48">
         <v>44511</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B18" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="83">
+      <c r="C18" s="71">
         <v>52</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D18" s="55">
         <v>70</v>
       </c>
-      <c r="E20" s="62">
+      <c r="E18" s="55">
         <v>88</v>
       </c>
-      <c r="F20" s="62">
+      <c r="F18" s="55">
         <v>0.73</v>
       </c>
-      <c r="G20" s="62">
+      <c r="G18" s="55">
         <v>76</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H18" s="55">
         <v>40</v>
       </c>
-      <c r="I20" s="62">
+      <c r="I18" s="55">
         <v>1748</v>
       </c>
-      <c r="J20" s="132">
+      <c r="J18" s="85">
         <f t="shared" si="4"/>
         <v>104880</v>
       </c>
-      <c r="K20" s="136"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="76"/>
-      <c r="AA20" s="25"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="70"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="48">
+        <v>44515</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="69">
+        <v>39</v>
+      </c>
+      <c r="L19" s="54">
+        <v>64</v>
+      </c>
+      <c r="M19" s="54">
+        <v>94</v>
+      </c>
+      <c r="N19" s="54">
+        <v>0.82</v>
+      </c>
+      <c r="O19" s="54">
+        <v>1750</v>
+      </c>
+      <c r="P19" s="70">
+        <f t="shared" ref="P19:P30" si="5">O19*60</f>
+        <v>105000</v>
+      </c>
+      <c r="AA19" s="25"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="48">
+        <v>44515</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="69"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="69">
+        <v>39</v>
+      </c>
+      <c r="L20" s="54">
+        <v>62</v>
+      </c>
+      <c r="M20" s="54">
+        <v>92</v>
+      </c>
+      <c r="N20" s="54">
+        <v>0.81</v>
+      </c>
+      <c r="O20" s="54">
+        <v>1750</v>
+      </c>
+      <c r="P20" s="70">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
       <c r="AB20" s="25"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="51">
+      <c r="A21" s="48">
         <v>44515</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="77">
-        <v>39</v>
-      </c>
-      <c r="L21" s="58">
-        <v>64</v>
-      </c>
-      <c r="M21" s="58">
-        <v>94</v>
-      </c>
-      <c r="N21" s="58">
-        <v>0.82</v>
-      </c>
-      <c r="O21" s="58">
+      <c r="C21" s="73"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="73">
+        <v>38</v>
+      </c>
+      <c r="L21" s="57">
+        <v>61</v>
+      </c>
+      <c r="M21" s="57">
+        <v>91</v>
+      </c>
+      <c r="N21" s="57">
+        <v>0.8</v>
+      </c>
+      <c r="O21" s="57">
         <v>1750</v>
       </c>
-      <c r="P21" s="78">
-        <f t="shared" ref="P21:P27" si="5">O21*60</f>
+      <c r="P21" s="70">
+        <f t="shared" si="5"/>
         <v>105000</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="51">
-        <v>44515</v>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+    </row>
+    <row r="22" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="48">
+        <v>44516</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="77">
-        <v>39</v>
-      </c>
-      <c r="L22" s="58">
-        <v>62</v>
-      </c>
-      <c r="M22" s="58">
-        <v>92</v>
-      </c>
-      <c r="N22" s="58">
-        <v>0.81</v>
-      </c>
-      <c r="O22" s="58">
+      <c r="C22" s="73">
+        <v>60</v>
+      </c>
+      <c r="D22" s="57">
+        <v>93</v>
+      </c>
+      <c r="E22" s="57">
+        <v>94</v>
+      </c>
+      <c r="F22" s="57">
+        <v>0.83</v>
+      </c>
+      <c r="G22" s="57">
+        <v>60</v>
+      </c>
+      <c r="H22" s="57">
+        <v>40</v>
+      </c>
+      <c r="I22" s="57">
+        <v>1656</v>
+      </c>
+      <c r="J22" s="85">
+        <f t="shared" si="4"/>
+        <v>99360</v>
+      </c>
+      <c r="K22" s="73">
+        <v>43</v>
+      </c>
+      <c r="L22" s="57">
+        <v>68</v>
+      </c>
+      <c r="M22" s="57">
+        <v>93</v>
+      </c>
+      <c r="N22" s="57">
+        <v>0.82</v>
+      </c>
+      <c r="O22" s="57">
+        <v>1748</v>
+      </c>
+      <c r="P22" s="70">
+        <f t="shared" si="5"/>
+        <v>104880</v>
+      </c>
+      <c r="Q22" s="142" t="s">
+        <v>117</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" s="48">
+        <v>44516</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="73">
+        <v>60</v>
+      </c>
+      <c r="D23" s="57">
+        <v>93</v>
+      </c>
+      <c r="E23" s="57">
+        <v>94</v>
+      </c>
+      <c r="F23" s="57">
+        <v>0.83</v>
+      </c>
+      <c r="G23" s="57">
+        <v>60</v>
+      </c>
+      <c r="H23" s="57">
+        <v>40</v>
+      </c>
+      <c r="I23" s="57">
+        <v>1656</v>
+      </c>
+      <c r="J23" s="85">
+        <f>I23*60</f>
+        <v>99360</v>
+      </c>
+      <c r="K23" s="73">
+        <v>43</v>
+      </c>
+      <c r="L23" s="57">
+        <v>68</v>
+      </c>
+      <c r="M23" s="57">
+        <v>93</v>
+      </c>
+      <c r="N23" s="57">
+        <v>0.86</v>
+      </c>
+      <c r="O23" s="57">
+        <v>1736</v>
+      </c>
+      <c r="P23" s="70">
+        <f t="shared" si="5"/>
+        <v>104160</v>
+      </c>
+      <c r="Q23" s="142"/>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24" s="48">
+        <v>44516</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="73">
+        <v>51</v>
+      </c>
+      <c r="D24" s="57">
+        <v>88</v>
+      </c>
+      <c r="E24" s="57">
+        <v>96</v>
+      </c>
+      <c r="F24" s="57">
+        <v>0.85</v>
+      </c>
+      <c r="G24" s="57">
+        <v>68</v>
+      </c>
+      <c r="H24" s="57">
+        <v>38</v>
+      </c>
+      <c r="I24" s="57">
+        <v>1724</v>
+      </c>
+      <c r="J24" s="85">
+        <f>I24*60</f>
+        <v>103440</v>
+      </c>
+      <c r="K24" s="73">
+        <v>44</v>
+      </c>
+      <c r="L24" s="57">
+        <v>73</v>
+      </c>
+      <c r="M24" s="57">
+        <v>88</v>
+      </c>
+      <c r="N24" s="57">
+        <v>0.82</v>
+      </c>
+      <c r="O24" s="57">
         <v>1750</v>
       </c>
-      <c r="P22" s="78">
+      <c r="P24" s="74">
         <f t="shared" si="5"/>
         <v>105000</v>
       </c>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="51">
-        <v>44515</v>
-      </c>
-      <c r="B23" s="19" t="s">
+      <c r="Q24" s="142"/>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="48">
+        <v>44516</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="84">
-        <v>38</v>
-      </c>
-      <c r="L23" s="63">
-        <v>61</v>
-      </c>
-      <c r="M23" s="63">
-        <v>91</v>
-      </c>
-      <c r="N23" s="63">
-        <v>0.8</v>
-      </c>
-      <c r="O23" s="63">
+      <c r="C25" s="73">
+        <v>55</v>
+      </c>
+      <c r="D25" s="57">
+        <v>85</v>
+      </c>
+      <c r="E25" s="57">
+        <v>95</v>
+      </c>
+      <c r="F25" s="57">
+        <v>0.84</v>
+      </c>
+      <c r="G25" s="57">
+        <v>69</v>
+      </c>
+      <c r="H25" s="57">
+        <v>39</v>
+      </c>
+      <c r="I25" s="57">
+        <v>1730</v>
+      </c>
+      <c r="J25" s="85">
+        <f>I25*60</f>
+        <v>103800</v>
+      </c>
+      <c r="K25" s="73">
+        <v>42</v>
+      </c>
+      <c r="L25" s="57">
+        <v>73</v>
+      </c>
+      <c r="M25" s="57">
+        <v>88</v>
+      </c>
+      <c r="N25" s="57">
+        <v>0.82</v>
+      </c>
+      <c r="O25" s="57">
         <v>1750</v>
       </c>
-      <c r="P23" s="78">
+      <c r="P25" s="74">
         <f t="shared" si="5"/>
         <v>105000</v>
       </c>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-    </row>
-    <row r="24" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51">
-        <v>44516</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="84">
-        <v>60</v>
-      </c>
-      <c r="D24" s="63">
-        <v>93</v>
-      </c>
-      <c r="E24" s="63">
-        <v>94</v>
-      </c>
-      <c r="F24" s="63">
-        <v>0.83</v>
-      </c>
-      <c r="G24" s="63">
-        <v>60</v>
-      </c>
-      <c r="H24" s="63">
-        <v>40</v>
-      </c>
-      <c r="I24" s="63">
-        <v>1656</v>
-      </c>
-      <c r="J24" s="131">
-        <f t="shared" si="4"/>
-        <v>99360</v>
-      </c>
-      <c r="K24" s="84">
-        <v>43</v>
-      </c>
-      <c r="L24" s="63">
-        <v>68</v>
-      </c>
-      <c r="M24" s="63">
-        <v>93</v>
-      </c>
-      <c r="N24" s="63">
-        <v>0.82</v>
-      </c>
-      <c r="O24" s="63">
-        <v>1748</v>
-      </c>
-      <c r="P24" s="78">
-        <f t="shared" si="5"/>
-        <v>104880</v>
-      </c>
-      <c r="Q24" s="126" t="s">
-        <v>117</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" s="51">
-        <v>44516</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="84">
-        <v>60</v>
-      </c>
-      <c r="D25" s="63">
-        <v>93</v>
-      </c>
-      <c r="E25" s="63">
-        <v>94</v>
-      </c>
-      <c r="F25" s="63">
-        <v>0.83</v>
-      </c>
-      <c r="G25" s="63">
-        <v>60</v>
-      </c>
-      <c r="H25" s="63">
-        <v>40</v>
-      </c>
-      <c r="I25" s="63">
-        <v>1656</v>
-      </c>
-      <c r="J25" s="131">
-        <f>I25*60</f>
-        <v>99360</v>
-      </c>
-      <c r="K25" s="84">
-        <v>43</v>
-      </c>
-      <c r="L25" s="63">
-        <v>68</v>
-      </c>
-      <c r="M25" s="63">
-        <v>93</v>
-      </c>
-      <c r="N25" s="63">
-        <v>0.86</v>
-      </c>
-      <c r="O25" s="63">
-        <v>1736</v>
-      </c>
-      <c r="P25" s="78">
-        <f t="shared" si="5"/>
-        <v>104160</v>
-      </c>
-      <c r="Q25" s="126"/>
+      <c r="Q25" s="142"/>
       <c r="R25">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="S25">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AA25" s="25"/>
       <c r="AB25" s="25"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" s="51">
+      <c r="A26" s="48">
         <v>44516</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="84">
-        <v>51</v>
-      </c>
-      <c r="D26" s="63">
+      <c r="C26" s="73">
+        <v>53</v>
+      </c>
+      <c r="D26" s="57">
         <v>88</v>
       </c>
-      <c r="E26" s="63">
-        <v>96</v>
-      </c>
-      <c r="F26" s="63">
-        <v>0.85</v>
-      </c>
-      <c r="G26" s="63">
+      <c r="E26" s="57">
+        <v>94</v>
+      </c>
+      <c r="F26" s="57">
+        <v>0.86</v>
+      </c>
+      <c r="G26" s="57">
+        <v>70</v>
+      </c>
+      <c r="H26" s="57">
+        <v>38</v>
+      </c>
+      <c r="I26" s="57">
+        <v>1767</v>
+      </c>
+      <c r="J26" s="87">
+        <f>I26*60</f>
+        <v>106020</v>
+      </c>
+      <c r="K26" s="73"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="142"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27" s="92">
+        <v>44522</v>
+      </c>
+      <c r="B27" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="94">
+        <v>43</v>
+      </c>
+      <c r="D27" s="95">
+        <v>55</v>
+      </c>
+      <c r="E27" s="95">
+        <v>86</v>
+      </c>
+      <c r="F27" s="95">
+        <v>0.76</v>
+      </c>
+      <c r="G27" s="95">
         <v>68</v>
       </c>
-      <c r="H26" s="63">
-        <v>38</v>
-      </c>
-      <c r="I26" s="63">
-        <v>1724</v>
-      </c>
-      <c r="J26" s="131">
-        <f>I26*60</f>
-        <v>103440</v>
-      </c>
-      <c r="K26" s="84">
-        <v>44</v>
-      </c>
-      <c r="L26" s="63">
-        <v>73</v>
-      </c>
-      <c r="M26" s="63">
-        <v>88</v>
-      </c>
-      <c r="N26" s="63">
-        <v>0.82</v>
-      </c>
-      <c r="O26" s="63">
+      <c r="H27" s="95">
+        <v>40</v>
+      </c>
+      <c r="I27" s="95">
+        <v>1736</v>
+      </c>
+      <c r="J27" s="96">
+        <f>I27*60</f>
+        <v>104160</v>
+      </c>
+      <c r="K27" s="94"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="142"/>
+      <c r="R27" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" s="48">
+        <v>44522</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="73">
+        <v>47</v>
+      </c>
+      <c r="D28" s="57">
+        <v>63</v>
+      </c>
+      <c r="E28" s="57">
+        <v>84</v>
+      </c>
+      <c r="F28" s="57">
+        <v>0.75</v>
+      </c>
+      <c r="G28" s="57">
+        <v>68</v>
+      </c>
+      <c r="H28" s="57">
+        <v>40</v>
+      </c>
+      <c r="I28" s="57">
+        <v>1736</v>
+      </c>
+      <c r="J28" s="85">
+        <f t="shared" ref="J28:J30" si="6">I28*60</f>
+        <v>104160</v>
+      </c>
+      <c r="K28" s="73">
+        <v>41</v>
+      </c>
+      <c r="L28" s="57">
+        <v>53</v>
+      </c>
+      <c r="M28" s="57">
+        <v>81</v>
+      </c>
+      <c r="N28" s="57">
+        <v>0.74</v>
+      </c>
+      <c r="O28" s="57">
         <v>1750</v>
       </c>
-      <c r="P26" s="85">
+      <c r="P28" s="74">
         <f t="shared" si="5"/>
         <v>105000</v>
       </c>
-      <c r="Q26" s="126"/>
-      <c r="R26">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" s="51">
-        <v>44516</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="84">
-        <v>55</v>
-      </c>
-      <c r="D27" s="63">
-        <v>85</v>
-      </c>
-      <c r="E27" s="63">
-        <v>95</v>
-      </c>
-      <c r="F27" s="63">
-        <v>0.84</v>
-      </c>
-      <c r="G27" s="63">
-        <v>69</v>
-      </c>
-      <c r="H27" s="63">
-        <v>39</v>
-      </c>
-      <c r="I27" s="63">
-        <v>1730</v>
-      </c>
-      <c r="J27" s="131">
-        <f>I27*60</f>
-        <v>103800</v>
-      </c>
-      <c r="K27" s="84">
-        <v>42</v>
-      </c>
-      <c r="L27" s="63">
-        <v>73</v>
-      </c>
-      <c r="M27" s="63">
-        <v>88</v>
-      </c>
-      <c r="N27" s="63">
-        <v>0.82</v>
-      </c>
-      <c r="O27" s="63">
+      <c r="Q28" s="142"/>
+      <c r="R28" s="143"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" s="48">
+        <v>44522</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="73">
+        <v>44</v>
+      </c>
+      <c r="D29" s="57">
+        <v>51</v>
+      </c>
+      <c r="E29" s="57">
+        <v>81</v>
+      </c>
+      <c r="F29" s="57">
+        <v>0.72</v>
+      </c>
+      <c r="G29" s="57">
+        <v>68</v>
+      </c>
+      <c r="H29" s="57">
+        <v>40</v>
+      </c>
+      <c r="I29" s="57">
+        <v>1736</v>
+      </c>
+      <c r="J29" s="85">
+        <f t="shared" si="6"/>
+        <v>104160</v>
+      </c>
+      <c r="K29" s="73">
+        <v>41</v>
+      </c>
+      <c r="L29" s="57">
+        <v>43</v>
+      </c>
+      <c r="M29" s="57">
+        <v>77</v>
+      </c>
+      <c r="N29" s="57">
+        <v>0.7</v>
+      </c>
+      <c r="O29" s="57">
         <v>1750</v>
       </c>
-      <c r="P27" s="85">
+      <c r="P29" s="74">
         <f t="shared" si="5"/>
         <v>105000</v>
       </c>
-      <c r="Q27" s="126"/>
-      <c r="R27">
+      <c r="Q29" s="142"/>
+      <c r="R29" s="143"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" s="48">
+        <v>44522</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="73">
+        <v>49</v>
+      </c>
+      <c r="D30" s="57">
+        <v>64</v>
+      </c>
+      <c r="E30" s="57">
+        <v>93</v>
+      </c>
+      <c r="F30" s="57">
+        <v>0.82</v>
+      </c>
+      <c r="G30" s="57">
+        <v>68</v>
+      </c>
+      <c r="H30" s="57">
+        <v>40</v>
+      </c>
+      <c r="I30" s="57">
+        <v>1792</v>
+      </c>
+      <c r="J30" s="85">
+        <f t="shared" si="6"/>
+        <v>107520</v>
+      </c>
+      <c r="K30" s="73">
+        <v>41</v>
+      </c>
+      <c r="L30" s="57">
+        <v>50</v>
+      </c>
+      <c r="M30" s="57">
+        <v>79</v>
+      </c>
+      <c r="N30" s="57">
+        <v>0.71</v>
+      </c>
+      <c r="O30" s="57">
+        <v>1750</v>
+      </c>
+      <c r="P30" s="74">
+        <f t="shared" si="5"/>
+        <v>105000</v>
+      </c>
+      <c r="Q30" s="142"/>
+      <c r="R30" s="143"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" s="48">
+        <v>44522</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="73"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="85">
+        <f t="shared" ref="J31" si="7">I31*60</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="73"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57">
+        <v>1750</v>
+      </c>
+      <c r="P31" s="74">
+        <f t="shared" ref="P31" si="8">O31*60</f>
+        <v>105000</v>
+      </c>
+      <c r="Q31" s="142"/>
+      <c r="R31" s="143"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" s="48"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="142"/>
+      <c r="R32" s="143"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33" s="48"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="142"/>
+      <c r="R33" s="143"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A34" s="48"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="87"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="142"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A35" s="48"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="142"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A36" s="48">
+        <v>44517</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="73">
+        <v>38</v>
+      </c>
+      <c r="D36" s="57">
+        <v>58</v>
+      </c>
+      <c r="E36" s="57">
+        <v>94</v>
+      </c>
+      <c r="F36" s="57">
+        <v>0.79</v>
+      </c>
+      <c r="G36" s="57">
+        <v>69</v>
+      </c>
+      <c r="H36" s="57">
+        <v>39</v>
+      </c>
+      <c r="I36" s="57">
+        <v>1760</v>
+      </c>
+      <c r="J36" s="85">
+        <f>I36*60</f>
+        <v>105600</v>
+      </c>
+      <c r="K36" s="73">
+        <v>33</v>
+      </c>
+      <c r="L36" s="57">
+        <v>46</v>
+      </c>
+      <c r="M36" s="57">
+        <v>82</v>
+      </c>
+      <c r="N36" s="57">
+        <v>0.74</v>
+      </c>
+      <c r="O36" s="57">
+        <v>1750</v>
+      </c>
+      <c r="P36" s="74">
+        <f t="shared" ref="P36:P37" si="9">O36*60</f>
+        <v>105000</v>
+      </c>
+      <c r="Q36" s="142"/>
+      <c r="R36">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="51">
-        <v>44516</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="84">
-        <v>53</v>
-      </c>
-      <c r="D28" s="63">
-        <v>88</v>
-      </c>
-      <c r="E28" s="63">
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A37" s="48">
+        <v>44517</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="73">
+        <v>39</v>
+      </c>
+      <c r="D37" s="57">
+        <v>59</v>
+      </c>
+      <c r="E37" s="57">
         <v>94</v>
       </c>
-      <c r="F28" s="63">
-        <v>0.86</v>
-      </c>
-      <c r="G28" s="63">
-        <v>70</v>
-      </c>
-      <c r="H28" s="63">
-        <v>38</v>
-      </c>
-      <c r="I28" s="63">
-        <v>1767</v>
-      </c>
-      <c r="J28" s="131">
-        <f>I28*60</f>
-        <v>106020</v>
-      </c>
-      <c r="K28" s="84"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="126"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="126"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="126"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="126"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="51">
-        <v>44517</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="84">
-        <v>38</v>
-      </c>
-      <c r="D32" s="63">
-        <v>58</v>
-      </c>
-      <c r="E32" s="63">
-        <v>94</v>
-      </c>
-      <c r="F32" s="63">
-        <v>0.79</v>
-      </c>
-      <c r="G32" s="63">
+      <c r="F37" s="57">
+        <v>0.82</v>
+      </c>
+      <c r="G37" s="57">
         <v>69</v>
       </c>
-      <c r="H32" s="63">
+      <c r="H37" s="57">
         <v>39</v>
       </c>
-      <c r="I32" s="63">
+      <c r="I37" s="57">
         <v>1760</v>
       </c>
-      <c r="J32" s="131">
-        <f>I32*60</f>
+      <c r="J37" s="85">
+        <f>I37*60</f>
         <v>105600</v>
       </c>
-      <c r="K32" s="84">
-        <v>33</v>
-      </c>
-      <c r="L32" s="63">
-        <v>46</v>
-      </c>
-      <c r="M32" s="63">
-        <v>82</v>
-      </c>
-      <c r="N32" s="63">
+      <c r="K37" s="73">
+        <v>34</v>
+      </c>
+      <c r="L37" s="57">
+        <v>47</v>
+      </c>
+      <c r="M37" s="57">
+        <v>81</v>
+      </c>
+      <c r="N37" s="57">
         <v>0.74</v>
       </c>
-      <c r="O32" s="63">
+      <c r="O37" s="57">
         <v>1750</v>
       </c>
-      <c r="P32" s="85">
-        <f t="shared" ref="P32:P33" si="6">O32*60</f>
+      <c r="P37" s="74">
+        <f t="shared" si="9"/>
         <v>105000</v>
       </c>
-      <c r="Q32" s="126"/>
-      <c r="R32">
+      <c r="Q37" s="142"/>
+      <c r="R37">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="S32">
+      <c r="S37">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A33" s="51">
-        <v>44517</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="84">
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+    </row>
+    <row r="38" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="19"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="74"/>
+      <c r="AA38" s="25"/>
+    </row>
+    <row r="39" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="19"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="78"/>
+    </row>
+    <row r="41" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="147" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="149"/>
+      <c r="M42" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="N42" s="144"/>
+      <c r="O42" s="144"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C43" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="J43" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="M43" s="27"/>
+      <c r="N43" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="153">
+        <v>62</v>
+      </c>
+      <c r="E44" s="153">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F44" s="139"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="37">
+        <v>1</v>
+      </c>
+      <c r="I44" s="37">
+        <v>87</v>
+      </c>
+      <c r="J44" s="37">
+        <v>37</v>
+      </c>
+      <c r="K44" s="38">
+        <v>0.64</v>
+      </c>
+      <c r="M44" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="N44" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O44" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C45" s="151"/>
+      <c r="D45" s="154"/>
+      <c r="E45" s="154"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="39">
+        <v>2</v>
+      </c>
+      <c r="I45" s="39">
+        <v>88</v>
+      </c>
+      <c r="J45" s="39">
+        <v>38</v>
+      </c>
+      <c r="K45" s="40">
+        <v>0.65</v>
+      </c>
+      <c r="M45" s="145"/>
+      <c r="N45" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="O45" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="151"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="39">
+        <v>3</v>
+      </c>
+      <c r="I46" s="39">
+        <v>88</v>
+      </c>
+      <c r="J46" s="39">
         <v>39</v>
       </c>
-      <c r="D33" s="63">
+      <c r="K46" s="40">
+        <v>0.65</v>
+      </c>
+      <c r="M46" s="146"/>
+      <c r="N46" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="O46" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="63">
-        <v>94</v>
-      </c>
-      <c r="F33" s="63">
-        <v>0.82</v>
-      </c>
-      <c r="G33" s="63">
-        <v>69</v>
-      </c>
-      <c r="H33" s="63">
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C47" s="151"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="39">
+        <v>5</v>
+      </c>
+      <c r="I47" s="39">
+        <v>89</v>
+      </c>
+      <c r="J47" s="39">
         <v>39</v>
       </c>
-      <c r="I33" s="63">
-        <v>1760</v>
-      </c>
-      <c r="J33" s="131">
-        <f>I33*60</f>
-        <v>105600</v>
-      </c>
-      <c r="K33" s="84">
-        <v>34</v>
-      </c>
-      <c r="L33" s="63">
-        <v>47</v>
-      </c>
-      <c r="M33" s="63">
-        <v>81</v>
-      </c>
-      <c r="N33" s="63">
-        <v>0.74</v>
-      </c>
-      <c r="O33" s="63">
-        <v>1750</v>
-      </c>
-      <c r="P33" s="85">
-        <f t="shared" si="6"/>
-        <v>105000</v>
-      </c>
-      <c r="Q33" s="126"/>
-      <c r="R33">
-        <f t="shared" si="1"/>
+      <c r="K47" s="40">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C48" s="151"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="140"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="39">
+        <v>10</v>
+      </c>
+      <c r="I48" s="39">
+        <v>89</v>
+      </c>
+      <c r="J48" s="39">
+        <v>39</v>
+      </c>
+      <c r="K48" s="40">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C49" s="152"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42">
+        <v>56</v>
+      </c>
+      <c r="K49" s="43"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C50" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="153">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E50" s="153">
+        <v>15.2</v>
+      </c>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="37">
+        <v>1</v>
+      </c>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="38"/>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C51" s="151"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="39">
+        <v>2</v>
+      </c>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="40"/>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C52" s="151"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="39">
+        <v>3</v>
+      </c>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="40"/>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C53" s="151"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="140"/>
+      <c r="H53" s="39">
         <v>5</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-    </row>
-    <row r="34" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="134"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="85"/>
-    </row>
-    <row r="35" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="19"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="89"/>
-    </row>
-    <row r="37" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="119"/>
-      <c r="M38" s="114" t="s">
-        <v>82</v>
-      </c>
-      <c r="N38" s="114"/>
-      <c r="O38" s="114"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C39" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="K39" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="M39" s="27"/>
-      <c r="N39" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="O39" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="106">
-        <v>62</v>
-      </c>
-      <c r="E40" s="106">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="37">
-        <v>1</v>
-      </c>
-      <c r="I40" s="37">
-        <v>87</v>
-      </c>
-      <c r="J40" s="37">
-        <v>37</v>
-      </c>
-      <c r="K40" s="38">
-        <v>0.64</v>
-      </c>
-      <c r="M40" s="115" t="s">
-        <v>72</v>
-      </c>
-      <c r="N40" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="O40" s="31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C41" s="110"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="39">
-        <v>2</v>
-      </c>
-      <c r="I41" s="39">
-        <v>88</v>
-      </c>
-      <c r="J41" s="39">
-        <v>38</v>
-      </c>
-      <c r="K41" s="40">
-        <v>0.65</v>
-      </c>
-      <c r="M41" s="115"/>
-      <c r="N41" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="O41" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="110"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="39">
-        <v>3</v>
-      </c>
-      <c r="I42" s="39">
-        <v>88</v>
-      </c>
-      <c r="J42" s="39">
-        <v>39</v>
-      </c>
-      <c r="K42" s="40">
-        <v>0.65</v>
-      </c>
-      <c r="M42" s="116"/>
-      <c r="N42" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="O42" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C43" s="110"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="39">
-        <v>5</v>
-      </c>
-      <c r="I43" s="39">
-        <v>89</v>
-      </c>
-      <c r="J43" s="39">
-        <v>39</v>
-      </c>
-      <c r="K43" s="40">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C44" s="110"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="39">
-        <v>10</v>
-      </c>
-      <c r="I44" s="39">
-        <v>89</v>
-      </c>
-      <c r="J44" s="39">
-        <v>39</v>
-      </c>
-      <c r="K44" s="40">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C45" s="111"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42">
-        <v>56</v>
-      </c>
-      <c r="K45" s="43"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C46" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="106">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="E46" s="106">
-        <v>15.2</v>
-      </c>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="37">
-        <v>1</v>
-      </c>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="38"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C47" s="110"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="39">
-        <v>2</v>
-      </c>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="40"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C48" s="110"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="39">
-        <v>3</v>
-      </c>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="40"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C49" s="110"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="39">
-        <v>5</v>
-      </c>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="40"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C50" s="110"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="39">
-        <v>10</v>
-      </c>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="40"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C51" s="111"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="43"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C52" s="109"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="37">
-        <v>1</v>
-      </c>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="38"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C53" s="110"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="39">
-        <v>2</v>
       </c>
       <c r="I53" s="39"/>
       <c r="J53" s="39"/>
       <c r="K53" s="40"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C54" s="110"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
+      <c r="C54" s="151"/>
+      <c r="D54" s="154"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
       <c r="H54" s="39">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I54" s="39"/>
       <c r="J54" s="39"/>
       <c r="K54" s="40"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C55" s="110"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="39">
+      <c r="C55" s="152"/>
+      <c r="D55" s="155"/>
+      <c r="E55" s="155"/>
+      <c r="F55" s="141"/>
+      <c r="G55" s="141"/>
+      <c r="H55" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="43"/>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C56" s="150"/>
+      <c r="D56" s="153"/>
+      <c r="E56" s="153"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="37">
+        <v>1</v>
+      </c>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="38"/>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C57" s="151"/>
+      <c r="D57" s="154"/>
+      <c r="E57" s="154"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="140"/>
+      <c r="H57" s="39">
+        <v>2</v>
+      </c>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="40"/>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C58" s="151"/>
+      <c r="D58" s="154"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="39">
+        <v>3</v>
+      </c>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="40"/>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C59" s="151"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="39">
         <v>5</v>
-      </c>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="40"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C56" s="110"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="39">
-        <v>10</v>
-      </c>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="40"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C57" s="111"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="43"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C58" s="109"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="37">
-        <v>1</v>
-      </c>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="38"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C59" s="110"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="39">
-        <v>2</v>
       </c>
       <c r="I59" s="39"/>
       <c r="J59" s="39"/>
       <c r="K59" s="40"/>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C60" s="110"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107"/>
+      <c r="C60" s="151"/>
+      <c r="D60" s="154"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="140"/>
       <c r="H60" s="39">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I60" s="39"/>
       <c r="J60" s="39"/>
       <c r="K60" s="40"/>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C61" s="110"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="39">
+      <c r="C61" s="152"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="141"/>
+      <c r="H61" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="43"/>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C62" s="150"/>
+      <c r="D62" s="153"/>
+      <c r="E62" s="153"/>
+      <c r="F62" s="153"/>
+      <c r="G62" s="153"/>
+      <c r="H62" s="37">
+        <v>1</v>
+      </c>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="38"/>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C63" s="151"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="39">
+        <v>2</v>
+      </c>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="40"/>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C64" s="151"/>
+      <c r="D64" s="154"/>
+      <c r="E64" s="154"/>
+      <c r="F64" s="154"/>
+      <c r="G64" s="154"/>
+      <c r="H64" s="39">
+        <v>3</v>
+      </c>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="40"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C65" s="151"/>
+      <c r="D65" s="154"/>
+      <c r="E65" s="154"/>
+      <c r="F65" s="154"/>
+      <c r="G65" s="154"/>
+      <c r="H65" s="39">
         <v>5</v>
       </c>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="40"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C62" s="110"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107"/>
-      <c r="H62" s="39">
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="40"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C66" s="151"/>
+      <c r="D66" s="154"/>
+      <c r="E66" s="154"/>
+      <c r="F66" s="154"/>
+      <c r="G66" s="154"/>
+      <c r="H66" s="39">
         <v>10</v>
       </c>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="40"/>
-    </row>
-    <row r="63" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C63" s="113"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
-      <c r="G63" s="108"/>
-      <c r="H63" s="44" t="s">
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="40"/>
+    </row>
+    <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="157"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="46"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="51">
-        <v>44516</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="84">
-        <v>51</v>
-      </c>
-      <c r="D70" s="63">
-        <v>88</v>
-      </c>
-      <c r="E70" s="63">
-        <v>96</v>
-      </c>
-      <c r="F70" s="63">
-        <v>0.85</v>
-      </c>
-      <c r="G70" s="63">
-        <v>68</v>
-      </c>
-      <c r="H70" s="63">
-        <v>38</v>
-      </c>
-      <c r="I70" s="63">
-        <v>1724</v>
-      </c>
-      <c r="J70" s="61">
-        <f t="shared" ref="J70:J86" si="7">I70*60</f>
-        <v>103440</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="51">
-        <v>44516</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="84">
-        <v>52</v>
-      </c>
-      <c r="D71" s="63"/>
-      <c r="E71" s="63">
-        <v>98</v>
-      </c>
-      <c r="F71" s="63">
-        <v>0.86</v>
-      </c>
-      <c r="G71" s="63">
-        <v>68</v>
-      </c>
-      <c r="H71" s="63">
-        <v>36</v>
-      </c>
-      <c r="I71" s="63">
-        <v>1742</v>
-      </c>
-      <c r="J71" s="61">
-        <f t="shared" si="7"/>
-        <v>104520</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="51">
-        <v>44516</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" s="84">
-        <v>53</v>
-      </c>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63">
-        <v>103</v>
-      </c>
-      <c r="F72" s="63">
-        <v>0.9</v>
-      </c>
-      <c r="G72" s="63">
-        <v>68</v>
-      </c>
-      <c r="H72" s="63">
-        <v>34</v>
-      </c>
-      <c r="I72" s="63">
-        <v>1742</v>
-      </c>
-      <c r="J72" s="61">
-        <f t="shared" si="7"/>
-        <v>104520</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="51">
-        <v>44516</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="84">
-        <v>53</v>
-      </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63">
-        <v>105</v>
-      </c>
-      <c r="F73" s="63">
-        <v>0.92</v>
-      </c>
-      <c r="G73" s="63">
-        <v>68</v>
-      </c>
-      <c r="H73" s="63">
-        <v>32</v>
-      </c>
-      <c r="I73" s="63">
-        <v>1742</v>
-      </c>
-      <c r="J73" s="61">
-        <f t="shared" si="7"/>
-        <v>104520</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="51">
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="46"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="48">
         <v>44516</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="84">
-        <v>60</v>
-      </c>
-      <c r="D74" s="63">
-        <v>93</v>
-      </c>
-      <c r="E74" s="63">
-        <v>94</v>
-      </c>
-      <c r="F74" s="63">
-        <v>0.83</v>
-      </c>
-      <c r="G74" s="63">
-        <v>60</v>
-      </c>
-      <c r="H74" s="63">
-        <v>40</v>
-      </c>
-      <c r="I74" s="63">
-        <v>1656</v>
-      </c>
-      <c r="J74" s="61">
-        <f t="shared" si="7"/>
-        <v>99360</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="51">
+      <c r="C74" s="73">
+        <v>51</v>
+      </c>
+      <c r="D74" s="57">
+        <v>88</v>
+      </c>
+      <c r="E74" s="57">
+        <v>96</v>
+      </c>
+      <c r="F74" s="57">
+        <v>0.85</v>
+      </c>
+      <c r="G74" s="57">
+        <v>68</v>
+      </c>
+      <c r="H74" s="57">
+        <v>38</v>
+      </c>
+      <c r="I74" s="57">
+        <v>1724</v>
+      </c>
+      <c r="J74" s="55">
+        <f t="shared" ref="J74:J90" si="10">I74*60</f>
+        <v>103440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="48">
         <v>44516</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C75" s="84">
-        <v>58</v>
-      </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63">
-        <v>100</v>
-      </c>
-      <c r="F75" s="63">
-        <v>0.92</v>
-      </c>
-      <c r="G75" s="63">
-        <v>70</v>
-      </c>
-      <c r="H75" s="63">
-        <v>40</v>
-      </c>
-      <c r="I75" s="63">
-        <v>1767</v>
-      </c>
-      <c r="J75" s="61">
-        <f t="shared" si="7"/>
-        <v>106020</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="51">
+      <c r="C75" s="73">
+        <v>52</v>
+      </c>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57">
+        <v>98</v>
+      </c>
+      <c r="F75" s="57">
+        <v>0.86</v>
+      </c>
+      <c r="G75" s="57">
+        <v>68</v>
+      </c>
+      <c r="H75" s="57">
+        <v>36</v>
+      </c>
+      <c r="I75" s="57">
+        <v>1742</v>
+      </c>
+      <c r="J75" s="55">
+        <f t="shared" si="10"/>
+        <v>104520</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="48">
         <v>44516</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C76" s="84">
+      <c r="C76" s="73">
         <v>53</v>
       </c>
-      <c r="D76" s="63">
-        <v>88</v>
-      </c>
-      <c r="E76" s="63">
-        <v>94</v>
-      </c>
-      <c r="F76" s="63">
-        <v>0.86</v>
-      </c>
-      <c r="G76" s="63">
-        <v>70</v>
-      </c>
-      <c r="H76" s="63">
-        <v>38</v>
-      </c>
-      <c r="I76" s="63">
-        <v>1767</v>
-      </c>
-      <c r="J76" s="61">
-        <f t="shared" si="7"/>
-        <v>106020</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="51">
+      <c r="D76" s="57"/>
+      <c r="E76" s="57">
+        <v>103</v>
+      </c>
+      <c r="F76" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="G76" s="57">
+        <v>68</v>
+      </c>
+      <c r="H76" s="57">
+        <v>34</v>
+      </c>
+      <c r="I76" s="57">
+        <v>1742</v>
+      </c>
+      <c r="J76" s="55">
+        <f t="shared" si="10"/>
+        <v>104520</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="48">
         <v>44516</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="84">
-        <v>54</v>
-      </c>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63">
-        <v>95</v>
-      </c>
-      <c r="F77" s="63">
-        <v>0.88</v>
-      </c>
-      <c r="G77" s="63">
-        <v>70</v>
-      </c>
-      <c r="H77" s="63">
-        <v>36</v>
-      </c>
-      <c r="I77" s="63">
-        <v>1767</v>
-      </c>
-      <c r="J77" s="61">
-        <f t="shared" si="7"/>
-        <v>106020</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="51">
+      <c r="C77" s="73">
+        <v>53</v>
+      </c>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57">
+        <v>105</v>
+      </c>
+      <c r="F77" s="57">
+        <v>0.92</v>
+      </c>
+      <c r="G77" s="57">
+        <v>68</v>
+      </c>
+      <c r="H77" s="57">
+        <v>32</v>
+      </c>
+      <c r="I77" s="57">
+        <v>1742</v>
+      </c>
+      <c r="J77" s="55">
+        <f t="shared" si="10"/>
+        <v>104520</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="48">
         <v>44516</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="84">
-        <v>55</v>
-      </c>
-      <c r="D78" s="63">
-        <v>92</v>
-      </c>
-      <c r="E78" s="63">
-        <v>96</v>
-      </c>
-      <c r="F78" s="63">
-        <v>0.89</v>
-      </c>
-      <c r="G78" s="63">
-        <v>70</v>
-      </c>
-      <c r="H78" s="63">
-        <v>34</v>
-      </c>
-      <c r="I78" s="63">
-        <v>1767</v>
-      </c>
-      <c r="J78" s="61">
-        <f t="shared" si="7"/>
-        <v>106020</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="51">
+      <c r="C78" s="73">
+        <v>60</v>
+      </c>
+      <c r="D78" s="57">
+        <v>93</v>
+      </c>
+      <c r="E78" s="57">
+        <v>94</v>
+      </c>
+      <c r="F78" s="57">
+        <v>0.83</v>
+      </c>
+      <c r="G78" s="57">
+        <v>60</v>
+      </c>
+      <c r="H78" s="57">
+        <v>40</v>
+      </c>
+      <c r="I78" s="57">
+        <v>1656</v>
+      </c>
+      <c r="J78" s="55">
+        <f t="shared" si="10"/>
+        <v>99360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="48">
         <v>44516</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="84">
-        <v>54</v>
-      </c>
-      <c r="D79" s="63">
-        <v>92</v>
-      </c>
-      <c r="E79" s="63">
-        <v>96</v>
-      </c>
-      <c r="F79" s="63">
-        <v>0.83</v>
-      </c>
-      <c r="G79" s="63">
-        <v>74</v>
-      </c>
-      <c r="H79" s="63">
+      <c r="C79" s="73">
+        <v>58</v>
+      </c>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57">
+        <v>100</v>
+      </c>
+      <c r="F79" s="57">
+        <v>0.92</v>
+      </c>
+      <c r="G79" s="57">
+        <v>70</v>
+      </c>
+      <c r="H79" s="57">
         <v>40</v>
       </c>
-      <c r="I79" s="63">
-        <v>1736</v>
-      </c>
-      <c r="J79" s="61">
-        <f t="shared" si="7"/>
-        <v>104160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="51">
+      <c r="I79" s="57">
+        <v>1767</v>
+      </c>
+      <c r="J79" s="55">
+        <f t="shared" si="10"/>
+        <v>106020</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="48">
         <v>44516</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="84">
+      <c r="C80" s="73">
         <v>53</v>
       </c>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63">
-        <v>97</v>
-      </c>
-      <c r="F80" s="63">
-        <v>0.85</v>
-      </c>
-      <c r="G80" s="63">
-        <v>74</v>
-      </c>
-      <c r="H80" s="63">
-        <v>36</v>
-      </c>
-      <c r="I80" s="63">
+      <c r="D80" s="57">
+        <v>88</v>
+      </c>
+      <c r="E80" s="57">
+        <v>94</v>
+      </c>
+      <c r="F80" s="57">
+        <v>0.86</v>
+      </c>
+      <c r="G80" s="57">
+        <v>70</v>
+      </c>
+      <c r="H80" s="57">
+        <v>38</v>
+      </c>
+      <c r="I80" s="57">
         <v>1767</v>
       </c>
-      <c r="J80" s="61">
-        <f t="shared" si="7"/>
+      <c r="J80" s="55">
+        <f t="shared" si="10"/>
         <v>106020</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="51">
+      <c r="A81" s="48">
         <v>44516</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C81" s="84">
-        <v>56</v>
-      </c>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63">
-        <v>107</v>
-      </c>
-      <c r="F81" s="63">
-        <v>0.94</v>
-      </c>
-      <c r="G81" s="63">
-        <v>74</v>
-      </c>
-      <c r="H81" s="63">
-        <v>32</v>
-      </c>
-      <c r="I81" s="63">
+      <c r="C81" s="73">
+        <v>54</v>
+      </c>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57">
+        <v>95</v>
+      </c>
+      <c r="F81" s="57">
+        <v>0.88</v>
+      </c>
+      <c r="G81" s="57">
+        <v>70</v>
+      </c>
+      <c r="H81" s="57">
+        <v>36</v>
+      </c>
+      <c r="I81" s="57">
         <v>1767</v>
       </c>
-      <c r="J81" s="61">
-        <f t="shared" si="7"/>
+      <c r="J81" s="55">
+        <f t="shared" si="10"/>
         <v>106020</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="51">
+      <c r="A82" s="48">
         <v>44516</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C82" s="84">
-        <v>60</v>
-      </c>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63">
-        <v>115</v>
-      </c>
-      <c r="F82" s="63">
-        <v>0.99</v>
-      </c>
-      <c r="G82" s="63">
-        <v>74</v>
-      </c>
-      <c r="H82" s="63">
-        <v>28</v>
-      </c>
-      <c r="I82" s="63">
+      <c r="C82" s="73">
+        <v>55</v>
+      </c>
+      <c r="D82" s="57">
+        <v>92</v>
+      </c>
+      <c r="E82" s="57">
+        <v>96</v>
+      </c>
+      <c r="F82" s="57">
+        <v>0.89</v>
+      </c>
+      <c r="G82" s="57">
+        <v>70</v>
+      </c>
+      <c r="H82" s="57">
+        <v>34</v>
+      </c>
+      <c r="I82" s="57">
         <v>1767</v>
       </c>
-      <c r="J82" s="61">
-        <f t="shared" si="7"/>
+      <c r="J82" s="55">
+        <f t="shared" si="10"/>
         <v>106020</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="51">
+      <c r="A83" s="48">
         <v>44516</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C83" s="84">
-        <v>55</v>
-      </c>
-      <c r="D83" s="63">
-        <v>85</v>
-      </c>
-      <c r="E83" s="63">
-        <v>95</v>
-      </c>
-      <c r="F83" s="63">
-        <v>0.84</v>
-      </c>
-      <c r="G83" s="63">
-        <v>69</v>
-      </c>
-      <c r="H83" s="63">
-        <v>39</v>
-      </c>
-      <c r="I83" s="63">
-        <v>1730</v>
-      </c>
-      <c r="J83" s="61">
-        <f t="shared" si="7"/>
-        <v>103800</v>
+      <c r="C83" s="73">
+        <v>54</v>
+      </c>
+      <c r="D83" s="57">
+        <v>92</v>
+      </c>
+      <c r="E83" s="57">
+        <v>96</v>
+      </c>
+      <c r="F83" s="57">
+        <v>0.83</v>
+      </c>
+      <c r="G83" s="57">
+        <v>74</v>
+      </c>
+      <c r="H83" s="57">
+        <v>40</v>
+      </c>
+      <c r="I83" s="57">
+        <v>1736</v>
+      </c>
+      <c r="J83" s="55">
+        <f t="shared" si="10"/>
+        <v>104160</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="51">
+      <c r="A84" s="48">
         <v>44516</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C84" s="84">
-        <v>55</v>
-      </c>
-      <c r="D84" s="63"/>
-      <c r="E84" s="63">
-        <v>96</v>
-      </c>
-      <c r="F84" s="63">
-        <v>0.84</v>
-      </c>
-      <c r="G84" s="63">
-        <v>69</v>
-      </c>
-      <c r="H84" s="63">
-        <v>38</v>
-      </c>
-      <c r="I84" s="63">
-        <v>1730</v>
-      </c>
-      <c r="J84" s="61">
-        <f t="shared" si="7"/>
-        <v>103800</v>
+      <c r="C84" s="73">
+        <v>53</v>
+      </c>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57">
+        <v>97</v>
+      </c>
+      <c r="F84" s="57">
+        <v>0.85</v>
+      </c>
+      <c r="G84" s="57">
+        <v>74</v>
+      </c>
+      <c r="H84" s="57">
+        <v>36</v>
+      </c>
+      <c r="I84" s="57">
+        <v>1767</v>
+      </c>
+      <c r="J84" s="55">
+        <f t="shared" si="10"/>
+        <v>106020</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="51">
+      <c r="A85" s="48">
         <v>44516</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C85" s="84">
+      <c r="C85" s="73">
         <v>56</v>
       </c>
-      <c r="D85" s="63"/>
-      <c r="E85" s="63">
-        <v>98</v>
-      </c>
-      <c r="F85" s="63">
-        <v>0.85</v>
-      </c>
-      <c r="G85" s="63">
-        <v>69</v>
-      </c>
-      <c r="H85" s="63">
-        <v>37</v>
-      </c>
-      <c r="I85" s="63">
-        <v>1730</v>
-      </c>
-      <c r="J85" s="61">
-        <f t="shared" si="7"/>
-        <v>103800</v>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57">
+        <v>107</v>
+      </c>
+      <c r="F85" s="57">
+        <v>0.94</v>
+      </c>
+      <c r="G85" s="57">
+        <v>74</v>
+      </c>
+      <c r="H85" s="57">
+        <v>32</v>
+      </c>
+      <c r="I85" s="57">
+        <v>1767</v>
+      </c>
+      <c r="J85" s="55">
+        <f t="shared" si="10"/>
+        <v>106020</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="51">
+      <c r="A86" s="48">
         <v>44516</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="84">
+      <c r="C86" s="73">
+        <v>60</v>
+      </c>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57">
+        <v>115</v>
+      </c>
+      <c r="F86" s="57">
+        <v>0.99</v>
+      </c>
+      <c r="G86" s="57">
+        <v>74</v>
+      </c>
+      <c r="H86" s="57">
+        <v>28</v>
+      </c>
+      <c r="I86" s="57">
+        <v>1767</v>
+      </c>
+      <c r="J86" s="55">
+        <f t="shared" si="10"/>
+        <v>106020</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="48">
+        <v>44516</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="73">
+        <v>55</v>
+      </c>
+      <c r="D87" s="57">
+        <v>85</v>
+      </c>
+      <c r="E87" s="57">
+        <v>95</v>
+      </c>
+      <c r="F87" s="57">
+        <v>0.84</v>
+      </c>
+      <c r="G87" s="57">
+        <v>69</v>
+      </c>
+      <c r="H87" s="57">
+        <v>39</v>
+      </c>
+      <c r="I87" s="57">
+        <v>1730</v>
+      </c>
+      <c r="J87" s="55">
+        <f t="shared" si="10"/>
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="48">
+        <v>44516</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="73">
+        <v>55</v>
+      </c>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57">
+        <v>96</v>
+      </c>
+      <c r="F88" s="57">
+        <v>0.84</v>
+      </c>
+      <c r="G88" s="57">
+        <v>69</v>
+      </c>
+      <c r="H88" s="57">
+        <v>38</v>
+      </c>
+      <c r="I88" s="57">
+        <v>1730</v>
+      </c>
+      <c r="J88" s="55">
+        <f t="shared" si="10"/>
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="48">
+        <v>44516</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="73">
+        <v>56</v>
+      </c>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57">
+        <v>98</v>
+      </c>
+      <c r="F89" s="57">
+        <v>0.85</v>
+      </c>
+      <c r="G89" s="57">
+        <v>69</v>
+      </c>
+      <c r="H89" s="57">
+        <v>37</v>
+      </c>
+      <c r="I89" s="57">
+        <v>1730</v>
+      </c>
+      <c r="J89" s="55">
+        <f t="shared" si="10"/>
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="48">
+        <v>44516</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="73">
         <v>57</v>
       </c>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63">
+      <c r="D90" s="57"/>
+      <c r="E90" s="57">
         <v>98</v>
       </c>
-      <c r="F86" s="63">
+      <c r="F90" s="57">
         <v>0.87</v>
       </c>
-      <c r="G86" s="63">
+      <c r="G90" s="57">
         <v>69</v>
       </c>
-      <c r="H86" s="63">
+      <c r="H90" s="57">
         <v>36</v>
       </c>
-      <c r="I86" s="63">
+      <c r="I90" s="57">
         <v>1730</v>
       </c>
-      <c r="J86" s="61">
-        <f t="shared" si="7"/>
+      <c r="J90" s="55">
+        <f t="shared" si="10"/>
         <v>103800</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C25:J28">
-    <sortCondition ref="G25:G28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C23:J26">
+    <sortCondition ref="G23:G26"/>
   </sortState>
-  <mergeCells count="27">
-    <mergeCell ref="U2:AA2"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="Q24:Q33"/>
-    <mergeCell ref="F46:F51"/>
-    <mergeCell ref="G46:G51"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="G52:G57"/>
-    <mergeCell ref="F58:F63"/>
-    <mergeCell ref="G58:G63"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="E52:E57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="E58:E63"/>
+  <mergeCells count="28">
+    <mergeCell ref="F56:F61"/>
+    <mergeCell ref="G56:G61"/>
+    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="G62:G67"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="D56:D61"/>
+    <mergeCell ref="E56:E61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="D62:D67"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="F50:F55"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="E44:E49"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="Q22:Q37"/>
+    <mergeCell ref="R27:R33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6648,57 +7284,57 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="83" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="84">
+      <c r="C5" s="73">
         <v>60</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="57">
         <v>93</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="57">
         <v>94</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="57">
         <v>0.83</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="57">
         <v>60</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="57">
         <v>40</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="57">
         <v>1656</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="55">
         <f t="shared" ref="J5:J20" si="0">I5*60</f>
         <v>99360</v>
       </c>
@@ -6716,26 +7352,26 @@
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C6" s="84">
+      <c r="C6" s="73">
         <v>58</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57">
         <v>100</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="57">
         <v>0.92</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="57">
         <v>70</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="57">
         <v>40</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="57">
         <v>1767</v>
       </c>
-      <c r="J6" s="61">
+      <c r="J6" s="55">
         <f t="shared" si="0"/>
         <v>106020</v>
       </c>
@@ -6749,28 +7385,28 @@
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="84">
+      <c r="C7" s="73">
         <v>53</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="57">
         <v>88</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="57">
         <v>94</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="57">
         <v>0.86</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="57">
         <v>70</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="57">
         <v>38</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I7" s="57">
         <v>1767</v>
       </c>
-      <c r="J7" s="61">
+      <c r="J7" s="55">
         <f t="shared" si="0"/>
         <v>106020</v>
       </c>
@@ -6784,26 +7420,26 @@
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="84">
+      <c r="C8" s="73">
         <v>54</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57">
         <v>95</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="57">
         <v>0.88</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="57">
         <v>70</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="57">
         <v>36</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="57">
         <v>1767</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8" s="55">
         <f t="shared" si="0"/>
         <v>106020</v>
       </c>
@@ -6817,28 +7453,28 @@
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="84">
+      <c r="C9" s="73">
         <v>55</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="57">
         <v>92</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="57">
         <v>96</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="57">
         <v>0.89</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="57">
         <v>70</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="57">
         <v>34</v>
       </c>
-      <c r="I9" s="63">
+      <c r="I9" s="57">
         <v>1767</v>
       </c>
-      <c r="J9" s="61">
+      <c r="J9" s="55">
         <f t="shared" si="0"/>
         <v>106020</v>
       </c>
@@ -6852,28 +7488,28 @@
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="84">
+      <c r="C10" s="73">
         <v>51</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="57">
         <v>88</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="57">
         <v>96</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="57">
         <v>0.85</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="57">
         <v>68</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="57">
         <v>38</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="57">
         <v>1724</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10" s="55">
         <f t="shared" si="0"/>
         <v>103440</v>
       </c>
@@ -6887,26 +7523,26 @@
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="84">
+      <c r="C11" s="73">
         <v>52</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63">
+      <c r="D11" s="57"/>
+      <c r="E11" s="57">
         <v>98</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="57">
         <v>0.86</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="57">
         <v>68</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="57">
         <v>36</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="57">
         <v>1742</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11" s="55">
         <f t="shared" si="0"/>
         <v>104520</v>
       </c>
@@ -6920,26 +7556,26 @@
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="84">
+      <c r="C12" s="73">
         <v>53</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63">
+      <c r="D12" s="57"/>
+      <c r="E12" s="57">
         <v>103</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="57">
         <v>0.9</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="57">
         <v>68</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="57">
         <v>34</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="57">
         <v>1742</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="55">
         <f t="shared" si="0"/>
         <v>104520</v>
       </c>
@@ -6953,26 +7589,26 @@
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="84">
+      <c r="C13" s="73">
         <v>53</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63">
+      <c r="D13" s="57"/>
+      <c r="E13" s="57">
         <v>105</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="57">
         <v>0.92</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="57">
         <v>68</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="57">
         <v>32</v>
       </c>
-      <c r="I13" s="63">
+      <c r="I13" s="57">
         <v>1742</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="55">
         <f t="shared" si="0"/>
         <v>104520</v>
       </c>
@@ -6986,26 +7622,26 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="84">
+      <c r="C14" s="73">
         <v>56</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57">
         <v>107</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="57">
         <v>0.92</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="57">
         <v>76</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="57">
         <v>40</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="57">
         <v>1818</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14" s="55">
         <f t="shared" si="0"/>
         <v>109080</v>
       </c>
@@ -7019,28 +7655,28 @@
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="84">
+      <c r="C15" s="73">
         <v>56</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="57">
         <v>94</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="57">
         <v>104</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="57">
         <v>0.92</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="57">
         <v>76</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="57">
         <v>36</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="57">
         <v>1818</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15" s="55">
         <f t="shared" si="0"/>
         <v>109080</v>
       </c>
@@ -7054,26 +7690,26 @@
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="84">
+      <c r="C16" s="73">
         <v>59</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57">
         <v>112</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="57">
         <v>0.94</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="57">
         <v>76</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="57">
         <v>32</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="57">
         <v>1818</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16" s="55">
         <f t="shared" si="0"/>
         <v>109080</v>
       </c>
@@ -7087,28 +7723,28 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="84">
+      <c r="C17" s="73">
         <v>54</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="57">
         <v>92</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="57">
         <v>96</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="57">
         <v>0.83</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="57">
         <v>74</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="57">
         <v>40</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="57">
         <v>1736</v>
       </c>
-      <c r="J17" s="61">
+      <c r="J17" s="55">
         <f t="shared" si="0"/>
         <v>104160</v>
       </c>
@@ -7122,26 +7758,26 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="84">
+      <c r="C18" s="73">
         <v>53</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63">
+      <c r="D18" s="57"/>
+      <c r="E18" s="57">
         <v>97</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="57">
         <v>0.85</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="57">
         <v>74</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="57">
         <v>36</v>
       </c>
-      <c r="I18" s="63">
+      <c r="I18" s="57">
         <v>1767</v>
       </c>
-      <c r="J18" s="61">
+      <c r="J18" s="55">
         <f t="shared" si="0"/>
         <v>106020</v>
       </c>
@@ -7155,26 +7791,26 @@
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="84">
+      <c r="C19" s="73">
         <v>56</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63">
+      <c r="D19" s="57"/>
+      <c r="E19" s="57">
         <v>107</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="57">
         <v>0.94</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="57">
         <v>74</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="57">
         <v>32</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="57">
         <v>1767</v>
       </c>
-      <c r="J19" s="61">
+      <c r="J19" s="55">
         <f t="shared" si="0"/>
         <v>106020</v>
       </c>
@@ -7188,26 +7824,26 @@
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="84">
+      <c r="C20" s="73">
         <v>60</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63">
+      <c r="D20" s="57"/>
+      <c r="E20" s="57">
         <v>115</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="57">
         <v>0.99</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="57">
         <v>74</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="57">
         <v>28</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="57">
         <v>1767</v>
       </c>
-      <c r="J20" s="61">
+      <c r="J20" s="55">
         <f t="shared" si="0"/>
         <v>106020</v>
       </c>
@@ -7360,23 +7996,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O2" s="127" t="s">
+      <c r="O2" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P3" s="127" t="s">
+      <c r="P3" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="127"/>
+      <c r="Q3" s="158"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="127"/>
+      <c r="E4" s="158"/>
       <c r="O4" s="23" t="s">
         <v>55</v>
       </c>
@@ -7652,18 +8288,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="49" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="79" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7696,7 +8332,7 @@
       <c r="J6" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="92">
+      <c r="K6" s="81">
         <f>230*1.414</f>
         <v>325.21999999999997</v>
       </c>
@@ -8005,4 +8641,426 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473174D2-BBBA-4CD7-B743-F791EBF17A9F}">
+  <dimension ref="A2:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="163" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="162" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="163"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="163" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="163"/>
+      <c r="H3" s="164"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="166"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="112" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="159">
+        <v>1</v>
+      </c>
+      <c r="B5" s="113">
+        <v>1</v>
+      </c>
+      <c r="C5" s="114">
+        <v>50</v>
+      </c>
+      <c r="D5" s="113">
+        <v>16</v>
+      </c>
+      <c r="E5" s="115">
+        <f>D5/C5</f>
+        <v>0.32</v>
+      </c>
+      <c r="F5" s="113">
+        <v>50</v>
+      </c>
+      <c r="G5" s="113">
+        <v>19</v>
+      </c>
+      <c r="H5" s="115">
+        <f>G5/F5</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="160"/>
+      <c r="B6" s="116">
+        <v>2</v>
+      </c>
+      <c r="C6" s="117">
+        <v>50</v>
+      </c>
+      <c r="D6" s="116">
+        <v>21</v>
+      </c>
+      <c r="E6" s="118">
+        <f t="shared" ref="E6:E13" si="0">D6/C6</f>
+        <v>0.42</v>
+      </c>
+      <c r="F6" s="116">
+        <v>50</v>
+      </c>
+      <c r="G6" s="116">
+        <v>20</v>
+      </c>
+      <c r="H6" s="118">
+        <f t="shared" ref="H6:H13" si="1">G6/F6</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="168"/>
+      <c r="B7" s="119">
+        <v>3</v>
+      </c>
+      <c r="C7" s="120">
+        <v>50</v>
+      </c>
+      <c r="D7" s="119">
+        <v>26</v>
+      </c>
+      <c r="E7" s="121">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="F7" s="119">
+        <v>50</v>
+      </c>
+      <c r="G7" s="119">
+        <v>26</v>
+      </c>
+      <c r="H7" s="121">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="159">
+        <v>2</v>
+      </c>
+      <c r="B8" s="113">
+        <v>1</v>
+      </c>
+      <c r="C8" s="114">
+        <v>50</v>
+      </c>
+      <c r="D8" s="113">
+        <v>24</v>
+      </c>
+      <c r="E8" s="115">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="F8" s="113">
+        <v>50</v>
+      </c>
+      <c r="G8" s="113">
+        <v>23</v>
+      </c>
+      <c r="H8" s="115">
+        <f t="shared" si="1"/>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="160"/>
+      <c r="B9" s="116">
+        <v>2</v>
+      </c>
+      <c r="C9" s="117">
+        <v>50</v>
+      </c>
+      <c r="D9" s="116">
+        <v>29</v>
+      </c>
+      <c r="E9" s="118">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F9" s="116">
+        <v>50</v>
+      </c>
+      <c r="G9" s="116">
+        <v>25</v>
+      </c>
+      <c r="H9" s="118">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="168"/>
+      <c r="B10" s="119">
+        <v>3</v>
+      </c>
+      <c r="C10" s="120">
+        <v>50</v>
+      </c>
+      <c r="D10" s="119">
+        <v>32</v>
+      </c>
+      <c r="E10" s="121">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="F10" s="119">
+        <v>50</v>
+      </c>
+      <c r="G10" s="119">
+        <v>34</v>
+      </c>
+      <c r="H10" s="121">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="159">
+        <v>3</v>
+      </c>
+      <c r="B11" s="113">
+        <v>1</v>
+      </c>
+      <c r="C11" s="114">
+        <v>50</v>
+      </c>
+      <c r="D11" s="113">
+        <v>26</v>
+      </c>
+      <c r="E11" s="115">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="F11" s="113">
+        <v>50</v>
+      </c>
+      <c r="G11" s="113">
+        <v>26</v>
+      </c>
+      <c r="H11" s="115">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="160"/>
+      <c r="B12" s="116">
+        <v>2</v>
+      </c>
+      <c r="C12" s="117">
+        <v>50</v>
+      </c>
+      <c r="D12" s="116">
+        <v>30</v>
+      </c>
+      <c r="E12" s="118">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F12" s="116">
+        <v>50</v>
+      </c>
+      <c r="G12" s="116">
+        <v>34</v>
+      </c>
+      <c r="H12" s="118">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="161"/>
+      <c r="B13" s="122">
+        <v>3</v>
+      </c>
+      <c r="C13" s="123">
+        <v>50</v>
+      </c>
+      <c r="D13" s="122">
+        <v>25</v>
+      </c>
+      <c r="E13" s="124">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="122">
+        <v>50</v>
+      </c>
+      <c r="G13" s="122">
+        <v>50</v>
+      </c>
+      <c r="H13" s="124">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DC48DC-E91E-4B06-A380-D93D1780D1B2}">
+  <dimension ref="B3:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentacion/Mediciones Motores.xlsx
+++ b/Documentacion/Mediciones Motores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arimex\Repo\Arimex\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C20DF5C-227B-47F1-A365-3EE522F1D0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3E3DEA-E600-44A8-8B66-423E87EF1FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="694" activeTab="7" xr2:uid="{3C149484-8A63-4D47-9889-9B55E210EF14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="694" activeTab="2" xr2:uid="{3C149484-8A63-4D47-9889-9B55E210EF14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Calefactores" sheetId="7" r:id="rId7"/>
     <sheet name="Placas Lite" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Mediciones 2-11'!$A$2:$P$37</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="139">
   <si>
     <t>Mediciones motores ITA</t>
   </si>
@@ -469,6 +472,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1661,24 +1667,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1688,11 +1676,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1712,29 +1718,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4205,9 +4211,9 @@
   </sheetPr>
   <dimension ref="A1:AB90"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4227,33 +4233,33 @@
       <c r="B1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="136" t="s">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="138"/>
-      <c r="U1" s="133" t="s">
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="155"/>
+      <c r="U1" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="135"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="152"/>
     </row>
     <row r="2" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B2" s="4"/>
@@ -5519,7 +5525,7 @@
         <f t="shared" si="5"/>
         <v>104880</v>
       </c>
-      <c r="Q22" s="142" t="s">
+      <c r="Q22" s="156" t="s">
         <v>117</v>
       </c>
       <c r="R22">
@@ -5584,7 +5590,7 @@
         <f t="shared" si="5"/>
         <v>104160</v>
       </c>
-      <c r="Q23" s="142"/>
+      <c r="Q23" s="156"/>
       <c r="R23">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -5647,7 +5653,7 @@
         <f t="shared" si="5"/>
         <v>105000</v>
       </c>
-      <c r="Q24" s="142"/>
+      <c r="Q24" s="156"/>
       <c r="R24">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -5710,7 +5716,7 @@
         <f t="shared" si="5"/>
         <v>105000</v>
       </c>
-      <c r="Q25" s="142"/>
+      <c r="Q25" s="156"/>
       <c r="R25">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5760,7 +5766,7 @@
       <c r="N26" s="57"/>
       <c r="O26" s="57"/>
       <c r="P26" s="74"/>
-      <c r="Q26" s="142"/>
+      <c r="Q26" s="156"/>
       <c r="AA26" s="25"/>
       <c r="AB26" s="25"/>
     </row>
@@ -5802,8 +5808,8 @@
       <c r="N27" s="95"/>
       <c r="O27" s="95"/>
       <c r="P27" s="97"/>
-      <c r="Q27" s="142"/>
-      <c r="R27" s="143" t="s">
+      <c r="Q27" s="156"/>
+      <c r="R27" s="157" t="s">
         <v>119</v>
       </c>
       <c r="AA27" s="25"/>
@@ -5838,7 +5844,7 @@
         <v>1736</v>
       </c>
       <c r="J28" s="85">
-        <f t="shared" ref="J28:J30" si="6">I28*60</f>
+        <f t="shared" ref="J28:J31" si="6">I28*60</f>
         <v>104160</v>
       </c>
       <c r="K28" s="73">
@@ -5860,8 +5866,8 @@
         <f t="shared" si="5"/>
         <v>105000</v>
       </c>
-      <c r="Q28" s="142"/>
-      <c r="R28" s="143"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="157"/>
       <c r="AA28" s="25"/>
       <c r="AB28" s="25"/>
     </row>
@@ -5916,8 +5922,8 @@
         <f t="shared" si="5"/>
         <v>105000</v>
       </c>
-      <c r="Q29" s="142"/>
-      <c r="R29" s="143"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="157"/>
       <c r="AA29" s="25"/>
       <c r="AB29" s="25"/>
     </row>
@@ -5972,64 +5978,93 @@
         <f t="shared" si="5"/>
         <v>105000</v>
       </c>
-      <c r="Q30" s="142"/>
-      <c r="R30" s="143"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="157"/>
       <c r="AA30" s="25"/>
       <c r="AB30" s="25"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="48">
-        <v>44522</v>
+        <v>44537</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
+        <v>77</v>
+      </c>
+      <c r="C31" s="73">
+        <v>33</v>
+      </c>
+      <c r="D31" s="57">
+        <v>42</v>
+      </c>
+      <c r="E31" s="57">
+        <v>84</v>
+      </c>
+      <c r="F31" s="57">
+        <v>0.65</v>
+      </c>
+      <c r="G31" s="57">
+        <v>68</v>
+      </c>
+      <c r="H31" s="57">
+        <v>40</v>
+      </c>
+      <c r="I31" s="57">
+        <v>1718</v>
+      </c>
       <c r="J31" s="85">
-        <f t="shared" ref="J31" si="7">I31*60</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>103080</v>
       </c>
       <c r="K31" s="73"/>
       <c r="L31" s="57"/>
       <c r="M31" s="57"/>
       <c r="N31" s="57"/>
-      <c r="O31" s="57">
-        <v>1750</v>
-      </c>
-      <c r="P31" s="74">
-        <f t="shared" ref="P31" si="8">O31*60</f>
-        <v>105000</v>
-      </c>
-      <c r="Q31" s="142"/>
-      <c r="R31" s="143"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="157"/>
       <c r="AA31" s="25"/>
       <c r="AB31" s="25"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="87"/>
+      <c r="A32" s="48">
+        <v>44537</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="73">
+        <v>33</v>
+      </c>
+      <c r="D32" s="57">
+        <v>42</v>
+      </c>
+      <c r="E32" s="57">
+        <v>83</v>
+      </c>
+      <c r="F32" s="57">
+        <v>0.65</v>
+      </c>
+      <c r="G32" s="57">
+        <v>68</v>
+      </c>
+      <c r="H32" s="57">
+        <v>40</v>
+      </c>
+      <c r="I32" s="57">
+        <v>1700</v>
+      </c>
+      <c r="J32" s="87">
+        <v>103080</v>
+      </c>
       <c r="K32" s="73"/>
       <c r="L32" s="57"/>
       <c r="M32" s="57"/>
       <c r="N32" s="57"/>
       <c r="O32" s="57"/>
       <c r="P32" s="74"/>
-      <c r="Q32" s="142"/>
-      <c r="R32" s="143"/>
+      <c r="Q32" s="156"/>
+      <c r="R32" s="157"/>
       <c r="AA32" s="25"/>
       <c r="AB32" s="25"/>
     </row>
@@ -6050,8 +6085,8 @@
       <c r="N33" s="57"/>
       <c r="O33" s="57"/>
       <c r="P33" s="74"/>
-      <c r="Q33" s="142"/>
-      <c r="R33" s="143"/>
+      <c r="Q33" s="156"/>
+      <c r="R33" s="157"/>
       <c r="AA33" s="25"/>
       <c r="AB33" s="25"/>
     </row>
@@ -6074,7 +6109,7 @@
       <c r="N34" s="57"/>
       <c r="O34" s="57"/>
       <c r="P34" s="74"/>
-      <c r="Q34" s="142"/>
+      <c r="Q34" s="156"/>
       <c r="AA34" s="25"/>
       <c r="AB34" s="25"/>
     </row>
@@ -6095,7 +6130,7 @@
       <c r="N35" s="57"/>
       <c r="O35" s="57"/>
       <c r="P35" s="74"/>
-      <c r="Q35" s="142"/>
+      <c r="Q35" s="156"/>
       <c r="AA35" s="25"/>
       <c r="AB35" s="25"/>
     </row>
@@ -6147,10 +6182,10 @@
         <v>1750</v>
       </c>
       <c r="P36" s="74">
-        <f t="shared" ref="P36:P37" si="9">O36*60</f>
+        <f t="shared" ref="P36:P37" si="7">O36*60</f>
         <v>105000</v>
       </c>
-      <c r="Q36" s="142"/>
+      <c r="Q36" s="156"/>
       <c r="R36">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6210,10 +6245,10 @@
         <v>1750</v>
       </c>
       <c r="P37" s="74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>105000</v>
       </c>
-      <c r="Q37" s="142"/>
+      <c r="Q37" s="156"/>
       <c r="R37">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6316,17 +6351,17 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="150" t="s">
+      <c r="C44" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="136">
         <v>62</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="136">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
       <c r="H44" s="37">
         <v>1</v>
       </c>
@@ -6350,11 +6385,11 @@
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C45" s="151"/>
-      <c r="D45" s="154"/>
-      <c r="E45" s="154"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
       <c r="H45" s="39">
         <v>2</v>
       </c>
@@ -6376,11 +6411,11 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="151"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
       <c r="H46" s="39">
         <v>3</v>
       </c>
@@ -6402,11 +6437,11 @@
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C47" s="151"/>
-      <c r="D47" s="154"/>
-      <c r="E47" s="154"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="140"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
       <c r="H47" s="39">
         <v>5</v>
       </c>
@@ -6421,11 +6456,11 @@
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C48" s="151"/>
-      <c r="D48" s="154"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="140"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="134"/>
       <c r="H48" s="39">
         <v>10</v>
       </c>
@@ -6440,11 +6475,11 @@
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C49" s="152"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="155"/>
-      <c r="F49" s="141"/>
-      <c r="G49" s="141"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="135"/>
       <c r="H49" s="41" t="s">
         <v>70</v>
       </c>
@@ -6455,17 +6490,17 @@
       <c r="K49" s="43"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C50" s="150" t="s">
+      <c r="C50" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="153">
+      <c r="D50" s="136">
         <v>66.099999999999994</v>
       </c>
-      <c r="E50" s="153">
+      <c r="E50" s="136">
         <v>15.2</v>
       </c>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
       <c r="H50" s="37">
         <v>1</v>
       </c>
@@ -6474,11 +6509,11 @@
       <c r="K50" s="38"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C51" s="151"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="140"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
       <c r="H51" s="39">
         <v>2</v>
       </c>
@@ -6487,11 +6522,11 @@
       <c r="K51" s="40"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C52" s="151"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="140"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="134"/>
       <c r="H52" s="39">
         <v>3</v>
       </c>
@@ -6500,11 +6535,11 @@
       <c r="K52" s="40"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C53" s="151"/>
-      <c r="D53" s="154"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="140"/>
-      <c r="G53" s="140"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
       <c r="H53" s="39">
         <v>5</v>
       </c>
@@ -6513,11 +6548,11 @@
       <c r="K53" s="40"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C54" s="151"/>
-      <c r="D54" s="154"/>
-      <c r="E54" s="154"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
       <c r="H54" s="39">
         <v>10</v>
       </c>
@@ -6526,11 +6561,11 @@
       <c r="K54" s="40"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C55" s="152"/>
-      <c r="D55" s="155"/>
-      <c r="E55" s="155"/>
-      <c r="F55" s="141"/>
-      <c r="G55" s="141"/>
+      <c r="C55" s="141"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="142"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="135"/>
       <c r="H55" s="41" t="s">
         <v>70</v>
       </c>
@@ -6539,11 +6574,11 @@
       <c r="K55" s="43"/>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C56" s="150"/>
-      <c r="D56" s="153"/>
-      <c r="E56" s="153"/>
-      <c r="F56" s="139"/>
-      <c r="G56" s="139"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
       <c r="H56" s="37">
         <v>1</v>
       </c>
@@ -6552,11 +6587,11 @@
       <c r="K56" s="38"/>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C57" s="151"/>
-      <c r="D57" s="154"/>
-      <c r="E57" s="154"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
       <c r="H57" s="39">
         <v>2</v>
       </c>
@@ -6565,11 +6600,11 @@
       <c r="K57" s="40"/>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C58" s="151"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
       <c r="H58" s="39">
         <v>3</v>
       </c>
@@ -6578,11 +6613,11 @@
       <c r="K58" s="40"/>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C59" s="151"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
       <c r="H59" s="39">
         <v>5</v>
       </c>
@@ -6591,11 +6626,11 @@
       <c r="K59" s="40"/>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C60" s="151"/>
-      <c r="D60" s="154"/>
-      <c r="E60" s="154"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="134"/>
       <c r="H60" s="39">
         <v>10</v>
       </c>
@@ -6604,11 +6639,11 @@
       <c r="K60" s="40"/>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C61" s="152"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="141"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="135"/>
+      <c r="G61" s="135"/>
       <c r="H61" s="41" t="s">
         <v>70</v>
       </c>
@@ -6617,11 +6652,11 @@
       <c r="K61" s="43"/>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C62" s="150"/>
-      <c r="D62" s="153"/>
-      <c r="E62" s="153"/>
-      <c r="F62" s="153"/>
-      <c r="G62" s="153"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="136"/>
+      <c r="G62" s="136"/>
       <c r="H62" s="37">
         <v>1</v>
       </c>
@@ -6630,11 +6665,11 @@
       <c r="K62" s="38"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C63" s="151"/>
-      <c r="D63" s="154"/>
-      <c r="E63" s="154"/>
-      <c r="F63" s="154"/>
-      <c r="G63" s="154"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="137"/>
+      <c r="G63" s="137"/>
       <c r="H63" s="39">
         <v>2</v>
       </c>
@@ -6643,11 +6678,11 @@
       <c r="K63" s="40"/>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C64" s="151"/>
-      <c r="D64" s="154"/>
-      <c r="E64" s="154"/>
-      <c r="F64" s="154"/>
-      <c r="G64" s="154"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
       <c r="H64" s="39">
         <v>3</v>
       </c>
@@ -6656,11 +6691,11 @@
       <c r="K64" s="40"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C65" s="151"/>
-      <c r="D65" s="154"/>
-      <c r="E65" s="154"/>
-      <c r="F65" s="154"/>
-      <c r="G65" s="154"/>
+      <c r="C65" s="140"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="137"/>
+      <c r="F65" s="137"/>
+      <c r="G65" s="137"/>
       <c r="H65" s="39">
         <v>5</v>
       </c>
@@ -6669,11 +6704,11 @@
       <c r="K65" s="40"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C66" s="151"/>
-      <c r="D66" s="154"/>
-      <c r="E66" s="154"/>
-      <c r="F66" s="154"/>
-      <c r="G66" s="154"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="137"/>
+      <c r="F66" s="137"/>
+      <c r="G66" s="137"/>
       <c r="H66" s="39">
         <v>10</v>
       </c>
@@ -6682,11 +6717,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C67" s="157"/>
-      <c r="D67" s="156"/>
-      <c r="E67" s="156"/>
-      <c r="F67" s="156"/>
-      <c r="G67" s="156"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="138"/>
+      <c r="E67" s="138"/>
+      <c r="F67" s="138"/>
+      <c r="G67" s="138"/>
       <c r="H67" s="44" t="s">
         <v>70</v>
       </c>
@@ -6723,7 +6758,7 @@
         <v>1724</v>
       </c>
       <c r="J74" s="55">
-        <f t="shared" ref="J74:J90" si="10">I74*60</f>
+        <f t="shared" ref="J74:J90" si="8">I74*60</f>
         <v>103440</v>
       </c>
     </row>
@@ -6754,7 +6789,7 @@
         <v>1742</v>
       </c>
       <c r="J75" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>104520</v>
       </c>
     </row>
@@ -6785,7 +6820,7 @@
         <v>1742</v>
       </c>
       <c r="J76" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>104520</v>
       </c>
     </row>
@@ -6816,7 +6851,7 @@
         <v>1742</v>
       </c>
       <c r="J77" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>104520</v>
       </c>
     </row>
@@ -6849,7 +6884,7 @@
         <v>1656</v>
       </c>
       <c r="J78" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>99360</v>
       </c>
     </row>
@@ -6880,7 +6915,7 @@
         <v>1767</v>
       </c>
       <c r="J79" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>106020</v>
       </c>
     </row>
@@ -6913,7 +6948,7 @@
         <v>1767</v>
       </c>
       <c r="J80" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>106020</v>
       </c>
     </row>
@@ -6944,7 +6979,7 @@
         <v>1767</v>
       </c>
       <c r="J81" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>106020</v>
       </c>
     </row>
@@ -6977,7 +7012,7 @@
         <v>1767</v>
       </c>
       <c r="J82" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>106020</v>
       </c>
     </row>
@@ -7010,7 +7045,7 @@
         <v>1736</v>
       </c>
       <c r="J83" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>104160</v>
       </c>
     </row>
@@ -7041,7 +7076,7 @@
         <v>1767</v>
       </c>
       <c r="J84" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>106020</v>
       </c>
     </row>
@@ -7072,7 +7107,7 @@
         <v>1767</v>
       </c>
       <c r="J85" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>106020</v>
       </c>
     </row>
@@ -7103,7 +7138,7 @@
         <v>1767</v>
       </c>
       <c r="J86" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>106020</v>
       </c>
     </row>
@@ -7136,7 +7171,7 @@
         <v>1730</v>
       </c>
       <c r="J87" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>103800</v>
       </c>
     </row>
@@ -7167,7 +7202,7 @@
         <v>1730</v>
       </c>
       <c r="J88" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>103800</v>
       </c>
     </row>
@@ -7198,7 +7233,7 @@
         <v>1730</v>
       </c>
       <c r="J89" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>103800</v>
       </c>
     </row>
@@ -7229,25 +7264,23 @@
         <v>1730</v>
       </c>
       <c r="J90" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>103800</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:P37" xr:uid="{5D0B5634-B068-4E96-84B1-399A22DD4947}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C23:J26">
     <sortCondition ref="G23:G26"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="F56:F61"/>
-    <mergeCell ref="G56:G61"/>
-    <mergeCell ref="F62:F67"/>
-    <mergeCell ref="G62:G67"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="D56:D61"/>
-    <mergeCell ref="E56:E61"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="D62:D67"/>
-    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="Q22:Q37"/>
+    <mergeCell ref="R27:R33"/>
     <mergeCell ref="F50:F55"/>
     <mergeCell ref="G50:G55"/>
     <mergeCell ref="M42:O42"/>
@@ -7259,13 +7292,16 @@
     <mergeCell ref="C44:C49"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="E44:E49"/>
-    <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="F44:F49"/>
-    <mergeCell ref="G44:G49"/>
-    <mergeCell ref="Q22:Q37"/>
-    <mergeCell ref="R27:R33"/>
+    <mergeCell ref="F56:F61"/>
+    <mergeCell ref="G56:G61"/>
+    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="G62:G67"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="D56:D61"/>
+    <mergeCell ref="E56:E61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="D62:D67"/>
+    <mergeCell ref="E62:E67"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8953,8 +8989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DC48DC-E91E-4B06-A380-D93D1780D1B2}">
   <dimension ref="B3:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8992,6 +9028,9 @@
       <c r="E4" t="s">
         <v>137</v>
       </c>
+      <c r="G4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -9006,6 +9045,9 @@
       <c r="E5" t="s">
         <v>137</v>
       </c>
+      <c r="G5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -9031,6 +9073,9 @@
       <c r="E7" t="s">
         <v>137</v>
       </c>
+      <c r="G7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8">
@@ -9045,6 +9090,9 @@
       <c r="E8" t="s">
         <v>137</v>
       </c>
+      <c r="G8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -9057,6 +9105,12 @@
         <v>137</v>
       </c>
       <c r="E9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" t="s">
         <v>137</v>
       </c>
     </row>
